--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="498">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2064,22 +2064,31 @@
     <t>hpfm_lov-8</t>
   </si>
   <si>
+    <t>HMSG</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_lov-9</t>
+  </si>
+  <si>
     <t>HMSG.CALL.SERVER_TYPE</t>
   </si>
   <si>
-    <t>IDP</t>
-  </si>
-  <si>
     <t>语音服务类型</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_lov-9</t>
+    <t>hpfm_lov-10</t>
   </si>
   <si>
     <t>HMSG.DINGTALK.AUTH_TYPE</t>
@@ -2091,7 +2100,7 @@
     <t>Dingtalk auth type</t>
   </si>
   <si>
-    <t>hpfm_lov-10</t>
+    <t>hpfm_lov-11</t>
   </si>
   <si>
     <t>HMSG.EMAIL.FILTER_STRATEGY</t>
@@ -2100,7 +2109,7 @@
     <t>邮箱账户筛选策略</t>
   </si>
   <si>
-    <t>hpfm_lov-11</t>
+    <t>hpfm_lov-12</t>
   </si>
   <si>
     <t>HMSG.EMAIL_PROTOCOL</t>
@@ -2109,7 +2118,7 @@
     <t>邮件协议</t>
   </si>
   <si>
-    <t>hpfm_lov-12</t>
+    <t>hpfm_lov-13</t>
   </si>
   <si>
     <t>HMSG.MESSAGE_CATEGORY</t>
@@ -2118,7 +2127,7 @@
     <t>消息分类</t>
   </si>
   <si>
-    <t>hpfm_lov-13</t>
+    <t>hpfm_lov-14</t>
   </si>
   <si>
     <t>HMSG.MESSAGE_SUBCATEGORY</t>
@@ -2127,7 +2136,7 @@
     <t>消息子分类</t>
   </si>
   <si>
-    <t>hpfm_lov-14</t>
+    <t>hpfm_lov-15</t>
   </si>
   <si>
     <t>HMSG.MESSAGE_TEMPLATE</t>
@@ -2142,7 +2151,8 @@
     <t>消息模板</t>
   </si>
   <si>
-    <t>SELECT
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()" /&gt;
+SELECT
         template_id,
 	template_code,
 	template_name,
@@ -2171,10 +2181,7 @@
 ORDER BY template_code</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>hpfm_lov-15</t>
+    <t>hpfm_lov-16</t>
   </si>
   <si>
     <t>HMSG.MESSAGE_TYPE</t>
@@ -2183,7 +2190,7 @@
     <t>消息模板类型</t>
   </si>
   <si>
-    <t>hpfm_lov-16</t>
+    <t>hpfm_lov-17</t>
   </si>
   <si>
     <t>HMSG.NOTICE.NOTICE_CATEGORY</t>
@@ -2195,7 +2202,7 @@
     <t>HMSG.NOTICE.RECERVER_TYPE</t>
   </si>
   <si>
-    <t>hpfm_lov-17</t>
+    <t>hpfm_lov-18</t>
   </si>
   <si>
     <t>HMSG.NOTICE.NOTICE_TYPE</t>
@@ -2204,7 +2211,7 @@
     <t>公告类型</t>
   </si>
   <si>
-    <t>hpfm_lov-18</t>
+    <t>hpfm_lov-19</t>
   </si>
   <si>
     <t>HMSG.NOTICE.NOTICE_TYPE.CH</t>
@@ -2213,7 +2220,7 @@
     <t>公告类型-子集</t>
   </si>
   <si>
-    <t>hpfm_lov-19</t>
+    <t>hpfm_lov-20</t>
   </si>
   <si>
     <t>HMSG.NOTICE.RECEIVER_RECORD_TYPE</t>
@@ -2222,13 +2229,13 @@
     <t>接收记录类型</t>
   </si>
   <si>
-    <t>hpfm_lov-20</t>
+    <t>hpfm_lov-21</t>
   </si>
   <si>
     <t>公告发布对象类别</t>
   </si>
   <si>
-    <t>hpfm_lov-21</t>
+    <t>hpfm_lov-22</t>
   </si>
   <si>
     <t>HMSG.NOTICE.STATUS</t>
@@ -2237,7 +2244,7 @@
     <t>公告状态</t>
   </si>
   <si>
-    <t>hpfm_lov-22</t>
+    <t>hpfm_lov-23</t>
   </si>
   <si>
     <t>HMSG.NOTICE_RECEIVER_UNIT</t>
@@ -2252,7 +2259,7 @@
     <t>/v1/{organizationId}/notices/receivers/units</t>
   </si>
   <si>
-    <t>hpfm_lov-23</t>
+    <t>hpfm_lov-24</t>
   </si>
   <si>
     <t>HMSG.RECEIVER</t>
@@ -2286,7 +2293,7 @@
         &lt;/if&gt;</t>
   </si>
   <si>
-    <t>hpfm_lov-24</t>
+    <t>hpfm_lov-25</t>
   </si>
   <si>
     <t>HMSG.RECEIVER.TYPE_MODE</t>
@@ -2295,7 +2302,7 @@
     <t>接收组模式</t>
   </si>
   <si>
-    <t>hpfm_lov-25</t>
+    <t>hpfm_lov-26</t>
   </si>
   <si>
     <t>HMSG.RECEIVER_TYPE</t>
@@ -2307,7 +2314,7 @@
     <t>/v1/{organizationId}/receiver-types</t>
   </si>
   <si>
-    <t>hpfm_lov-26</t>
+    <t>hpfm_lov-27</t>
   </si>
   <si>
     <t>HMSG.SERVER</t>
@@ -2338,8 +2345,11 @@
 &lt;if test="typeCode == 'CALL'"&gt;
     from hmsg_call_server
 &lt;/if&gt;
+&lt;if test="typeCode == 'WEB_HOOK'"&gt;
+    from hmsg_webhook_server
+&lt;/if&gt;
 where enabled_flag = 1
-and tenant_id = #{tenantId}
+and tenant_id in (0,#{tenantId})
 &lt;if test="serverCode != null and serverCode != ''"&gt;
     &lt;bind name="serverCode" value="'%' + serverCode + '%'"/&gt;
     and server_code like #{serverCode}
@@ -2350,7 +2360,60 @@
 &lt;/if&gt;</t>
   </si>
   <si>
-    <t>hpfm_lov-27</t>
+    <t>hpfm_lov-28</t>
+  </si>
+  <si>
+    <t>HMSG.SERVER_WEBHOOK</t>
+  </si>
+  <si>
+    <t>查询WebHook</t>
+  </si>
+  <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
+SELECT
+	hws.server_code,
+	hws.tenant_id,
+	hws.server_name,
+        hlvt.meaning server_type_meaning
+FROM
+	hmsg_webhook_server hws  
+JOIN hpfm_lov_value hlv ON hlv.lov_code='HMSG.WEBHOOK_TYPE' AND hws.server_type = hlv.value
+JOIN hpfm_lov_value_tl hlvt ON hlv.lov_value_id = hlvt.lov_value_id AND hlvt.lang = #{lang}
+WHERE
+	hws.tenant_id = 0 
+	&lt;if test="tenantId != null and tenantId != 0"&gt;
+	OR hws.tenant_id = #{tenantId}
+	AND hws.server_id NOT IN (
+			SELECT
+				hws1.server_id 
+			FROM
+				hmsg_webhook_server hws1 
+			WHERE
+				hws1.tenant_id = #{tenantId}
+			AND EXISTS ( SELECT 1 FROM hmsg_webhook_server hws2 WHERE hws2.server_code = hws1.server_code AND hws2.tenant_id = #{tenantId} ) 
+	)
+	&lt;/if&gt;
+	AND NOT EXISTS (
+	SELECT
+		1 
+	FROM
+		hmsg_template_server_wh htsw 
+	WHERE
+		htsw.server_code = hws.server_code 
+		AND htsw.tenant_id = hws.tenant_id 
+		AND htsw.temp_server_line_id = #{tempServerLineId}
+	)
+&lt;if test="serverCode != null and serverCode != ''"&gt;
+	&lt;bind name="serverCodeLike" value="'%'+serverCode+'%'"/&gt;
+	AND hws.server_code LIKE #{serverCodeLike}
+&lt;/if&gt;
+&lt;if test="serverName != null and serverName != ''"&gt;
+	&lt;bind name="serverNameLike" value="'%'+serverName+'%'"/&gt;
+	AND hws.server_name LIKE #{serverNameLike}
+&lt;/if&gt;</t>
+  </si>
+  <si>
+    <t>hpfm_lov-29</t>
   </si>
   <si>
     <t>HMSG.SITE.NOTICE_RECEIVER_UNIT</t>
@@ -2362,7 +2425,7 @@
     <t>/v1/notices/receivers/units</t>
   </si>
   <si>
-    <t>hpfm_lov-28</t>
+    <t>hpfm_lov-30</t>
   </si>
   <si>
     <t>HMSG.SITE.USER</t>
@@ -2411,7 +2474,7 @@
 ORDER BY iu.id</t>
   </si>
   <si>
-    <t>hpfm_lov-29</t>
+    <t>hpfm_lov-31</t>
   </si>
   <si>
     <t>HMSG.SMS_SERVER_TYPE</t>
@@ -2420,7 +2483,7 @@
     <t>短信服务类型</t>
   </si>
   <si>
-    <t>hpfm_lov-30</t>
+    <t>hpfm_lov-32</t>
   </si>
   <si>
     <t>HMSG.TEMPLATE_SERVER</t>
@@ -2454,7 +2517,7 @@
 &lt;/if&gt;</t>
   </si>
   <si>
-    <t>hpfm_lov-31</t>
+    <t>hpfm_lov-33</t>
   </si>
   <si>
     <t>HMSG.TEMPLATE_SERVER.TEMPLATE</t>
@@ -2489,7 +2552,28 @@
                 &lt;/if&gt;</t>
   </si>
   <si>
-    <t>hpfm_lov-32</t>
+    <t>hpfm_lov-34</t>
+  </si>
+  <si>
+    <t>HMSG.TEMP_SERVER.CATEGORY</t>
+  </si>
+  <si>
+    <t>消息发送配置分类</t>
+  </si>
+  <si>
+    <t>ddeb</t>
+  </si>
+  <si>
+    <t>hpfm_lov-35</t>
+  </si>
+  <si>
+    <t>HMSG.TEMP_SERVER.SUBCATEGORY</t>
+  </si>
+  <si>
+    <t>消息发送配置子类型</t>
+  </si>
+  <si>
+    <t>hpfm_lov-36</t>
   </si>
   <si>
     <t>HMSG.TRANSACTION_STATUS</t>
@@ -2498,7 +2582,7 @@
     <t>消息事务状态</t>
   </si>
   <si>
-    <t>hpfm_lov-33</t>
+    <t>hpfm_lov-37</t>
   </si>
   <si>
     <t>HMSG.USER.MESSAGE_TYPE</t>
@@ -2507,7 +2591,16 @@
     <t>用户消息类型</t>
   </si>
   <si>
-    <t>hpfm_lov-34</t>
+    <t>hpfm_lov-38</t>
+  </si>
+  <si>
+    <t>HMSG.WEBHOOK_TYPE</t>
+  </si>
+  <si>
+    <t>WEBHOOK类型</t>
+  </si>
+  <si>
+    <t>hpfm_lov-39</t>
   </si>
   <si>
     <t>HMSG.WECHAT.AUTH_TYPE</t>
@@ -2558,6 +2651,24 @@
     <t>*</t>
   </si>
   <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>site层级</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>project层级</t>
+  </si>
+  <si>
+    <t>ORGANIZATION</t>
+  </si>
+  <si>
+    <t>组织层级</t>
+  </si>
+  <si>
     <t>JINGDONG</t>
   </si>
   <si>
@@ -2573,6 +2684,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>DingTalk</t>
   </si>
   <si>
@@ -2588,9 +2708,6 @@
     <t>Third party</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>BLACK</t>
   </si>
   <si>
@@ -2735,6 +2852,15 @@
     <t>25</t>
   </si>
   <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>WebHook消息</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>PTGG</t>
   </si>
   <si>
@@ -2819,9 +2945,6 @@
     <t>用户</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>USER_GROUP</t>
   </si>
   <si>
@@ -2834,6 +2957,15 @@
     <t>全局</t>
   </si>
   <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>ANNOUNCE</t>
   </si>
   <si>
@@ -2879,12 +3011,12 @@
     <t>接口</t>
   </si>
   <si>
+    <t>ORG</t>
+  </si>
+  <si>
     <t>ALIYUN</t>
   </si>
   <si>
-    <t>阿里云</t>
-  </si>
-  <si>
     <t>QCLOUD</t>
   </si>
   <si>
@@ -2897,6 +3029,21 @@
     <t>百度云</t>
   </si>
   <si>
+    <t>平台级</t>
+  </si>
+  <si>
+    <t>租户级</t>
+  </si>
+  <si>
+    <t>账户</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -2927,6 +3074,15 @@
     <t>WeChat</t>
   </si>
   <si>
+    <t>企业微信</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
     <t>微信</t>
   </si>
   <si>
@@ -2972,7 +3128,7 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-96</t>
+    <t>hpfm_lov_view_header-114</t>
   </si>
   <si>
     <t>templateId</t>
@@ -2984,7 +3140,7 @@
     <t>选择消息模板</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-97</t>
+    <t>hpfm_lov_view_header-115</t>
   </si>
   <si>
     <t>公告接收方关联组织</t>
@@ -2999,7 +3155,7 @@
     <t>选择组织</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-98</t>
+    <t>hpfm_lov_view_header-116</t>
   </si>
   <si>
     <t>receiverTypeId</t>
@@ -3011,7 +3167,7 @@
     <t>选择接收者类型</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-99</t>
+    <t>hpfm_lov_view_header-117</t>
   </si>
   <si>
     <t>模板关系选择服务</t>
@@ -3023,7 +3179,13 @@
     <t>选择服务</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-100</t>
+    <t>hpfm_lov_view_header-118</t>
+  </si>
+  <si>
+    <t>serverName</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-119</t>
   </si>
   <si>
     <t>HMSG.SERVER_WITH_ID</t>
@@ -3032,10 +3194,10 @@
     <t>serverId</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-101</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-102</t>
+    <t>hpfm_lov_view_header-120</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-121</t>
   </si>
   <si>
     <t>id</t>
@@ -3044,7 +3206,7 @@
     <t>spliceName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-103</t>
+    <t>hpfm_lov_view_header-122</t>
   </si>
   <si>
     <t>tempServerId</t>
@@ -3056,7 +3218,7 @@
     <t>选择消息模板账户</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-104</t>
+    <t>hpfm_lov_view_header-123</t>
   </si>
   <si>
     <t>邮件关系维护模板</t>
@@ -3065,7 +3227,7 @@
     <t>选择模板</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-105</t>
+    <t>hpfm_lov_view_header-124</t>
   </si>
   <si>
     <t>HMSG.TEMPLATE_TYPE</t>
@@ -3080,7 +3242,7 @@
     <t>选择消息模板类型</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-106</t>
+    <t>hpfm_lov_view_header-125</t>
   </si>
   <si>
     <t>HMSG.TEMP_SERVER.MESSAGE_TEMP</t>
@@ -3089,7 +3251,7 @@
     <t>发送配置消息模板</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-107</t>
+    <t>hpfm_lov_view_header-126</t>
   </si>
   <si>
     <t>消息发送事务状态</t>
@@ -3134,7 +3296,7 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-110</t>
+    <t>hpfm_lov_view_line-129</t>
   </si>
   <si>
     <t>租户Id</t>
@@ -3146,7 +3308,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-111</t>
+    <t>hpfm_lov_view_line-130</t>
   </si>
   <si>
     <t>组织编码</t>
@@ -3155,19 +3317,19 @@
     <t>unitCode</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-112</t>
+    <t>hpfm_lov_view_line-131</t>
   </si>
   <si>
     <t>组织Id</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-113</t>
+    <t>hpfm_lov_view_line-132</t>
   </si>
   <si>
     <t>组织名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-114</t>
+    <t>hpfm_lov_view_line-133</t>
   </si>
   <si>
     <t>接收组编码</t>
@@ -3179,58 +3341,76 @@
     <t>350</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-115</t>
+    <t>hpfm_lov_view_line-134</t>
   </si>
   <si>
     <t>接收组名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-116</t>
-  </si>
-  <si>
-    <t>服务编码</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-117</t>
+    <t>hpfm_lov_view_line-135</t>
+  </si>
+  <si>
+    <t>账户代码</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-136</t>
+  </si>
+  <si>
+    <t>账户名称</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-137</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-138</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-139</t>
+  </si>
+  <si>
+    <t>账户类型</t>
+  </si>
+  <si>
+    <t>serverTypeMeaning</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-140</t>
+  </si>
+  <si>
+    <t>服务代码</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-141</t>
   </si>
   <si>
     <t>服务名称</t>
   </si>
   <si>
-    <t>serverName</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-118</t>
-  </si>
-  <si>
-    <t>服务代码</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-119</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-120</t>
+    <t>hpfm_lov_view_line-142</t>
   </si>
   <si>
     <t>租户ID</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-121</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-122</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-123</t>
+    <t>hpfm_lov_view_line-143</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-144</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-145</t>
   </si>
   <si>
     <t>组织ID</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-124</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-125</t>
+    <t>hpfm_lov_view_line-146</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-147</t>
   </si>
   <si>
     <t>邮箱</t>
@@ -3242,10 +3422,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-126</t>
+    <t>hpfm_lov_view_line-148</t>
   </si>
   <si>
     <t>用户名</t>
@@ -3260,7 +3437,7 @@
     <t>140</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-127</t>
+    <t>hpfm_lov_view_line-149</t>
   </si>
   <si>
     <t>电话</t>
@@ -3272,7 +3449,7 @@
     <t>150</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-128</t>
+    <t>hpfm_lov_view_line-150</t>
   </si>
   <si>
     <t>名称</t>
@@ -3284,7 +3461,7 @@
     <t>realName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-129</t>
+    <t>hpfm_lov_view_line-151</t>
   </si>
   <si>
     <t>消息代码</t>
@@ -3293,19 +3470,19 @@
     <t>messageCode</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-130</t>
+    <t>hpfm_lov_view_line-152</t>
   </si>
   <si>
     <t>消息名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-131</t>
+    <t>hpfm_lov_view_line-153</t>
   </si>
   <si>
     <t>模板编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-132</t>
+    <t>hpfm_lov_view_line-154</t>
   </si>
   <si>
     <t>模板名称</t>
@@ -3314,7 +3491,7 @@
     <t>templateName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-133</t>
+    <t>hpfm_lov_view_line-155</t>
   </si>
   <si>
     <t>视图模板名称</t>
@@ -3323,31 +3500,31 @@
     <t>100</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-134</t>
+    <t>hpfm_lov_view_line-156</t>
   </si>
   <si>
     <t>视图模板编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-135</t>
+    <t>hpfm_lov_view_line-157</t>
   </si>
   <si>
     <t>langName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-136</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-137</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-138</t>
+    <t>hpfm_lov_view_line-158</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-159</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-160</t>
   </si>
   <si>
     <t>发送状态编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-139</t>
+    <t>hpfm_lov_view_line-161</t>
   </si>
   <si>
     <t>发送状态值</t>
@@ -4429,7 +4606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4568,7 +4745,7 @@
         <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>76</v>
@@ -4582,16 +4759,16 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
         <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
         <v>84</v>
@@ -4677,12 +4854,6 @@
       <c r="M13" t="s">
         <v>76</v>
       </c>
-      <c r="N13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
       <c r="T13" t="s">
         <v>77</v>
       </c>
@@ -4698,51 +4869,54 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
         <v>96</v>
       </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" t="s">
-        <v>98</v>
-      </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
       </c>
-      <c r="P14" t="s">
-        <v>99</v>
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
       </c>
       <c r="T14" t="s">
         <v>77</v>
       </c>
       <c r="U14" t="s">
         <v>77</v>
-      </c>
-      <c r="V14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
         <v>101</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" t="s">
-        <v>76</v>
       </c>
       <c r="T15" t="s">
         <v>77</v>
@@ -4753,33 +4927,21 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
       </c>
       <c r="G16" t="s">
         <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
-        <v>107</v>
-      </c>
-      <c r="O16" t="s">
         <v>76</v>
       </c>
       <c r="T16" t="s">
@@ -4791,27 +4953,33 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
         <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" t="s">
         <v>76</v>
       </c>
       <c r="T17" t="s">
@@ -4823,33 +4991,27 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
         <v>111</v>
-      </c>
-      <c r="F18" t="s">
-        <v>112</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" t="s">
         <v>76</v>
       </c>
       <c r="T18" t="s">
@@ -4861,27 +5023,33 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" t="s">
         <v>76</v>
       </c>
       <c r="T19" t="s">
@@ -4893,10 +5061,10 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
       </c>
       <c r="G20" t="s">
         <v>74</v>
@@ -4928,22 +5096,22 @@
         <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
         <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" t="s">
         <v>76</v>
@@ -4957,34 +5125,28 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
         <v>122</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
         <v>123</v>
       </c>
-      <c r="G22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s">
         <v>76</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>126</v>
       </c>
       <c r="T22" t="s">
         <v>77</v>
@@ -4995,28 +5157,34 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
         <v>127</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" t="s">
         <v>128</v>
-      </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s">
-        <v>131</v>
       </c>
       <c r="T23" t="s">
         <v>77</v>
@@ -5027,28 +5195,28 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
+      <c r="M24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" t="s">
-        <v>76</v>
       </c>
       <c r="T24" t="s">
         <v>77</v>
@@ -5059,28 +5227,28 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
         <v>135</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
-      </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="K25" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" t="s">
+        <v>136</v>
       </c>
       <c r="M25" t="s">
         <v>76</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>138</v>
       </c>
       <c r="T25" t="s">
         <v>77</v>
@@ -5091,69 +5259,66 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
         <v>139</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" t="s">
         <v>140</v>
       </c>
-      <c r="G26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" t="s">
-        <v>142</v>
-      </c>
       <c r="T26" t="s">
         <v>77</v>
       </c>
       <c r="U26" t="s">
         <v>77</v>
-      </c>
-      <c r="V26" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
         <v>143</v>
       </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s">
         <v>144</v>
-      </c>
-      <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>146</v>
       </c>
       <c r="T27" t="s">
         <v>77</v>
@@ -5164,57 +5329,60 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
         <v>147</v>
       </c>
-      <c r="F28" t="s">
+      <c r="J28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s">
         <v>148</v>
       </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" t="s">
-        <v>152</v>
-      </c>
       <c r="T28" t="s">
         <v>77</v>
       </c>
       <c r="U28" t="s">
         <v>77</v>
-      </c>
-      <c r="V28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M29" t="s">
         <v>76</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>152</v>
       </c>
       <c r="T29" t="s">
         <v>77</v>
@@ -5225,34 +5393,28 @@
     </row>
     <row r="30">
       <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" t="s">
         <v>156</v>
       </c>
-      <c r="F30" t="s">
+      <c r="J30" t="s">
         <v>157</v>
       </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s">
         <v>158</v>
-      </c>
-      <c r="J30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K30" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" t="s">
-        <v>159</v>
-      </c>
-      <c r="M30" t="s">
-        <v>76</v>
-      </c>
-      <c r="P30" t="s">
-        <v>160</v>
       </c>
       <c r="T30" t="s">
         <v>77</v>
@@ -5263,34 +5425,22 @@
     </row>
     <row r="31">
       <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
         <v>161</v>
       </c>
-      <c r="F31" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" t="s">
-        <v>163</v>
-      </c>
       <c r="J31" t="s">
-        <v>163</v>
-      </c>
-      <c r="K31" t="s">
-        <v>164</v>
-      </c>
-      <c r="L31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s">
         <v>76</v>
-      </c>
-      <c r="P31" t="s">
-        <v>165</v>
       </c>
       <c r="T31" t="s">
         <v>77</v>
@@ -5301,22 +5451,34 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="s">
         <v>166</v>
-      </c>
-      <c r="F32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J32" t="s">
-        <v>168</v>
-      </c>
-      <c r="M32" t="s">
-        <v>76</v>
       </c>
       <c r="T32" t="s">
         <v>77</v>
@@ -5327,28 +5489,34 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" t="s">
         <v>169</v>
       </c>
-      <c r="F33" t="s">
+      <c r="J33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" t="s">
         <v>170</v>
       </c>
-      <c r="G33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s">
         <v>171</v>
-      </c>
-      <c r="J33" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" t="s">
-        <v>171</v>
-      </c>
-      <c r="M33" t="s">
-        <v>76</v>
       </c>
       <c r="T33" t="s">
         <v>77</v>
@@ -5373,6 +5541,9 @@
       <c r="J34" t="s">
         <v>174</v>
       </c>
+      <c r="L34" t="s">
+        <v>175</v>
+      </c>
       <c r="M34" t="s">
         <v>76</v>
       </c>
@@ -5383,126 +5554,119 @@
         <v>77</v>
       </c>
     </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" t="s" s="43">
-        <v>176</v>
-      </c>
-      <c r="E36" t="s" s="44">
-        <v>177</v>
-      </c>
-      <c r="F36" t="s" s="45">
-        <v>178</v>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" t="s" s="46">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
         <v>181</v>
       </c>
       <c r="J36" t="s">
-        <v>182</v>
-      </c>
-      <c r="K36" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M36" t="s" s="47">
-        <v>62</v>
-      </c>
-      <c r="N36" t="s">
-        <v>183</v>
-      </c>
-      <c r="O36" t="s">
-        <v>184</v>
-      </c>
-      <c r="P36" t="s" s="48">
-        <v>185</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>186</v>
-      </c>
-      <c r="R36" t="s">
-        <v>187</v>
-      </c>
-      <c r="S36" t="s">
-        <v>70</v>
+        <v>181</v>
+      </c>
+      <c r="M36" t="s">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37">
-        <f>值集数据!$E$8</f>
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="L37" t="s">
+        <v>184</v>
       </c>
       <c r="M37" t="s">
         <v>76</v>
       </c>
-      <c r="N37" t="s">
-        <v>192</v>
-      </c>
-      <c r="O37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38">
-        <f>值集数据!$E$9</f>
+        <v>185</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J38" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M38" t="s">
         <v>76</v>
       </c>
-      <c r="O38" t="s">
-        <v>193</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5510,113 +5674,111 @@
       <c r="E39" t="s">
         <v>188</v>
       </c>
-      <c r="F39">
-        <f>值集数据!$E$9</f>
+      <c r="F39" t="s">
+        <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" t="s">
+        <v>190</v>
+      </c>
+      <c r="M39" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s" s="43">
+        <v>192</v>
+      </c>
+      <c r="E41" t="s" s="44">
+        <v>193</v>
+      </c>
+      <c r="F41" t="s" s="45">
+        <v>194</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s" s="46">
         <v>196</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>197</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J41" t="s">
         <v>198</v>
       </c>
-      <c r="M39" t="s">
-        <v>76</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="K41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" t="s" s="47">
+        <v>62</v>
+      </c>
+      <c r="N41" t="s">
         <v>199</v>
       </c>
-      <c r="S39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="G40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="O41" t="s">
         <v>200</v>
       </c>
-      <c r="I40" t="s">
+      <c r="P41" t="s" s="48">
         <v>201</v>
       </c>
-      <c r="J40" t="s">
-        <v>201</v>
-      </c>
-      <c r="M40" t="s">
-        <v>76</v>
-      </c>
-      <c r="O40" t="s">
-        <v>193</v>
-      </c>
-      <c r="S40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="G41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="Q41" t="s">
         <v>202</v>
       </c>
-      <c r="I41" t="s">
+      <c r="R41" t="s">
         <v>203</v>
       </c>
-      <c r="J41" t="s">
-        <v>203</v>
-      </c>
-      <c r="M41" t="s">
-        <v>76</v>
-      </c>
-      <c r="O41" t="s">
-        <v>199</v>
-      </c>
       <c r="S41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F42">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$8</f>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M42" t="s">
         <v>76</v>
       </c>
       <c r="O42" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s">
         <v>77</v>
@@ -5624,28 +5786,28 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F43">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$8</f>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s">
         <v>76</v>
       </c>
       <c r="O43" t="s">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s">
         <v>77</v>
@@ -5653,28 +5815,28 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F44">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$8</f>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M44" t="s">
         <v>76</v>
       </c>
       <c r="O44" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s">
         <v>77</v>
@@ -5682,13 +5844,13 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F45">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$9</f>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
         <v>211</v>
@@ -5699,11 +5861,17 @@
       <c r="J45" t="s">
         <v>212</v>
       </c>
+      <c r="K45" t="s">
+        <v>213</v>
+      </c>
       <c r="M45" t="s">
         <v>76</v>
       </c>
+      <c r="N45" t="s">
+        <v>214</v>
+      </c>
       <c r="O45" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="S45" t="s">
         <v>77</v>
@@ -5711,28 +5879,28 @@
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F46">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$9</f>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s">
         <v>76</v>
       </c>
       <c r="O46" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="S46" t="s">
         <v>77</v>
@@ -5740,28 +5908,28 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F47">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" t="s">
+        <v>219</v>
+      </c>
+      <c r="M47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O47" t="s">
         <v>215</v>
-      </c>
-      <c r="I47" t="s">
-        <v>216</v>
-      </c>
-      <c r="J47" t="s">
-        <v>216</v>
-      </c>
-      <c r="M47" t="s">
-        <v>76</v>
-      </c>
-      <c r="O47" t="s">
-        <v>210</v>
       </c>
       <c r="S47" t="s">
         <v>77</v>
@@ -5769,31 +5937,28 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F48">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I48" t="s">
+        <v>222</v>
+      </c>
+      <c r="J48" t="s">
+        <v>223</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+      <c r="O48" t="s">
         <v>218</v>
-      </c>
-      <c r="J48" t="s">
-        <v>218</v>
-      </c>
-      <c r="M48" t="s">
-        <v>76</v>
-      </c>
-      <c r="O48" t="s">
-        <v>193</v>
-      </c>
-      <c r="P48" t="s">
-        <v>211</v>
       </c>
       <c r="S48" t="s">
         <v>77</v>
@@ -5801,31 +5966,28 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F49">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J49" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M49" t="s">
         <v>76</v>
       </c>
       <c r="O49" t="s">
-        <v>193</v>
-      </c>
-      <c r="P49" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S49" t="s">
         <v>77</v>
@@ -5833,31 +5995,28 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F50">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I50" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J50" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s">
         <v>76</v>
       </c>
       <c r="O50" t="s">
-        <v>193</v>
-      </c>
-      <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S50" t="s">
         <v>77</v>
@@ -5865,30 +6024,27 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F51">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I51" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J51" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M51" t="s">
         <v>76</v>
       </c>
       <c r="O51" t="s">
-        <v>199</v>
-      </c>
-      <c r="P51" t="s">
         <v>215</v>
       </c>
       <c r="S51" t="s">
@@ -5897,31 +6053,28 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F52">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I52" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J52" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M52" t="s">
         <v>76</v>
       </c>
       <c r="O52" t="s">
-        <v>199</v>
-      </c>
-      <c r="P52" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="S52" t="s">
         <v>77</v>
@@ -5929,28 +6082,28 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F53">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I53" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J53" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M53" t="s">
         <v>76</v>
       </c>
       <c r="O53" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="S53" t="s">
         <v>77</v>
@@ -5958,28 +6111,28 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F54">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J54" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M54" t="s">
         <v>76</v>
       </c>
       <c r="O54" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="S54" t="s">
         <v>77</v>
@@ -5987,28 +6140,28 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F55">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I55" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J55" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s">
         <v>76</v>
       </c>
       <c r="O55" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="S55" t="s">
         <v>77</v>
@@ -6016,28 +6169,28 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F56">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I56" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M56" t="s">
         <v>76</v>
       </c>
       <c r="O56" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S56" t="s">
         <v>77</v>
@@ -6045,28 +6198,31 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F57">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M57" t="s">
         <v>76</v>
       </c>
       <c r="O57" t="s">
-        <v>242</v>
+        <v>215</v>
+      </c>
+      <c r="P57" t="s">
+        <v>235</v>
       </c>
       <c r="S57" t="s">
         <v>77</v>
@@ -6074,28 +6230,31 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F58">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H58" t="s">
         <v>243</v>
       </c>
       <c r="I58" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="J58" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="M58" t="s">
         <v>76</v>
       </c>
       <c r="O58" t="s">
-        <v>244</v>
+        <v>215</v>
+      </c>
+      <c r="P58" t="s">
+        <v>237</v>
       </c>
       <c r="S58" t="s">
         <v>77</v>
@@ -6103,13 +6262,13 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F59">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H59" t="s">
         <v>245</v>
@@ -6124,7 +6283,10 @@
         <v>76</v>
       </c>
       <c r="O59" t="s">
-        <v>247</v>
+        <v>215</v>
+      </c>
+      <c r="P59" t="s">
+        <v>239</v>
       </c>
       <c r="S59" t="s">
         <v>77</v>
@@ -6132,34 +6294,31 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F60">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
+        <v>247</v>
+      </c>
+      <c r="I60" t="s">
         <v>248</v>
       </c>
-      <c r="I60" t="s">
-        <v>249</v>
-      </c>
       <c r="J60" t="s">
-        <v>249</v>
-      </c>
-      <c r="K60" t="s">
-        <v>249</v>
-      </c>
-      <c r="L60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s">
         <v>76</v>
       </c>
       <c r="O60" t="s">
-        <v>77</v>
+        <v>218</v>
+      </c>
+      <c r="P60" t="s">
+        <v>239</v>
       </c>
       <c r="S60" t="s">
         <v>77</v>
@@ -6167,34 +6326,31 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F61">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H61" t="s">
+        <v>249</v>
+      </c>
+      <c r="I61" t="s">
         <v>250</v>
       </c>
-      <c r="I61" t="s">
-        <v>251</v>
-      </c>
       <c r="J61" t="s">
-        <v>251</v>
-      </c>
-      <c r="K61" t="s">
-        <v>251</v>
-      </c>
-      <c r="L61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M61" t="s">
         <v>76</v>
       </c>
       <c r="O61" t="s">
-        <v>252</v>
+        <v>218</v>
+      </c>
+      <c r="P61" t="s">
+        <v>235</v>
       </c>
       <c r="S61" t="s">
         <v>77</v>
@@ -6202,34 +6358,28 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F62">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H62" t="s">
+        <v>251</v>
+      </c>
+      <c r="I62" t="s">
+        <v>252</v>
+      </c>
+      <c r="J62" t="s">
         <v>253</v>
       </c>
-      <c r="I62" t="s">
-        <v>254</v>
-      </c>
-      <c r="J62" t="s">
-        <v>254</v>
-      </c>
-      <c r="K62" t="s">
-        <v>254</v>
-      </c>
-      <c r="L62" t="s">
-        <v>254</v>
-      </c>
       <c r="M62" t="s">
         <v>76</v>
       </c>
       <c r="O62" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="S62" t="s">
         <v>77</v>
@@ -6237,34 +6387,28 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F63">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J63" t="s">
-        <v>257</v>
-      </c>
-      <c r="K63" t="s">
-        <v>257</v>
-      </c>
-      <c r="L63" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M63" t="s">
         <v>76</v>
       </c>
       <c r="O63" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="S63" t="s">
         <v>77</v>
@@ -6272,37 +6416,28 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F64">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G64" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H64" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I64" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J64" t="s">
-        <v>249</v>
-      </c>
-      <c r="K64" t="s">
-        <v>249</v>
-      </c>
-      <c r="L64" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M64" t="s">
         <v>76</v>
       </c>
       <c r="O64" t="s">
-        <v>77</v>
-      </c>
-      <c r="P64" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="S64" t="s">
         <v>77</v>
@@ -6310,13 +6445,13 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F65">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G65" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H65" t="s">
         <v>259</v>
@@ -6325,22 +6460,13 @@
         <v>260</v>
       </c>
       <c r="J65" t="s">
-        <v>260</v>
-      </c>
-      <c r="K65" t="s">
-        <v>260</v>
-      </c>
-      <c r="L65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s">
         <v>76</v>
       </c>
       <c r="O65" t="s">
-        <v>252</v>
-      </c>
-      <c r="P65" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="S65" t="s">
         <v>77</v>
@@ -6348,37 +6474,28 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F66">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I66" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="J66" t="s">
-        <v>254</v>
-      </c>
-      <c r="K66" t="s">
-        <v>254</v>
-      </c>
-      <c r="L66" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M66" t="s">
         <v>76</v>
       </c>
       <c r="O66" t="s">
-        <v>261</v>
-      </c>
-      <c r="P66" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="S66" t="s">
         <v>77</v>
@@ -6386,37 +6503,28 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F67">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I67" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="J67" t="s">
-        <v>263</v>
-      </c>
-      <c r="K67" t="s">
-        <v>263</v>
-      </c>
-      <c r="L67" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="M67" t="s">
         <v>76</v>
       </c>
       <c r="O67" t="s">
-        <v>264</v>
-      </c>
-      <c r="P67" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="S67" t="s">
         <v>77</v>
@@ -6424,37 +6532,28 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F68">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="I68" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J68" t="s">
-        <v>257</v>
-      </c>
-      <c r="K68" t="s">
-        <v>257</v>
-      </c>
-      <c r="L68" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M68" t="s">
         <v>76</v>
       </c>
       <c r="O68" t="s">
-        <v>265</v>
-      </c>
-      <c r="P68" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="S68" t="s">
         <v>77</v>
@@ -6462,37 +6561,28 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F69">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$16</f>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H69" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J69" t="s">
-        <v>267</v>
-      </c>
-      <c r="K69" t="s">
-        <v>267</v>
-      </c>
-      <c r="L69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M69" t="s">
         <v>76</v>
       </c>
       <c r="O69" t="s">
-        <v>268</v>
-      </c>
-      <c r="P69" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="S69" t="s">
         <v>77</v>
@@ -6500,28 +6590,34 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F70">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H70" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I70" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J70" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="K70" t="s">
+        <v>276</v>
+      </c>
+      <c r="L70" t="s">
+        <v>276</v>
       </c>
       <c r="M70" t="s">
         <v>76</v>
       </c>
       <c r="O70" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="S70" t="s">
         <v>77</v>
@@ -6529,28 +6625,34 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F71">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H71" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I71" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J71" t="s">
-        <v>273</v>
+        <v>278</v>
+      </c>
+      <c r="K71" t="s">
+        <v>278</v>
+      </c>
+      <c r="L71" t="s">
+        <v>278</v>
       </c>
       <c r="M71" t="s">
         <v>76</v>
       </c>
       <c r="O71" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="S71" t="s">
         <v>77</v>
@@ -6558,28 +6660,34 @@
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F72">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H72" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I72" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J72" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="K72" t="s">
+        <v>281</v>
+      </c>
+      <c r="L72" t="s">
+        <v>281</v>
       </c>
       <c r="M72" t="s">
         <v>76</v>
       </c>
       <c r="O72" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="S72" t="s">
         <v>77</v>
@@ -6587,28 +6695,34 @@
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F73">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I73" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J73" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="K73" t="s">
+        <v>284</v>
+      </c>
+      <c r="L73" t="s">
+        <v>284</v>
       </c>
       <c r="M73" t="s">
         <v>76</v>
       </c>
       <c r="O73" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="S73" t="s">
         <v>77</v>
@@ -6616,28 +6730,37 @@
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F74">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J74" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="K74" t="s">
+        <v>276</v>
+      </c>
+      <c r="L74" t="s">
+        <v>276</v>
       </c>
       <c r="M74" t="s">
         <v>76</v>
       </c>
       <c r="O74" t="s">
-        <v>193</v>
+        <v>77</v>
+      </c>
+      <c r="P74" t="s">
+        <v>275</v>
       </c>
       <c r="S74" t="s">
         <v>77</v>
@@ -6645,28 +6768,37 @@
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F75">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I75" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J75" t="s">
-        <v>283</v>
+        <v>287</v>
+      </c>
+      <c r="K75" t="s">
+        <v>287</v>
+      </c>
+      <c r="L75" t="s">
+        <v>287</v>
       </c>
       <c r="M75" t="s">
         <v>76</v>
       </c>
       <c r="O75" t="s">
-        <v>193</v>
+        <v>279</v>
+      </c>
+      <c r="P75" t="s">
+        <v>277</v>
       </c>
       <c r="S75" t="s">
         <v>77</v>
@@ -6674,28 +6806,37 @@
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F76">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H76" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J76" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="K76" t="s">
+        <v>281</v>
+      </c>
+      <c r="L76" t="s">
+        <v>281</v>
       </c>
       <c r="M76" t="s">
         <v>76</v>
       </c>
       <c r="O76" t="s">
-        <v>199</v>
+        <v>288</v>
+      </c>
+      <c r="P76" t="s">
+        <v>280</v>
       </c>
       <c r="S76" t="s">
         <v>77</v>
@@ -6703,34 +6844,37 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F77">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G77" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H77" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I77" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J77" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K77" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L77" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M77" t="s">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>77</v>
+        <v>291</v>
+      </c>
+      <c r="P77" t="s">
+        <v>283</v>
       </c>
       <c r="S77" t="s">
         <v>77</v>
@@ -6738,34 +6882,37 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F78">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G78" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H78" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I78" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J78" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K78" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L78" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M78" t="s">
         <v>76</v>
       </c>
       <c r="O78" t="s">
-        <v>252</v>
+        <v>292</v>
+      </c>
+      <c r="P78" t="s">
+        <v>283</v>
       </c>
       <c r="S78" t="s">
         <v>77</v>
@@ -6773,34 +6920,37 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F79">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G79" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M79" t="s">
         <v>76</v>
       </c>
       <c r="O79" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="P79" t="s">
+        <v>283</v>
       </c>
       <c r="S79" t="s">
         <v>77</v>
@@ -6808,28 +6958,28 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F80">
-        <f>值集数据!$E$24</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="I80" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J80" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M80" t="s">
         <v>76</v>
       </c>
       <c r="O80" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="S80" t="s">
         <v>77</v>
@@ -6837,28 +6987,28 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F81">
-        <f>值集数据!$E$24</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H81" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="J81" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M81" t="s">
         <v>76</v>
       </c>
       <c r="O81" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="S81" t="s">
         <v>77</v>
@@ -6866,28 +7016,28 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F82">
-        <f>值集数据!$E$24</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H82" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="I82" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="J82" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M82" t="s">
         <v>76</v>
       </c>
       <c r="O82" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="S82" t="s">
         <v>77</v>
@@ -6895,28 +7045,28 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F83">
-        <f>值集数据!$E$29</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G83" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="H83" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I83" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="J83" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M83" t="s">
         <v>76</v>
       </c>
       <c r="O83" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="S83" t="s">
         <v>77</v>
@@ -6924,28 +7074,28 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F84">
-        <f>值集数据!$E$29</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G84" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I84" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="J84" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M84" t="s">
         <v>76</v>
       </c>
       <c r="O84" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="S84" t="s">
         <v>77</v>
@@ -6953,28 +7103,28 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F85">
-        <f>值集数据!$E$29</f>
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G85" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="H85" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I85" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J85" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M85" t="s">
         <v>76</v>
       </c>
       <c r="O85" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="S85" t="s">
         <v>77</v>
@@ -6982,28 +7132,28 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F86">
-        <f>值集数据!$E$32</f>
+        <f>值集数据!$E$21</f>
       </c>
       <c r="G86" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="H86" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I86" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="J86" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M86" t="s">
         <v>76</v>
       </c>
       <c r="O86" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="S86" t="s">
         <v>77</v>
@@ -7011,28 +7161,28 @@
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F87">
-        <f>值集数据!$E$32</f>
+        <f>值集数据!$E$21</f>
       </c>
       <c r="G87" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="H87" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="I87" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="J87" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M87" t="s">
         <v>76</v>
       </c>
       <c r="O87" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="S87" t="s">
         <v>77</v>
@@ -7040,28 +7190,34 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F88">
-        <f>值集数据!$E$32</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G88" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H88" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="J88" t="s">
-        <v>307</v>
+        <v>318</v>
+      </c>
+      <c r="K88" t="s">
+        <v>317</v>
+      </c>
+      <c r="L88" t="s">
+        <v>318</v>
       </c>
       <c r="M88" t="s">
         <v>76</v>
       </c>
       <c r="O88" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="S88" t="s">
         <v>77</v>
@@ -7069,34 +7225,34 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F89">
-        <f>值集数据!$E$33</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G89" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="H89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="I89" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="J89" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="K89" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="L89" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="M89" t="s">
         <v>76</v>
       </c>
       <c r="O89" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="S89" t="s">
         <v>77</v>
@@ -7104,34 +7260,34 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F90">
-        <f>值集数据!$E$33</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="H90" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="I90" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="J90" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="K90" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L90" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M90" t="s">
         <v>76</v>
       </c>
       <c r="O90" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="S90" t="s">
         <v>77</v>
@@ -7139,28 +7295,28 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F91">
-        <f>值集数据!$E$33</f>
+        <f>值集数据!$E$25</f>
       </c>
       <c r="G91" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="H91" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="I91" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="J91" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="M91" t="s">
         <v>76</v>
       </c>
       <c r="O91" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="S91" t="s">
         <v>77</v>
@@ -7168,28 +7324,31 @@
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F92">
-        <f>值集数据!$E$34</f>
+        <f>值集数据!$E$25</f>
       </c>
       <c r="G92" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="H92" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I92" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J92" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M92" t="s">
         <v>76</v>
       </c>
+      <c r="N92" t="s">
+        <v>325</v>
+      </c>
       <c r="O92" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="S92" t="s">
         <v>77</v>
@@ -7197,1386 +7356,1242 @@
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F93">
-        <f>值集数据!$E$34</f>
+        <f>值集数据!$E$25</f>
       </c>
       <c r="G93" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="H93" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="I93" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="J93" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="M93" t="s">
         <v>76</v>
       </c>
+      <c r="N93" t="s">
+        <v>325</v>
+      </c>
       <c r="O93" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="S93" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="94">
+      <c r="E94" t="s">
+        <v>204</v>
+      </c>
+      <c r="F94">
+        <f>值集数据!$E$31</f>
+      </c>
+      <c r="G94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94" t="s">
+        <v>326</v>
+      </c>
+      <c r="I94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J94" t="s">
+        <v>217</v>
+      </c>
+      <c r="M94" t="s">
+        <v>76</v>
+      </c>
+      <c r="O94" t="s">
+        <v>215</v>
+      </c>
+      <c r="S94" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" t="s">
-        <v>313</v>
-      </c>
-      <c r="D95" t="s" s="49">
-        <v>314</v>
-      </c>
-      <c r="E95" t="s" s="50">
-        <v>315</v>
-      </c>
-      <c r="F95" t="s" s="51">
-        <v>316</v>
+      <c r="E95" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95">
+        <f>值集数据!$E$31</f>
       </c>
       <c r="G95" t="s">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="H95" t="s">
-        <v>318</v>
-      </c>
-      <c r="I95" t="s" s="52">
-        <v>319</v>
-      </c>
-      <c r="J95" t="s" s="53">
-        <v>62</v>
-      </c>
-      <c r="K95" t="s">
-        <v>67</v>
-      </c>
-      <c r="L95" t="s">
-        <v>68</v>
+        <v>327</v>
+      </c>
+      <c r="I95" t="s">
+        <v>328</v>
+      </c>
+      <c r="J95" t="s">
+        <v>328</v>
       </c>
       <c r="M95" t="s">
-        <v>320</v>
-      </c>
-      <c r="N95" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="O95" t="s">
-        <v>322</v>
-      </c>
-      <c r="P95" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>324</v>
-      </c>
-      <c r="R95" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="S95" t="s">
-        <v>326</v>
-      </c>
-      <c r="T95" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>327</v>
-      </c>
-      <c r="F96" t="s">
-        <v>95</v>
+        <v>204</v>
+      </c>
+      <c r="F96">
+        <f>值集数据!$E$31</f>
       </c>
       <c r="G96" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="H96" t="s">
-        <v>98</v>
-      </c>
-      <c r="I96">
-        <f>值集数据!$E$14</f>
+        <v>329</v>
+      </c>
+      <c r="I96" t="s">
+        <v>330</v>
       </c>
       <c r="J96" t="s">
-        <v>76</v>
-      </c>
-      <c r="K96" t="s">
-        <v>328</v>
-      </c>
-      <c r="L96" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M96" t="s">
-        <v>330</v>
-      </c>
-      <c r="N96" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>193</v>
-      </c>
-      <c r="R96" t="s">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s">
+        <v>76</v>
+      </c>
+      <c r="O96" t="s">
+        <v>234</v>
+      </c>
+      <c r="S96" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97">
+        <f>值集数据!$E$34</f>
+      </c>
+      <c r="G97" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" t="s">
         <v>331</v>
       </c>
-      <c r="F97" t="s">
-        <v>123</v>
-      </c>
-      <c r="G97" t="s">
-        <v>332</v>
-      </c>
-      <c r="H97" t="s">
-        <v>332</v>
-      </c>
-      <c r="I97">
-        <f>值集数据!$E$22</f>
-      </c>
       <c r="J97" t="s">
-        <v>76</v>
-      </c>
-      <c r="K97" t="s">
-        <v>333</v>
-      </c>
-      <c r="L97" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M97" t="s">
-        <v>335</v>
-      </c>
-      <c r="N97" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>193</v>
-      </c>
-      <c r="R97" t="s">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s">
+        <v>76</v>
+      </c>
+      <c r="O97" t="s">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>336</v>
-      </c>
-      <c r="F98" t="s">
-        <v>128</v>
+        <v>204</v>
+      </c>
+      <c r="F98">
+        <f>值集数据!$E$34</f>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="H98" t="s">
-        <v>130</v>
-      </c>
-      <c r="I98">
-        <f>值集数据!$E$23</f>
+        <v>296</v>
+      </c>
+      <c r="I98" t="s">
+        <v>332</v>
       </c>
       <c r="J98" t="s">
-        <v>76</v>
-      </c>
-      <c r="K98" t="s">
-        <v>337</v>
-      </c>
-      <c r="L98" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M98" t="s">
-        <v>339</v>
-      </c>
-      <c r="N98" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>193</v>
-      </c>
-      <c r="R98" t="s">
-        <v>76</v>
-      </c>
-      <c r="T98" t="s">
+        <v>76</v>
+      </c>
+      <c r="O98" t="s">
+        <v>279</v>
+      </c>
+      <c r="S98" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>340</v>
-      </c>
-      <c r="F99" t="s">
-        <v>140</v>
+        <v>204</v>
+      </c>
+      <c r="F99">
+        <f>值集数据!$E$35</f>
       </c>
       <c r="G99" t="s">
-        <v>341</v>
-      </c>
-      <c r="H99" t="s">
-        <v>341</v>
-      </c>
-      <c r="I99">
-        <f>值集数据!$E$26</f>
+        <v>177</v>
+      </c>
+      <c r="I99" t="s">
+        <v>333</v>
       </c>
       <c r="J99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K99" t="s">
-        <v>342</v>
-      </c>
-      <c r="L99" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M99" t="s">
-        <v>343</v>
-      </c>
-      <c r="N99" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>193</v>
-      </c>
-      <c r="R99" t="s">
-        <v>76</v>
-      </c>
-      <c r="T99" t="s">
+        <v>76</v>
+      </c>
+      <c r="O99" t="s">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s">
+        <v>205</v>
+      </c>
+      <c r="S99" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>344</v>
-      </c>
-      <c r="F100" t="s">
-        <v>345</v>
+        <v>204</v>
+      </c>
+      <c r="F100">
+        <f>值集数据!$E$35</f>
       </c>
       <c r="G100" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="H100" t="s">
-        <v>341</v>
-      </c>
-      <c r="I100">
-        <f>值集数据!$E$26</f>
+        <v>334</v>
+      </c>
+      <c r="I100" t="s">
+        <v>335</v>
       </c>
       <c r="J100" t="s">
-        <v>76</v>
-      </c>
-      <c r="K100" t="s">
-        <v>346</v>
-      </c>
-      <c r="L100" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M100" t="s">
-        <v>343</v>
-      </c>
-      <c r="N100" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>193</v>
-      </c>
-      <c r="R100" t="s">
-        <v>76</v>
-      </c>
-      <c r="T100" t="s">
+        <v>76</v>
+      </c>
+      <c r="O100" t="s">
+        <v>77</v>
+      </c>
+      <c r="P100" t="s">
+        <v>296</v>
+      </c>
+      <c r="S100" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>347</v>
-      </c>
-      <c r="F101" t="s">
-        <v>144</v>
+        <v>204</v>
+      </c>
+      <c r="F101">
+        <f>值集数据!$E$36</f>
       </c>
       <c r="G101" t="s">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>332</v>
-      </c>
-      <c r="I101">
-        <f>值集数据!$E$27</f>
+        <v>336</v>
+      </c>
+      <c r="I101" t="s">
+        <v>337</v>
       </c>
       <c r="J101" t="s">
-        <v>76</v>
-      </c>
-      <c r="K101" t="s">
-        <v>333</v>
-      </c>
-      <c r="L101" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M101" t="s">
-        <v>335</v>
-      </c>
-      <c r="N101" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>193</v>
-      </c>
-      <c r="R101" t="s">
-        <v>76</v>
-      </c>
-      <c r="T101" t="s">
+        <v>76</v>
+      </c>
+      <c r="O101" t="s">
+        <v>215</v>
+      </c>
+      <c r="S101" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>348</v>
-      </c>
-      <c r="F102" t="s">
-        <v>148</v>
+        <v>204</v>
+      </c>
+      <c r="F102">
+        <f>值集数据!$E$36</f>
       </c>
       <c r="G102" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>151</v>
-      </c>
-      <c r="I102">
-        <f>值集数据!$E$28</f>
+        <v>338</v>
+      </c>
+      <c r="I102" t="s">
+        <v>339</v>
       </c>
       <c r="J102" t="s">
-        <v>76</v>
-      </c>
-      <c r="K102" t="s">
-        <v>349</v>
-      </c>
-      <c r="L102" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>193</v>
-      </c>
-      <c r="R102" t="s">
-        <v>76</v>
-      </c>
-      <c r="T102" t="s">
+        <v>339</v>
+      </c>
+      <c r="M102" t="s">
+        <v>76</v>
+      </c>
+      <c r="O102" t="s">
+        <v>234</v>
+      </c>
+      <c r="S102" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>351</v>
-      </c>
-      <c r="F103" t="s">
-        <v>157</v>
+        <v>204</v>
+      </c>
+      <c r="F103">
+        <f>值集数据!$E$36</f>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="H103" t="s">
-        <v>158</v>
-      </c>
-      <c r="I103">
-        <f>值集数据!$E$30</f>
+        <v>340</v>
+      </c>
+      <c r="I103" t="s">
+        <v>341</v>
       </c>
       <c r="J103" t="s">
-        <v>76</v>
-      </c>
-      <c r="K103" t="s">
-        <v>352</v>
-      </c>
-      <c r="L103" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M103" t="s">
-        <v>354</v>
-      </c>
-      <c r="N103" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>193</v>
-      </c>
-      <c r="R103" t="s">
-        <v>76</v>
-      </c>
-      <c r="T103" t="s">
+        <v>76</v>
+      </c>
+      <c r="O103" t="s">
+        <v>262</v>
+      </c>
+      <c r="S103" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>355</v>
-      </c>
-      <c r="F104" t="s">
-        <v>162</v>
+        <v>204</v>
+      </c>
+      <c r="F104">
+        <f>值集数据!$E$37</f>
       </c>
       <c r="G104" t="s">
-        <v>356</v>
+        <v>183</v>
       </c>
       <c r="H104" t="s">
-        <v>356</v>
-      </c>
-      <c r="I104">
-        <f>值集数据!$E$31</f>
+        <v>342</v>
+      </c>
+      <c r="I104" t="s">
+        <v>257</v>
       </c>
       <c r="J104" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="K104" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="L104" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="M104" t="s">
-        <v>357</v>
-      </c>
-      <c r="N104" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>193</v>
-      </c>
-      <c r="R104" t="s">
-        <v>76</v>
-      </c>
-      <c r="T104" t="s">
+        <v>76</v>
+      </c>
+      <c r="O104" t="s">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>358</v>
-      </c>
-      <c r="F105" t="s">
-        <v>359</v>
+        <v>204</v>
+      </c>
+      <c r="F105">
+        <f>值集数据!$E$37</f>
       </c>
       <c r="G105" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="H105" t="s">
-        <v>103</v>
-      </c>
-      <c r="I105">
-        <f>值集数据!$E$15</f>
+        <v>343</v>
+      </c>
+      <c r="I105" t="s">
+        <v>314</v>
       </c>
       <c r="J105" t="s">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="K105" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L105" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="M105" t="s">
-        <v>362</v>
-      </c>
-      <c r="N105" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>193</v>
-      </c>
-      <c r="R105" t="s">
-        <v>76</v>
-      </c>
-      <c r="T105" t="s">
+        <v>76</v>
+      </c>
+      <c r="O105" t="s">
+        <v>279</v>
+      </c>
+      <c r="S105" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>363</v>
-      </c>
-      <c r="F106" t="s">
-        <v>364</v>
+        <v>204</v>
+      </c>
+      <c r="F106">
+        <f>值集数据!$E$37</f>
       </c>
       <c r="G106" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="H106" t="s">
-        <v>365</v>
-      </c>
-      <c r="I106">
-        <f>值集数据!$E$14</f>
+        <v>310</v>
+      </c>
+      <c r="I106" t="s">
+        <v>311</v>
       </c>
       <c r="J106" t="s">
-        <v>76</v>
-      </c>
-      <c r="K106" t="s">
-        <v>329</v>
-      </c>
-      <c r="L106" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="M106" t="s">
-        <v>330</v>
-      </c>
-      <c r="N106" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>193</v>
-      </c>
-      <c r="R106" t="s">
-        <v>76</v>
-      </c>
-      <c r="T106" t="s">
+        <v>76</v>
+      </c>
+      <c r="O106" t="s">
+        <v>323</v>
+      </c>
+      <c r="S106" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>366</v>
-      </c>
-      <c r="F107" t="s">
-        <v>167</v>
+        <v>204</v>
+      </c>
+      <c r="F107">
+        <f>值集数据!$E$38</f>
       </c>
       <c r="G107" t="s">
-        <v>367</v>
+        <v>186</v>
       </c>
       <c r="H107" t="s">
-        <v>367</v>
-      </c>
-      <c r="I107">
-        <f>值集数据!$E$32</f>
+        <v>345</v>
+      </c>
+      <c r="I107" t="s">
+        <v>346</v>
       </c>
       <c r="J107" t="s">
-        <v>76</v>
-      </c>
-      <c r="K107" t="s">
-        <v>368</v>
-      </c>
-      <c r="L107" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M107" t="s">
-        <v>369</v>
-      </c>
-      <c r="N107" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>193</v>
-      </c>
-      <c r="R107" t="s">
-        <v>76</v>
-      </c>
-      <c r="T107" t="s">
+        <v>76</v>
+      </c>
+      <c r="O107" t="s">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108">
+        <f>值集数据!$E$38</f>
+      </c>
+      <c r="G108" t="s">
+        <v>186</v>
+      </c>
+      <c r="H108" t="s">
+        <v>219</v>
+      </c>
+      <c r="I108" t="s">
+        <v>220</v>
+      </c>
+      <c r="J108" t="s">
+        <v>220</v>
+      </c>
+      <c r="M108" t="s">
+        <v>76</v>
+      </c>
+      <c r="O108" t="s">
+        <v>279</v>
+      </c>
+      <c r="S108" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" t="s">
-        <v>370</v>
-      </c>
-      <c r="D109" t="s" s="54">
-        <v>371</v>
-      </c>
-      <c r="E109" t="s" s="55">
-        <v>372</v>
-      </c>
-      <c r="F109" t="s" s="56">
-        <v>373</v>
+      <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109">
+        <f>值集数据!$E$38</f>
       </c>
       <c r="G109" t="s">
-        <v>374</v>
-      </c>
-      <c r="H109" t="s" s="57">
-        <v>319</v>
+        <v>186</v>
+      </c>
+      <c r="H109" t="s">
+        <v>347</v>
       </c>
       <c r="I109" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="J109" t="s">
-        <v>376</v>
-      </c>
-      <c r="K109" t="s">
-        <v>184</v>
-      </c>
-      <c r="L109" t="s" s="58">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="M109" t="s">
-        <v>378</v>
-      </c>
-      <c r="N109" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="O109" t="s">
-        <v>380</v>
-      </c>
-      <c r="P109" t="s">
-        <v>70</v>
+        <v>323</v>
+      </c>
+      <c r="S109" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="F110">
-        <f>值集数据!$E$97</f>
+        <f>值集数据!$E$39</f>
       </c>
       <c r="G110" t="s">
-        <v>76</v>
-      </c>
-      <c r="H110">
-        <f>值集数据!$E$22</f>
+        <v>189</v>
+      </c>
+      <c r="H110" t="s">
+        <v>345</v>
       </c>
       <c r="I110" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="J110" t="s">
-        <v>382</v>
-      </c>
-      <c r="K110" t="s">
-        <v>238</v>
-      </c>
-      <c r="L110" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="M110" t="s">
         <v>76</v>
       </c>
-      <c r="N110" t="s">
-        <v>76</v>
-      </c>
       <c r="O110" t="s">
-        <v>384</v>
-      </c>
-      <c r="P110" t="s">
+        <v>215</v>
+      </c>
+      <c r="S110" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="F111">
-        <f>值集数据!$E$97</f>
+        <f>值集数据!$E$39</f>
       </c>
       <c r="G111" t="s">
-        <v>76</v>
-      </c>
-      <c r="H111">
-        <f>值集数据!$E$22</f>
+        <v>189</v>
+      </c>
+      <c r="H111" t="s">
+        <v>221</v>
       </c>
       <c r="I111" t="s">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="J111" t="s">
-        <v>386</v>
-      </c>
-      <c r="K111" t="s">
-        <v>199</v>
-      </c>
-      <c r="L111" t="s">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="M111" t="s">
-        <v>77</v>
-      </c>
-      <c r="N111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O111" t="s">
-        <v>384</v>
-      </c>
-      <c r="P111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="E112" t="s">
-        <v>388</v>
-      </c>
-      <c r="F112">
-        <f>值集数据!$E$97</f>
-      </c>
-      <c r="G112" t="s">
-        <v>76</v>
-      </c>
-      <c r="H112">
-        <f>值集数据!$E$22</f>
-      </c>
-      <c r="I112" t="s">
-        <v>389</v>
-      </c>
-      <c r="J112" t="s">
-        <v>389</v>
-      </c>
-      <c r="K112" t="s">
-        <v>193</v>
-      </c>
-      <c r="L112" t="s">
-        <v>333</v>
-      </c>
-      <c r="M112" t="s">
-        <v>76</v>
-      </c>
-      <c r="N112" t="s">
-        <v>76</v>
-      </c>
-      <c r="O112" t="s">
-        <v>384</v>
-      </c>
-      <c r="P112" t="s">
+        <v>218</v>
+      </c>
+      <c r="S111" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113">
-      <c r="E113" t="s">
-        <v>390</v>
-      </c>
-      <c r="F113">
-        <f>值集数据!$E$97</f>
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" t="s">
+        <v>350</v>
+      </c>
+      <c r="D113" t="s" s="49">
+        <v>351</v>
+      </c>
+      <c r="E113" t="s" s="50">
+        <v>352</v>
+      </c>
+      <c r="F113" t="s" s="51">
+        <v>353</v>
       </c>
       <c r="G113" t="s">
-        <v>76</v>
-      </c>
-      <c r="H113">
-        <f>值集数据!$E$22</f>
-      </c>
-      <c r="I113" t="s">
-        <v>391</v>
-      </c>
-      <c r="J113" t="s">
-        <v>391</v>
+        <v>354</v>
+      </c>
+      <c r="H113" t="s">
+        <v>355</v>
+      </c>
+      <c r="I113" t="s" s="52">
+        <v>356</v>
+      </c>
+      <c r="J113" t="s" s="53">
+        <v>62</v>
       </c>
       <c r="K113" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="L113" t="s">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="M113" t="s">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="N113" t="s">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="O113" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P113" t="s">
-        <v>77</v>
+        <v>360</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>361</v>
+      </c>
+      <c r="R113" t="s">
+        <v>362</v>
+      </c>
+      <c r="S113" t="s">
+        <v>363</v>
+      </c>
+      <c r="T113" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>392</v>
-      </c>
-      <c r="F114">
-        <f>值集数据!$E$98</f>
+        <v>364</v>
+      </c>
+      <c r="F114" t="s">
+        <v>98</v>
       </c>
       <c r="G114" t="s">
-        <v>76</v>
-      </c>
-      <c r="H114">
-        <f>值集数据!$E$23</f>
-      </c>
-      <c r="I114" t="s">
-        <v>393</v>
+        <v>101</v>
+      </c>
+      <c r="H114" t="s">
+        <v>101</v>
+      </c>
+      <c r="I114">
+        <f>值集数据!$E$15</f>
       </c>
       <c r="J114" t="s">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="K114" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
       <c r="L114" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="M114" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="N114" t="s">
-        <v>77</v>
-      </c>
-      <c r="O114" t="s">
-        <v>395</v>
-      </c>
-      <c r="P114" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>215</v>
+      </c>
+      <c r="R114" t="s">
+        <v>76</v>
+      </c>
+      <c r="T114" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>396</v>
-      </c>
-      <c r="F115">
-        <f>值集数据!$E$98</f>
+        <v>368</v>
+      </c>
+      <c r="F115" t="s">
+        <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>76</v>
-      </c>
-      <c r="H115">
+        <v>369</v>
+      </c>
+      <c r="H115" t="s">
+        <v>369</v>
+      </c>
+      <c r="I115">
         <f>值集数据!$E$23</f>
       </c>
-      <c r="I115" t="s">
-        <v>397</v>
-      </c>
       <c r="J115" t="s">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="K115" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="L115" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="M115" t="s">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="N115" t="s">
-        <v>77</v>
-      </c>
-      <c r="O115" t="s">
-        <v>395</v>
-      </c>
-      <c r="P115" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>215</v>
+      </c>
+      <c r="R115" t="s">
+        <v>76</v>
+      </c>
+      <c r="T115" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>398</v>
-      </c>
-      <c r="F116">
-        <f>值集数据!$E$99</f>
+        <v>373</v>
+      </c>
+      <c r="F116" t="s">
+        <v>130</v>
       </c>
       <c r="G116" t="s">
-        <v>76</v>
-      </c>
-      <c r="H116">
-        <f>值集数据!$E$26</f>
-      </c>
-      <c r="I116" t="s">
-        <v>399</v>
+        <v>132</v>
+      </c>
+      <c r="H116" t="s">
+        <v>132</v>
+      </c>
+      <c r="I116">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J116" t="s">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="K116" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="L116" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="M116" t="s">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="N116" t="s">
-        <v>77</v>
-      </c>
-      <c r="O116" t="s">
-        <v>384</v>
-      </c>
-      <c r="P116" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>215</v>
+      </c>
+      <c r="R116" t="s">
+        <v>76</v>
+      </c>
+      <c r="T116" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>400</v>
-      </c>
-      <c r="F117">
-        <f>值集数据!$E$99</f>
+        <v>377</v>
+      </c>
+      <c r="F117" t="s">
+        <v>142</v>
       </c>
       <c r="G117" t="s">
-        <v>76</v>
-      </c>
-      <c r="H117">
-        <f>值集数据!$E$26</f>
-      </c>
-      <c r="I117" t="s">
-        <v>401</v>
+        <v>378</v>
+      </c>
+      <c r="H117" t="s">
+        <v>378</v>
+      </c>
+      <c r="I117">
+        <f>值集数据!$E$27</f>
       </c>
       <c r="J117" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="K117" t="s">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="L117" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="M117" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="N117" t="s">
-        <v>77</v>
-      </c>
-      <c r="O117" t="s">
-        <v>384</v>
-      </c>
-      <c r="P117" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>215</v>
+      </c>
+      <c r="R117" t="s">
+        <v>76</v>
+      </c>
+      <c r="T117" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>403</v>
-      </c>
-      <c r="F118">
-        <f>值集数据!$E$100</f>
+        <v>381</v>
+      </c>
+      <c r="F118" t="s">
+        <v>146</v>
       </c>
       <c r="G118" t="s">
-        <v>76</v>
-      </c>
-      <c r="H118">
-        <f>值集数据!$E$26</f>
-      </c>
-      <c r="I118" t="s">
-        <v>404</v>
+        <v>147</v>
+      </c>
+      <c r="H118" t="s">
+        <v>147</v>
+      </c>
+      <c r="I118">
+        <f>值集数据!$E$28</f>
       </c>
       <c r="J118" t="s">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="K118" t="s">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="L118" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M118" t="s">
-        <v>77</v>
-      </c>
-      <c r="N118" t="s">
-        <v>77</v>
-      </c>
-      <c r="O118" t="s">
-        <v>384</v>
-      </c>
-      <c r="P118" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>215</v>
+      </c>
+      <c r="R118" t="s">
+        <v>76</v>
+      </c>
+      <c r="T118" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>405</v>
-      </c>
-      <c r="F119">
-        <f>值集数据!$E$100</f>
+        <v>383</v>
+      </c>
+      <c r="F119" t="s">
+        <v>384</v>
       </c>
       <c r="G119" t="s">
-        <v>76</v>
-      </c>
-      <c r="H119">
-        <f>值集数据!$E$26</f>
-      </c>
-      <c r="I119" t="s">
-        <v>401</v>
+        <v>378</v>
+      </c>
+      <c r="H119" t="s">
+        <v>378</v>
+      </c>
+      <c r="I119">
+        <f>值集数据!$E$27</f>
       </c>
       <c r="J119" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="K119" t="s">
-        <v>252</v>
+        <v>385</v>
       </c>
       <c r="L119" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="M119" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="N119" t="s">
-        <v>77</v>
-      </c>
-      <c r="O119" t="s">
-        <v>384</v>
-      </c>
-      <c r="P119" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>215</v>
+      </c>
+      <c r="R119" t="s">
+        <v>76</v>
+      </c>
+      <c r="T119" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>406</v>
-      </c>
-      <c r="F120">
-        <f>值集数据!$E$100</f>
+        <v>386</v>
+      </c>
+      <c r="F120" t="s">
+        <v>150</v>
       </c>
       <c r="G120" t="s">
-        <v>76</v>
-      </c>
-      <c r="H120">
-        <f>值集数据!$E$26</f>
-      </c>
-      <c r="I120" t="s">
-        <v>407</v>
+        <v>369</v>
+      </c>
+      <c r="H120" t="s">
+        <v>369</v>
+      </c>
+      <c r="I120">
+        <f>值集数据!$E$29</f>
       </c>
       <c r="J120" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="K120" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="L120" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M120" t="s">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="N120" t="s">
-        <v>77</v>
-      </c>
-      <c r="O120" t="s">
-        <v>384</v>
-      </c>
-      <c r="P120" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>215</v>
+      </c>
+      <c r="R120" t="s">
+        <v>76</v>
+      </c>
+      <c r="T120" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>408</v>
-      </c>
-      <c r="F121">
-        <f>值集数据!$E$101</f>
+        <v>387</v>
+      </c>
+      <c r="F121" t="s">
+        <v>154</v>
       </c>
       <c r="G121" t="s">
-        <v>76</v>
-      </c>
-      <c r="H121">
-        <f>值集数据!$E$27</f>
-      </c>
-      <c r="I121" t="s">
-        <v>407</v>
+        <v>156</v>
+      </c>
+      <c r="H121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I121">
+        <f>值集数据!$E$30</f>
       </c>
       <c r="J121" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="K121" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L121" t="s">
-        <v>383</v>
-      </c>
-      <c r="M121" t="s">
-        <v>76</v>
-      </c>
-      <c r="N121" t="s">
-        <v>76</v>
-      </c>
-      <c r="O121" t="s">
-        <v>384</v>
-      </c>
-      <c r="P121" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>215</v>
+      </c>
+      <c r="R121" t="s">
+        <v>76</v>
+      </c>
+      <c r="T121" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>409</v>
-      </c>
-      <c r="F122">
-        <f>值集数据!$E$101</f>
+        <v>390</v>
+      </c>
+      <c r="F122" t="s">
+        <v>163</v>
       </c>
       <c r="G122" t="s">
-        <v>76</v>
-      </c>
-      <c r="H122">
-        <f>值集数据!$E$27</f>
-      </c>
-      <c r="I122" t="s">
-        <v>386</v>
+        <v>164</v>
+      </c>
+      <c r="H122" t="s">
+        <v>164</v>
+      </c>
+      <c r="I122">
+        <f>值集数据!$E$32</f>
       </c>
       <c r="J122" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="K122" t="s">
-        <v>199</v>
+        <v>391</v>
       </c>
       <c r="L122" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M122" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="N122" t="s">
-        <v>77</v>
-      </c>
-      <c r="O122" t="s">
-        <v>384</v>
-      </c>
-      <c r="P122" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>215</v>
+      </c>
+      <c r="R122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T122" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>410</v>
-      </c>
-      <c r="F123">
-        <f>值集数据!$E$101</f>
+        <v>394</v>
+      </c>
+      <c r="F123" t="s">
+        <v>168</v>
       </c>
       <c r="G123" t="s">
-        <v>76</v>
-      </c>
-      <c r="H123">
-        <f>值集数据!$E$27</f>
-      </c>
-      <c r="I123" t="s">
-        <v>411</v>
+        <v>395</v>
+      </c>
+      <c r="H123" t="s">
+        <v>395</v>
+      </c>
+      <c r="I123">
+        <f>值集数据!$E$33</f>
       </c>
       <c r="J123" t="s">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="K123" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
       <c r="L123" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="M123" t="s">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="N123" t="s">
-        <v>76</v>
-      </c>
-      <c r="O123" t="s">
-        <v>384</v>
-      </c>
-      <c r="P123" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>215</v>
+      </c>
+      <c r="R123" t="s">
+        <v>76</v>
+      </c>
+      <c r="T123" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>412</v>
-      </c>
-      <c r="F124">
-        <f>值集数据!$E$101</f>
+        <v>397</v>
+      </c>
+      <c r="F124" t="s">
+        <v>398</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
-      </c>
-      <c r="H124">
-        <f>值集数据!$E$27</f>
-      </c>
-      <c r="I124" t="s">
-        <v>391</v>
+        <v>105</v>
+      </c>
+      <c r="H124" t="s">
+        <v>105</v>
+      </c>
+      <c r="I124">
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J124" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="K124" t="s">
-        <v>210</v>
+        <v>399</v>
       </c>
       <c r="L124" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="M124" t="s">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="N124" t="s">
-        <v>77</v>
-      </c>
-      <c r="O124" t="s">
-        <v>384</v>
-      </c>
-      <c r="P124" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>215</v>
+      </c>
+      <c r="R124" t="s">
+        <v>76</v>
+      </c>
+      <c r="T124" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>413</v>
-      </c>
-      <c r="F125">
-        <f>值集数据!$E$102</f>
+        <v>402</v>
+      </c>
+      <c r="F125" t="s">
+        <v>403</v>
       </c>
       <c r="G125" t="s">
-        <v>76</v>
-      </c>
-      <c r="H125">
-        <f>值集数据!$E$28</f>
-      </c>
-      <c r="I125" t="s">
-        <v>414</v>
+        <v>404</v>
+      </c>
+      <c r="H125" t="s">
+        <v>404</v>
+      </c>
+      <c r="I125">
+        <f>值集数据!$E$15</f>
       </c>
       <c r="J125" t="s">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="L125" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="M125" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="N125" t="s">
-        <v>77</v>
-      </c>
-      <c r="O125" t="s">
-        <v>417</v>
-      </c>
-      <c r="P125" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>215</v>
+      </c>
+      <c r="R125" t="s">
+        <v>76</v>
+      </c>
+      <c r="T125" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
+        <v>405</v>
+      </c>
+      <c r="F126" t="s">
+        <v>180</v>
+      </c>
+      <c r="G126" t="s">
+        <v>406</v>
+      </c>
+      <c r="H126" t="s">
+        <v>406</v>
+      </c>
+      <c r="I126">
+        <f>值集数据!$E$36</f>
+      </c>
+      <c r="J126" t="s">
+        <v>76</v>
+      </c>
+      <c r="K126" t="s">
+        <v>407</v>
+      </c>
+      <c r="L126" t="s">
+        <v>400</v>
+      </c>
+      <c r="M126" t="s">
+        <v>408</v>
+      </c>
+      <c r="N126" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>215</v>
+      </c>
+      <c r="R126" t="s">
+        <v>76</v>
+      </c>
+      <c r="T126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" t="s">
+        <v>409</v>
+      </c>
+      <c r="D128" t="s" s="54">
+        <v>410</v>
+      </c>
+      <c r="E128" t="s" s="55">
+        <v>411</v>
+      </c>
+      <c r="F128" t="s" s="56">
+        <v>412</v>
+      </c>
+      <c r="G128" t="s">
+        <v>413</v>
+      </c>
+      <c r="H128" t="s" s="57">
+        <v>356</v>
+      </c>
+      <c r="I128" t="s">
+        <v>414</v>
+      </c>
+      <c r="J128" t="s">
+        <v>415</v>
+      </c>
+      <c r="K128" t="s">
+        <v>200</v>
+      </c>
+      <c r="L128" t="s" s="58">
+        <v>416</v>
+      </c>
+      <c r="M128" t="s">
+        <v>417</v>
+      </c>
+      <c r="N128" t="s">
         <v>418</v>
       </c>
-      <c r="F126">
-        <f>值集数据!$E$102</f>
-      </c>
-      <c r="G126" t="s">
-        <v>76</v>
-      </c>
-      <c r="H126">
-        <f>值集数据!$E$28</f>
-      </c>
-      <c r="I126" t="s">
+      <c r="O128" t="s">
         <v>419</v>
       </c>
-      <c r="J126" t="s">
-        <v>420</v>
-      </c>
-      <c r="K126" t="s">
-        <v>193</v>
-      </c>
-      <c r="L126" t="s">
-        <v>421</v>
-      </c>
-      <c r="M126" t="s">
-        <v>77</v>
-      </c>
-      <c r="N126" t="s">
-        <v>77</v>
-      </c>
-      <c r="O126" t="s">
-        <v>422</v>
-      </c>
-      <c r="P126" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="E127" t="s">
-        <v>423</v>
-      </c>
-      <c r="F127">
-        <f>值集数据!$E$102</f>
-      </c>
-      <c r="G127" t="s">
-        <v>76</v>
-      </c>
-      <c r="H127">
-        <f>值集数据!$E$28</f>
-      </c>
-      <c r="I127" t="s">
-        <v>424</v>
-      </c>
-      <c r="J127" t="s">
-        <v>425</v>
-      </c>
-      <c r="K127" t="s">
-        <v>210</v>
-      </c>
-      <c r="L127" t="s">
-        <v>425</v>
-      </c>
-      <c r="M127" t="s">
-        <v>77</v>
-      </c>
-      <c r="N127" t="s">
-        <v>77</v>
-      </c>
-      <c r="O127" t="s">
-        <v>426</v>
-      </c>
-      <c r="P127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="E128" t="s">
-        <v>427</v>
-      </c>
-      <c r="F128">
-        <f>值集数据!$E$102</f>
-      </c>
-      <c r="G128" t="s">
-        <v>76</v>
-      </c>
-      <c r="H128">
-        <f>值集数据!$E$28</f>
-      </c>
-      <c r="I128" t="s">
-        <v>428</v>
-      </c>
-      <c r="J128" t="s">
-        <v>429</v>
-      </c>
-      <c r="K128" t="s">
-        <v>199</v>
-      </c>
-      <c r="L128" t="s">
-        <v>430</v>
-      </c>
-      <c r="M128" t="s">
-        <v>77</v>
-      </c>
-      <c r="N128" t="s">
-        <v>77</v>
-      </c>
-      <c r="O128" t="s">
-        <v>422</v>
-      </c>
       <c r="P128" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F129">
-        <f>值集数据!$E$103</f>
+        <f>值集数据!$E$115</f>
       </c>
       <c r="G129" t="s">
         <v>76</v>
       </c>
       <c r="H129">
-        <f>值集数据!$E$30</f>
+        <f>值集数据!$E$23</f>
       </c>
       <c r="I129" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="J129" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="K129" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="L129" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O129" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="P129" t="s">
         <v>77</v>
@@ -8584,28 +8599,28 @@
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F130">
-        <f>值集数据!$E$103</f>
+        <f>值集数据!$E$115</f>
       </c>
       <c r="G130" t="s">
         <v>76</v>
       </c>
       <c r="H130">
-        <f>值集数据!$E$30</f>
+        <f>值集数据!$E$23</f>
       </c>
       <c r="I130" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J130" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K130" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="L130" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="M130" t="s">
         <v>77</v>
@@ -8614,7 +8629,7 @@
         <v>77</v>
       </c>
       <c r="O130" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="P130" t="s">
         <v>77</v>
@@ -8622,37 +8637,37 @@
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F131">
-        <f>值集数据!$E$104</f>
+        <f>值集数据!$E$115</f>
       </c>
       <c r="G131" t="s">
         <v>76</v>
       </c>
       <c r="H131">
-        <f>值集数据!$E$31</f>
+        <f>值集数据!$E$23</f>
       </c>
       <c r="I131" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J131" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K131" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="L131" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O131" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="P131" t="s">
         <v>77</v>
@@ -8660,28 +8675,28 @@
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F132">
-        <f>值集数据!$E$104</f>
+        <f>值集数据!$E$115</f>
       </c>
       <c r="G132" t="s">
         <v>76</v>
       </c>
       <c r="H132">
-        <f>值集数据!$E$31</f>
+        <f>值集数据!$E$23</f>
       </c>
       <c r="I132" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="J132" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K132" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="L132" t="s">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="M132" t="s">
         <v>77</v>
@@ -8690,7 +8705,7 @@
         <v>77</v>
       </c>
       <c r="O132" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P132" t="s">
         <v>77</v>
@@ -8698,28 +8713,28 @@
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F133">
-        <f>值集数据!$E$105</f>
+        <f>值集数据!$E$116</f>
       </c>
       <c r="G133" t="s">
         <v>76</v>
       </c>
       <c r="H133">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$24</f>
       </c>
       <c r="I133" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J133" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K133" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="L133" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="M133" t="s">
         <v>77</v>
@@ -8728,7 +8743,7 @@
         <v>77</v>
       </c>
       <c r="O133" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="P133" t="s">
         <v>77</v>
@@ -8736,28 +8751,28 @@
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F134">
-        <f>值集数据!$E$105</f>
+        <f>值集数据!$E$116</f>
       </c>
       <c r="G134" t="s">
         <v>76</v>
       </c>
       <c r="H134">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$24</f>
       </c>
       <c r="I134" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J134" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K134" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="L134" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="M134" t="s">
         <v>77</v>
@@ -8766,7 +8781,7 @@
         <v>77</v>
       </c>
       <c r="O134" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="P134" t="s">
         <v>77</v>
@@ -8774,37 +8789,37 @@
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F135">
-        <f>值集数据!$E$106</f>
+        <f>值集数据!$E$117</f>
       </c>
       <c r="G135" t="s">
         <v>76</v>
       </c>
       <c r="H135">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$27</f>
       </c>
       <c r="I135" t="s">
+        <v>438</v>
+      </c>
+      <c r="J135" t="s">
+        <v>438</v>
+      </c>
+      <c r="K135" t="s">
+        <v>279</v>
+      </c>
+      <c r="L135" t="s">
+        <v>379</v>
+      </c>
+      <c r="M135" t="s">
+        <v>77</v>
+      </c>
+      <c r="N135" t="s">
+        <v>77</v>
+      </c>
+      <c r="O135" t="s">
         <v>439</v>
-      </c>
-      <c r="J135" t="s">
-        <v>439</v>
-      </c>
-      <c r="K135" t="s">
-        <v>210</v>
-      </c>
-      <c r="L135" t="s">
-        <v>447</v>
-      </c>
-      <c r="M135" t="s">
-        <v>76</v>
-      </c>
-      <c r="N135" t="s">
-        <v>77</v>
-      </c>
-      <c r="O135" t="s">
-        <v>417</v>
       </c>
       <c r="P135" t="s">
         <v>77</v>
@@ -8812,28 +8827,28 @@
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F136">
-        <f>值集数据!$E$106</f>
+        <f>值集数据!$E$117</f>
       </c>
       <c r="G136" t="s">
         <v>76</v>
       </c>
       <c r="H136">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$27</f>
       </c>
       <c r="I136" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J136" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K136" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="L136" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="M136" t="s">
         <v>77</v>
@@ -8842,7 +8857,7 @@
         <v>77</v>
       </c>
       <c r="O136" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P136" t="s">
         <v>77</v>
@@ -8850,37 +8865,37 @@
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F137">
-        <f>值集数据!$E$106</f>
+        <f>值集数据!$E$118</f>
       </c>
       <c r="G137" t="s">
         <v>76</v>
       </c>
       <c r="H137">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$28</f>
       </c>
       <c r="I137" t="s">
+        <v>438</v>
+      </c>
+      <c r="J137" t="s">
+        <v>438</v>
+      </c>
+      <c r="K137" t="s">
+        <v>77</v>
+      </c>
+      <c r="L137" t="s">
+        <v>379</v>
+      </c>
+      <c r="M137" t="s">
+        <v>77</v>
+      </c>
+      <c r="N137" t="s">
+        <v>77</v>
+      </c>
+      <c r="O137" t="s">
         <v>439</v>
-      </c>
-      <c r="J137" t="s">
-        <v>439</v>
-      </c>
-      <c r="K137" t="s">
-        <v>199</v>
-      </c>
-      <c r="L137" t="s">
-        <v>440</v>
-      </c>
-      <c r="M137" t="s">
-        <v>77</v>
-      </c>
-      <c r="N137" t="s">
-        <v>76</v>
-      </c>
-      <c r="O137" t="s">
-        <v>417</v>
       </c>
       <c r="P137" t="s">
         <v>77</v>
@@ -8888,28 +8903,28 @@
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F138">
-        <f>值集数据!$E$107</f>
+        <f>值集数据!$E$118</f>
       </c>
       <c r="G138" t="s">
         <v>76</v>
       </c>
       <c r="H138">
-        <f>值集数据!$E$32</f>
+        <f>值集数据!$E$28</f>
       </c>
       <c r="I138" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="J138" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K138" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="L138" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="M138" t="s">
         <v>77</v>
@@ -8918,7 +8933,7 @@
         <v>77</v>
       </c>
       <c r="O138" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P138" t="s">
         <v>77</v>
@@ -8926,39 +8941,875 @@
     </row>
     <row r="139">
       <c r="E139" t="s">
+        <v>444</v>
+      </c>
+      <c r="F139">
+        <f>值集数据!$E$118</f>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139">
+        <f>值集数据!$E$28</f>
+      </c>
+      <c r="I139" t="s">
+        <v>445</v>
+      </c>
+      <c r="J139" t="s">
+        <v>445</v>
+      </c>
+      <c r="K139" t="s">
+        <v>323</v>
+      </c>
+      <c r="L139" t="s">
+        <v>446</v>
+      </c>
+      <c r="M139" t="s">
+        <v>76</v>
+      </c>
+      <c r="N139" t="s">
+        <v>77</v>
+      </c>
+      <c r="O139" t="s">
+        <v>266</v>
+      </c>
+      <c r="P139" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="s">
+        <v>447</v>
+      </c>
+      <c r="F140">
+        <f>值集数据!$E$119</f>
+      </c>
+      <c r="G140" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140">
+        <f>值集数据!$E$27</f>
+      </c>
+      <c r="I140" t="s">
+        <v>448</v>
+      </c>
+      <c r="J140" t="s">
+        <v>448</v>
+      </c>
+      <c r="K140" t="s">
+        <v>77</v>
+      </c>
+      <c r="L140" t="s">
+        <v>379</v>
+      </c>
+      <c r="M140" t="s">
+        <v>77</v>
+      </c>
+      <c r="N140" t="s">
+        <v>77</v>
+      </c>
+      <c r="O140" t="s">
+        <v>423</v>
+      </c>
+      <c r="P140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="s">
+        <v>449</v>
+      </c>
+      <c r="F141">
+        <f>值集数据!$E$119</f>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141">
+        <f>值集数据!$E$27</f>
+      </c>
+      <c r="I141" t="s">
+        <v>450</v>
+      </c>
+      <c r="J141" t="s">
+        <v>450</v>
+      </c>
+      <c r="K141" t="s">
+        <v>279</v>
+      </c>
+      <c r="L141" t="s">
+        <v>382</v>
+      </c>
+      <c r="M141" t="s">
+        <v>77</v>
+      </c>
+      <c r="N141" t="s">
+        <v>77</v>
+      </c>
+      <c r="O141" t="s">
+        <v>423</v>
+      </c>
+      <c r="P141" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="s">
+        <v>451</v>
+      </c>
+      <c r="F142">
+        <f>值集数据!$E$119</f>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142">
+        <f>值集数据!$E$27</f>
+      </c>
+      <c r="I142" t="s">
         <v>452</v>
       </c>
-      <c r="F139">
-        <f>值集数据!$E$107</f>
-      </c>
-      <c r="G139" t="s">
-        <v>76</v>
-      </c>
-      <c r="H139">
+      <c r="J142" t="s">
+        <v>452</v>
+      </c>
+      <c r="K142" t="s">
+        <v>323</v>
+      </c>
+      <c r="L142" t="s">
+        <v>422</v>
+      </c>
+      <c r="M142" t="s">
+        <v>77</v>
+      </c>
+      <c r="N142" t="s">
+        <v>77</v>
+      </c>
+      <c r="O142" t="s">
+        <v>423</v>
+      </c>
+      <c r="P142" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="s">
+        <v>453</v>
+      </c>
+      <c r="F143">
+        <f>值集数据!$E$120</f>
+      </c>
+      <c r="G143" t="s">
+        <v>76</v>
+      </c>
+      <c r="H143">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="I143" t="s">
+        <v>452</v>
+      </c>
+      <c r="J143" t="s">
+        <v>452</v>
+      </c>
+      <c r="K143" t="s">
+        <v>423</v>
+      </c>
+      <c r="L143" t="s">
+        <v>422</v>
+      </c>
+      <c r="M143" t="s">
+        <v>76</v>
+      </c>
+      <c r="N143" t="s">
+        <v>76</v>
+      </c>
+      <c r="O143" t="s">
+        <v>423</v>
+      </c>
+      <c r="P143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="s">
+        <v>454</v>
+      </c>
+      <c r="F144">
+        <f>值集数据!$E$120</f>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="I144" t="s">
+        <v>425</v>
+      </c>
+      <c r="J144" t="s">
+        <v>425</v>
+      </c>
+      <c r="K144" t="s">
+        <v>218</v>
+      </c>
+      <c r="L144" t="s">
+        <v>426</v>
+      </c>
+      <c r="M144" t="s">
+        <v>77</v>
+      </c>
+      <c r="N144" t="s">
+        <v>77</v>
+      </c>
+      <c r="O144" t="s">
+        <v>423</v>
+      </c>
+      <c r="P144" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="s">
+        <v>455</v>
+      </c>
+      <c r="F145">
+        <f>值集数据!$E$120</f>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="I145" t="s">
+        <v>456</v>
+      </c>
+      <c r="J145" t="s">
+        <v>456</v>
+      </c>
+      <c r="K145" t="s">
+        <v>215</v>
+      </c>
+      <c r="L145" t="s">
+        <v>370</v>
+      </c>
+      <c r="M145" t="s">
+        <v>76</v>
+      </c>
+      <c r="N145" t="s">
+        <v>76</v>
+      </c>
+      <c r="O145" t="s">
+        <v>423</v>
+      </c>
+      <c r="P145" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="s">
+        <v>457</v>
+      </c>
+      <c r="F146">
+        <f>值集数据!$E$120</f>
+      </c>
+      <c r="G146" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="I146" t="s">
+        <v>430</v>
+      </c>
+      <c r="J146" t="s">
+        <v>430</v>
+      </c>
+      <c r="K146" t="s">
+        <v>234</v>
+      </c>
+      <c r="L146" t="s">
+        <v>371</v>
+      </c>
+      <c r="M146" t="s">
+        <v>77</v>
+      </c>
+      <c r="N146" t="s">
+        <v>77</v>
+      </c>
+      <c r="O146" t="s">
+        <v>423</v>
+      </c>
+      <c r="P146" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="s">
+        <v>458</v>
+      </c>
+      <c r="F147">
+        <f>值集数据!$E$121</f>
+      </c>
+      <c r="G147" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147">
+        <f>值集数据!$E$30</f>
+      </c>
+      <c r="I147" t="s">
+        <v>459</v>
+      </c>
+      <c r="J147" t="s">
+        <v>460</v>
+      </c>
+      <c r="K147" t="s">
+        <v>262</v>
+      </c>
+      <c r="L147" t="s">
+        <v>461</v>
+      </c>
+      <c r="M147" t="s">
+        <v>77</v>
+      </c>
+      <c r="N147" t="s">
+        <v>77</v>
+      </c>
+      <c r="O147" t="s">
+        <v>439</v>
+      </c>
+      <c r="P147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="s">
+        <v>462</v>
+      </c>
+      <c r="F148">
+        <f>值集数据!$E$121</f>
+      </c>
+      <c r="G148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148">
+        <f>值集数据!$E$30</f>
+      </c>
+      <c r="I148" t="s">
+        <v>463</v>
+      </c>
+      <c r="J148" t="s">
+        <v>464</v>
+      </c>
+      <c r="K148" t="s">
+        <v>215</v>
+      </c>
+      <c r="L148" t="s">
+        <v>465</v>
+      </c>
+      <c r="M148" t="s">
+        <v>77</v>
+      </c>
+      <c r="N148" t="s">
+        <v>77</v>
+      </c>
+      <c r="O148" t="s">
+        <v>466</v>
+      </c>
+      <c r="P148" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="s">
+        <v>467</v>
+      </c>
+      <c r="F149">
+        <f>值集数据!$E$121</f>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149">
+        <f>值集数据!$E$30</f>
+      </c>
+      <c r="I149" t="s">
+        <v>468</v>
+      </c>
+      <c r="J149" t="s">
+        <v>469</v>
+      </c>
+      <c r="K149" t="s">
+        <v>234</v>
+      </c>
+      <c r="L149" t="s">
+        <v>469</v>
+      </c>
+      <c r="M149" t="s">
+        <v>77</v>
+      </c>
+      <c r="N149" t="s">
+        <v>77</v>
+      </c>
+      <c r="O149" t="s">
+        <v>470</v>
+      </c>
+      <c r="P149" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="s">
+        <v>471</v>
+      </c>
+      <c r="F150">
+        <f>值集数据!$E$121</f>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150">
+        <f>值集数据!$E$30</f>
+      </c>
+      <c r="I150" t="s">
+        <v>472</v>
+      </c>
+      <c r="J150" t="s">
+        <v>473</v>
+      </c>
+      <c r="K150" t="s">
+        <v>218</v>
+      </c>
+      <c r="L150" t="s">
+        <v>474</v>
+      </c>
+      <c r="M150" t="s">
+        <v>77</v>
+      </c>
+      <c r="N150" t="s">
+        <v>77</v>
+      </c>
+      <c r="O150" t="s">
+        <v>466</v>
+      </c>
+      <c r="P150" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="s">
+        <v>475</v>
+      </c>
+      <c r="F151">
+        <f>值集数据!$E$122</f>
+      </c>
+      <c r="G151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H151">
         <f>值集数据!$E$32</f>
       </c>
-      <c r="I139" t="s">
-        <v>453</v>
-      </c>
-      <c r="J139" t="s">
-        <v>453</v>
-      </c>
-      <c r="K139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L139" t="s">
-        <v>361</v>
-      </c>
-      <c r="M139" t="s">
-        <v>77</v>
-      </c>
-      <c r="N139" t="s">
-        <v>77</v>
-      </c>
-      <c r="O139" t="s">
-        <v>443</v>
-      </c>
-      <c r="P139" t="s">
+      <c r="I151" t="s">
+        <v>476</v>
+      </c>
+      <c r="J151" t="s">
+        <v>476</v>
+      </c>
+      <c r="K151" t="s">
+        <v>77</v>
+      </c>
+      <c r="L151" t="s">
+        <v>477</v>
+      </c>
+      <c r="M151" t="s">
+        <v>77</v>
+      </c>
+      <c r="N151" t="s">
+        <v>77</v>
+      </c>
+      <c r="O151" t="s">
+        <v>423</v>
+      </c>
+      <c r="P151" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="s">
+        <v>478</v>
+      </c>
+      <c r="F152">
+        <f>值集数据!$E$122</f>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152">
+        <f>值集数据!$E$32</f>
+      </c>
+      <c r="I152" t="s">
+        <v>479</v>
+      </c>
+      <c r="J152" t="s">
+        <v>479</v>
+      </c>
+      <c r="K152" t="s">
+        <v>279</v>
+      </c>
+      <c r="L152" t="s">
+        <v>392</v>
+      </c>
+      <c r="M152" t="s">
+        <v>77</v>
+      </c>
+      <c r="N152" t="s">
+        <v>77</v>
+      </c>
+      <c r="O152" t="s">
+        <v>439</v>
+      </c>
+      <c r="P152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="s">
+        <v>480</v>
+      </c>
+      <c r="F153">
+        <f>值集数据!$E$123</f>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153">
+        <f>值集数据!$E$33</f>
+      </c>
+      <c r="I153" t="s">
+        <v>481</v>
+      </c>
+      <c r="J153" t="s">
+        <v>481</v>
+      </c>
+      <c r="K153" t="s">
+        <v>279</v>
+      </c>
+      <c r="L153" t="s">
+        <v>366</v>
+      </c>
+      <c r="M153" t="s">
+        <v>77</v>
+      </c>
+      <c r="N153" t="s">
+        <v>77</v>
+      </c>
+      <c r="O153" t="s">
+        <v>423</v>
+      </c>
+      <c r="P153" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="s">
+        <v>482</v>
+      </c>
+      <c r="F154">
+        <f>值集数据!$E$123</f>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154">
+        <f>值集数据!$E$33</f>
+      </c>
+      <c r="I154" t="s">
+        <v>483</v>
+      </c>
+      <c r="J154" t="s">
+        <v>483</v>
+      </c>
+      <c r="K154" t="s">
+        <v>77</v>
+      </c>
+      <c r="L154" t="s">
+        <v>484</v>
+      </c>
+      <c r="M154" t="s">
+        <v>77</v>
+      </c>
+      <c r="N154" t="s">
+        <v>77</v>
+      </c>
+      <c r="O154" t="s">
+        <v>439</v>
+      </c>
+      <c r="P154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="s">
+        <v>485</v>
+      </c>
+      <c r="F155">
+        <f>值集数据!$E$124</f>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="I155" t="s">
+        <v>486</v>
+      </c>
+      <c r="J155" t="s">
+        <v>486</v>
+      </c>
+      <c r="K155" t="s">
+        <v>279</v>
+      </c>
+      <c r="L155" t="s">
+        <v>400</v>
+      </c>
+      <c r="M155" t="s">
+        <v>77</v>
+      </c>
+      <c r="N155" t="s">
+        <v>77</v>
+      </c>
+      <c r="O155" t="s">
+        <v>487</v>
+      </c>
+      <c r="P155" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="s">
+        <v>488</v>
+      </c>
+      <c r="F156">
+        <f>值集数据!$E$124</f>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="I156" t="s">
+        <v>489</v>
+      </c>
+      <c r="J156" t="s">
+        <v>489</v>
+      </c>
+      <c r="K156" t="s">
+        <v>77</v>
+      </c>
+      <c r="L156" t="s">
+        <v>399</v>
+      </c>
+      <c r="M156" t="s">
+        <v>77</v>
+      </c>
+      <c r="N156" t="s">
+        <v>77</v>
+      </c>
+      <c r="O156" t="s">
+        <v>487</v>
+      </c>
+      <c r="P156" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="s">
+        <v>490</v>
+      </c>
+      <c r="F157">
+        <f>值集数据!$E$125</f>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="I157" t="s">
+        <v>483</v>
+      </c>
+      <c r="J157" t="s">
+        <v>483</v>
+      </c>
+      <c r="K157" t="s">
+        <v>234</v>
+      </c>
+      <c r="L157" t="s">
+        <v>491</v>
+      </c>
+      <c r="M157" t="s">
+        <v>76</v>
+      </c>
+      <c r="N157" t="s">
+        <v>77</v>
+      </c>
+      <c r="O157" t="s">
+        <v>439</v>
+      </c>
+      <c r="P157" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="s">
+        <v>492</v>
+      </c>
+      <c r="F158">
+        <f>值集数据!$E$125</f>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="I158" t="s">
+        <v>481</v>
+      </c>
+      <c r="J158" t="s">
+        <v>481</v>
+      </c>
+      <c r="K158" t="s">
+        <v>215</v>
+      </c>
+      <c r="L158" t="s">
+        <v>366</v>
+      </c>
+      <c r="M158" t="s">
+        <v>77</v>
+      </c>
+      <c r="N158" t="s">
+        <v>77</v>
+      </c>
+      <c r="O158" t="s">
+        <v>439</v>
+      </c>
+      <c r="P158" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="s">
+        <v>493</v>
+      </c>
+      <c r="F159">
+        <f>值集数据!$E$125</f>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="I159" t="s">
+        <v>483</v>
+      </c>
+      <c r="J159" t="s">
+        <v>483</v>
+      </c>
+      <c r="K159" t="s">
+        <v>218</v>
+      </c>
+      <c r="L159" t="s">
+        <v>484</v>
+      </c>
+      <c r="M159" t="s">
+        <v>77</v>
+      </c>
+      <c r="N159" t="s">
+        <v>76</v>
+      </c>
+      <c r="O159" t="s">
+        <v>439</v>
+      </c>
+      <c r="P159" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="s">
+        <v>494</v>
+      </c>
+      <c r="F160">
+        <f>值集数据!$E$126</f>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160">
+        <f>值集数据!$E$36</f>
+      </c>
+      <c r="I160" t="s">
+        <v>495</v>
+      </c>
+      <c r="J160" t="s">
+        <v>495</v>
+      </c>
+      <c r="K160" t="s">
+        <v>215</v>
+      </c>
+      <c r="L160" t="s">
+        <v>407</v>
+      </c>
+      <c r="M160" t="s">
+        <v>77</v>
+      </c>
+      <c r="N160" t="s">
+        <v>77</v>
+      </c>
+      <c r="O160" t="s">
+        <v>487</v>
+      </c>
+      <c r="P160" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="s">
+        <v>496</v>
+      </c>
+      <c r="F161">
+        <f>值集数据!$E$126</f>
+      </c>
+      <c r="G161" t="s">
+        <v>76</v>
+      </c>
+      <c r="H161">
+        <f>值集数据!$E$36</f>
+      </c>
+      <c r="I161" t="s">
+        <v>497</v>
+      </c>
+      <c r="J161" t="s">
+        <v>497</v>
+      </c>
+      <c r="K161" t="s">
+        <v>218</v>
+      </c>
+      <c r="L161" t="s">
+        <v>400</v>
+      </c>
+      <c r="M161" t="s">
+        <v>77</v>
+      </c>
+      <c r="N161" t="s">
+        <v>77</v>
+      </c>
+      <c r="O161" t="s">
+        <v>487</v>
+      </c>
+      <c r="P161" t="s">
         <v>77</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="501">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2059,6 +2059,12 @@
   </si>
   <si>
     <t>translation_sql</t>
+  </si>
+  <si>
+    <t>encrypt_field</t>
+  </si>
+  <si>
+    <t>public_flag</t>
   </si>
   <si>
     <t>hpfm_lov-8</t>
@@ -2181,6 +2187,9 @@
 ORDER BY template_code</t>
   </si>
   <si>
+    <t>templateId</t>
+  </si>
+  <si>
     <t>hpfm_lov-16</t>
   </si>
   <si>
@@ -2291,6 +2300,9 @@
             &lt;bind name="typeNameLike" value="'%' + typeName + '%'" /&gt;
             and hrt.type_name like #{typeNameLike}
         &lt;/if&gt;</t>
+  </si>
+  <si>
+    <t>receiverTypeId</t>
   </si>
   <si>
     <t>hpfm_lov-25</t>
@@ -2517,6 +2529,9 @@
 &lt;/if&gt;</t>
   </si>
   <si>
+    <t>tempServerId</t>
+  </si>
+  <si>
     <t>hpfm_lov-33</t>
   </si>
   <si>
@@ -2561,6 +2576,9 @@
     <t>消息发送配置分类</t>
   </si>
   <si>
+    <t>值只能使用大写</t>
+  </si>
+  <si>
     <t>ddeb</t>
   </si>
   <si>
@@ -3131,9 +3149,6 @@
     <t>hpfm_lov_view_header-114</t>
   </si>
   <si>
-    <t>templateId</t>
-  </si>
-  <si>
     <t>templateCode</t>
   </si>
   <si>
@@ -3158,9 +3173,6 @@
     <t>hpfm_lov_view_header-116</t>
   </si>
   <si>
-    <t>receiverTypeId</t>
-  </si>
-  <si>
     <t>typeName</t>
   </si>
   <si>
@@ -3207,9 +3219,6 @@
   </si>
   <si>
     <t>hpfm_lov_view_header-122</t>
-  </si>
-  <si>
-    <t>tempServerId</t>
   </si>
   <si>
     <t>messageName</t>
@@ -4606,7 +4615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V161"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4704,996 +4713,1116 @@
       <c r="V7" t="s">
         <v>71</v>
       </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" t="s">
-        <v>92</v>
-      </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="W15" t="s">
+        <v>105</v>
+      </c>
+      <c r="X15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
         <v>114</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" t="s">
-        <v>115</v>
-      </c>
-      <c r="M19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" t="s">
-        <v>111</v>
-      </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="W24" t="s">
+        <v>137</v>
+      </c>
+      <c r="X24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="T27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="T32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="W32" t="s">
+        <v>171</v>
+      </c>
+      <c r="X32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="T33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>180</v>
       </c>
       <c r="L34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" t="s">
+        <v>180</v>
+      </c>
+      <c r="M35" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" t="s">
         <v>178</v>
       </c>
-      <c r="J35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M35" t="s">
-        <v>76</v>
-      </c>
-      <c r="N35" t="s">
-        <v>173</v>
-      </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="X39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -5704,28 +5833,28 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s" s="43">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s" s="44">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s" s="45">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H41" t="s" s="46">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I41" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J41" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s">
         <v>60</v>
@@ -5737,19 +5866,19 @@
         <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O41" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P41" t="s" s="48">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q41" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="R41" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="S41" t="s">
         <v>70</v>
@@ -5757,2170 +5886,2170 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J42" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I43" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J43" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F44">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I44" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J44" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N45" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O45" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F46">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I46" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J46" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O46" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J47" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O47" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J48" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J49" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O49" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J50" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O50" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F51">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I51" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O51" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J52" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O52" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J53" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O53" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I54" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J54" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O54" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I55" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O55" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J56" t="s">
+        <v>246</v>
+      </c>
+      <c r="M56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56" t="s">
         <v>240</v>
       </c>
-      <c r="J56" t="s">
-        <v>240</v>
-      </c>
-      <c r="M56" t="s">
-        <v>76</v>
-      </c>
-      <c r="O56" t="s">
-        <v>234</v>
-      </c>
       <c r="S56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H57" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" t="s">
+        <v>248</v>
+      </c>
+      <c r="J57" t="s">
+        <v>248</v>
+      </c>
+      <c r="M57" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57" t="s">
+        <v>221</v>
+      </c>
+      <c r="P57" t="s">
         <v>241</v>
       </c>
-      <c r="I57" t="s">
-        <v>242</v>
-      </c>
-      <c r="J57" t="s">
-        <v>242</v>
-      </c>
-      <c r="M57" t="s">
-        <v>76</v>
-      </c>
-      <c r="O57" t="s">
-        <v>215</v>
-      </c>
-      <c r="P57" t="s">
-        <v>235</v>
-      </c>
       <c r="S57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H58" t="s">
+        <v>249</v>
+      </c>
+      <c r="I58" t="s">
+        <v>250</v>
+      </c>
+      <c r="J58" t="s">
+        <v>250</v>
+      </c>
+      <c r="M58" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" t="s">
+        <v>221</v>
+      </c>
+      <c r="P58" t="s">
         <v>243</v>
       </c>
-      <c r="I58" t="s">
-        <v>244</v>
-      </c>
-      <c r="J58" t="s">
-        <v>244</v>
-      </c>
-      <c r="M58" t="s">
-        <v>76</v>
-      </c>
-      <c r="O58" t="s">
-        <v>215</v>
-      </c>
-      <c r="P58" t="s">
-        <v>237</v>
-      </c>
       <c r="S58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F59">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H59" t="s">
+        <v>251</v>
+      </c>
+      <c r="I59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J59" t="s">
+        <v>252</v>
+      </c>
+      <c r="M59" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59" t="s">
+        <v>221</v>
+      </c>
+      <c r="P59" t="s">
         <v>245</v>
       </c>
-      <c r="I59" t="s">
-        <v>246</v>
-      </c>
-      <c r="J59" t="s">
-        <v>246</v>
-      </c>
-      <c r="M59" t="s">
-        <v>76</v>
-      </c>
-      <c r="O59" t="s">
-        <v>215</v>
-      </c>
-      <c r="P59" t="s">
-        <v>239</v>
-      </c>
       <c r="S59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F60">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H60" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I60" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J60" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O60" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="S60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F61">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I61" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J61" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O61" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="S61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F62">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I62" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J62" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O62" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F63">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I63" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J63" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O63" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F64">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I64" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J64" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O64" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F65">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H65" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I65" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J65" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O65" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="S65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F66">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H66" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I66" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J66" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M66" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O66" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="S66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F67">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I67" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J67" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O67" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="S67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F68">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H68" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I68" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J68" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O68" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="S68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F69">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H69" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I69" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J69" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O69" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F70">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I70" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J70" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L70" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F71">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H71" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I71" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J71" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K71" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L71" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O71" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F72">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H72" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I72" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J72" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K72" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L72" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O72" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="S72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F73">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G73" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H73" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I73" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J73" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K73" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L73" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O73" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="S73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F74">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H74" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I74" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J74" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K74" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L74" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="S74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F75">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H75" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I75" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J75" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K75" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L75" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O75" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P75" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="S75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F76">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I76" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J76" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K76" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L76" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M76" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O76" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="S76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F77">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H77" t="s">
+        <v>295</v>
+      </c>
+      <c r="I77" t="s">
+        <v>296</v>
+      </c>
+      <c r="J77" t="s">
+        <v>296</v>
+      </c>
+      <c r="K77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L77" t="s">
+        <v>296</v>
+      </c>
+      <c r="M77" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" t="s">
+        <v>297</v>
+      </c>
+      <c r="P77" t="s">
         <v>289</v>
       </c>
-      <c r="I77" t="s">
-        <v>290</v>
-      </c>
-      <c r="J77" t="s">
-        <v>290</v>
-      </c>
-      <c r="K77" t="s">
-        <v>290</v>
-      </c>
-      <c r="L77" t="s">
-        <v>290</v>
-      </c>
-      <c r="M77" t="s">
-        <v>76</v>
-      </c>
-      <c r="O77" t="s">
-        <v>291</v>
-      </c>
-      <c r="P77" t="s">
-        <v>283</v>
-      </c>
       <c r="S77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F78">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I78" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J78" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K78" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L78" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O78" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P78" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="S78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F79">
         <f>值集数据!$E$19</f>
       </c>
       <c r="G79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H79" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I79" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J79" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K79" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L79" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O79" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="S79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F80">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G80" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H80" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I80" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J80" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O80" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F81">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G81" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I81" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="J81" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O81" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="S81" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F82">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I82" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J82" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M82" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O82" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F83">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H83" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J83" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M83" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O83" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="S83" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F84">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G84" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H84" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I84" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J84" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M84" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O84" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S84" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F85">
         <f>值集数据!$E$20</f>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H85" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I85" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J85" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M85" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O85" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="S85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F86">
         <f>值集数据!$E$21</f>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J86" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M86" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O86" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S86" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F87">
         <f>值集数据!$E$21</f>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H87" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I87" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J87" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M87" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O87" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S87" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F88">
         <f>值集数据!$E$22</f>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H88" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I88" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J88" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K88" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L88" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M88" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O88" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S88" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F89">
         <f>值集数据!$E$22</f>
       </c>
       <c r="G89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H89" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I89" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J89" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K89" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M89" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O89" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S89" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F90">
         <f>值集数据!$E$22</f>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H90" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="J90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M90" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O90" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="S90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F91">
         <f>值集数据!$E$25</f>
       </c>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I91" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J91" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M91" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O91" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S91" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F92">
         <f>值集数据!$E$25</f>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H92" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J92" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M92" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N92" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O92" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S92" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F93">
         <f>值集数据!$E$25</f>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H93" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I93" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J93" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M93" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N93" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O93" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S93" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F94">
         <f>值集数据!$E$31</f>
       </c>
       <c r="G94" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H94" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I94" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J94" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M94" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O94" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S94" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F95">
         <f>值集数据!$E$31</f>
       </c>
       <c r="G95" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H95" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I95" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J95" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O95" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S95" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F96">
         <f>值集数据!$E$31</f>
       </c>
       <c r="G96" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H96" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I96" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J96" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M96" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O96" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F97">
         <f>值集数据!$E$34</f>
       </c>
       <c r="G97" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H97" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I97" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J97" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M97" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F98">
         <f>值集数据!$E$34</f>
       </c>
       <c r="G98" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H98" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I98" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J98" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M98" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O98" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F99">
         <f>值集数据!$E$35</f>
       </c>
       <c r="G99" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I99" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J99" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M99" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P99" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="S99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F100">
         <f>值集数据!$E$35</f>
       </c>
       <c r="G100" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H100" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="J100" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M100" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O100" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="S100" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F101">
         <f>值集数据!$E$36</f>
       </c>
       <c r="G101" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H101" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="I101" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J101" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M101" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O101" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S101" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F102">
         <f>值集数据!$E$36</f>
       </c>
       <c r="G102" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H102" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="I102" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J102" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M102" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O102" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S102" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F103">
         <f>值集数据!$E$36</f>
       </c>
       <c r="G103" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H103" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I103" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J103" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M103" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O103" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="S103" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F104">
         <f>值集数据!$E$37</f>
       </c>
       <c r="G104" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H104" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I104" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J104" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K104" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L104" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M104" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O104" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S104" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F105">
         <f>值集数据!$E$37</f>
       </c>
       <c r="G105" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H105" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I105" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J105" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K105" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L105" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M105" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O105" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S105" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F106">
         <f>值集数据!$E$37</f>
       </c>
       <c r="G106" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H106" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I106" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J106" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M106" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O106" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="S106" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F107">
         <f>值集数据!$E$38</f>
       </c>
       <c r="G107" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H107" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="J107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M107" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O107" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S107" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F108">
         <f>值集数据!$E$38</f>
       </c>
       <c r="G108" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H108" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I108" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J108" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M108" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O108" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F109">
         <f>值集数据!$E$38</f>
       </c>
       <c r="G109" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H109" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I109" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="J109" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M109" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O109" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="S109" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F110">
         <f>值集数据!$E$39</f>
       </c>
       <c r="G110" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H110" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I110" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J110" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M110" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O110" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="S110" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F111">
         <f>值集数据!$E$39</f>
       </c>
       <c r="G111" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H111" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I111" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J111" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M111" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O111" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S111" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113">
@@ -7931,25 +8060,25 @@
         <v>51</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s" s="49">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E113" t="s" s="50">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F113" t="s" s="51">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G113" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H113" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I113" t="s" s="52">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="J113" t="s" s="53">
         <v>62</v>
@@ -7961,25 +8090,25 @@
         <v>68</v>
       </c>
       <c r="M113" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N113" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O113" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P113" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q113" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="R113" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="S113" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="T113" t="s">
         <v>70</v>
@@ -7987,526 +8116,526 @@
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F114" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G114" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H114" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I114">
         <f>值集数据!$E$15</f>
       </c>
       <c r="J114" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K114" t="s">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="L114" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M114" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N114" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q114" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R114" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T114" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G115" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H115" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I115">
         <f>值集数据!$E$23</f>
       </c>
       <c r="J115" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K115" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L115" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M115" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N115" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q115" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R115" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T115" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H116" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I116">
         <f>值集数据!$E$24</f>
       </c>
       <c r="J116" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K116" t="s">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="L116" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M116" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N116" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q116" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R116" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T116" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F117" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G117" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H117" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I117">
         <f>值集数据!$E$27</f>
       </c>
       <c r="J117" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K117" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L117" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M117" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N117" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q117" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R117" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T117" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I118">
         <f>值集数据!$E$28</f>
       </c>
       <c r="J118" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K118" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L118" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M118" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q118" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R118" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T118" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F119" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G119" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H119" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I119">
         <f>值集数据!$E$27</f>
       </c>
       <c r="J119" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K119" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L119" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M119" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N119" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q119" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R119" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T119" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G120" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H120" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I120">
         <f>值集数据!$E$29</f>
       </c>
       <c r="J120" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K120" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L120" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M120" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N120" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q120" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R120" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T120" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F121" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I121">
         <f>值集数据!$E$30</f>
       </c>
       <c r="J121" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K121" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L121" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q121" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R121" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T121" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F122" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G122" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H122" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I122">
         <f>值集数据!$E$32</f>
       </c>
       <c r="J122" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K122" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
       <c r="L122" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M122" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N122" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q122" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R122" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T122" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F123" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G123" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H123" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I123">
         <f>值集数据!$E$33</f>
       </c>
       <c r="J123" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K123" t="s">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="L123" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M123" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N123" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q123" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R123" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T123" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F124" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G124" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H124" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I124">
         <f>值集数据!$E$16</f>
       </c>
       <c r="J124" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K124" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L124" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M124" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N124" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q124" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R124" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T124" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F125" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G125" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H125" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I125">
         <f>值集数据!$E$15</f>
       </c>
       <c r="J125" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K125" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L125" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M125" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N125" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q125" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R125" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T125" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F126" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G126" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H126" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I126">
         <f>值集数据!$E$36</f>
       </c>
       <c r="J126" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K126" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L126" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M126" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N126" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q126" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R126" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T126" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128">
@@ -8517,43 +8646,43 @@
         <v>51</v>
       </c>
       <c r="C128" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D128" t="s" s="54">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E128" t="s" s="55">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F128" t="s" s="56">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G128" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H128" t="s" s="57">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I128" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J128" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K128" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L128" t="s" s="58">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M128" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N128" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="O128" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P128" t="s">
         <v>70</v>
@@ -8561,1256 +8690,1256 @@
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F129">
         <f>值集数据!$E$115</f>
       </c>
       <c r="G129" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H129">
         <f>值集数据!$E$23</f>
       </c>
       <c r="I129" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J129" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K129" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L129" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M129" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N129" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O129" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P129" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F130">
         <f>值集数据!$E$115</f>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H130">
         <f>值集数据!$E$23</f>
       </c>
       <c r="I130" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J130" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K130" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L130" t="s">
+        <v>429</v>
+      </c>
+      <c r="M130" t="s">
+        <v>79</v>
+      </c>
+      <c r="N130" t="s">
+        <v>79</v>
+      </c>
+      <c r="O130" t="s">
         <v>426</v>
       </c>
-      <c r="M130" t="s">
-        <v>77</v>
-      </c>
-      <c r="N130" t="s">
-        <v>77</v>
-      </c>
-      <c r="O130" t="s">
-        <v>423</v>
-      </c>
       <c r="P130" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F131">
         <f>值集数据!$E$115</f>
       </c>
       <c r="G131" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H131">
         <f>值集数据!$E$23</f>
       </c>
       <c r="I131" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J131" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K131" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L131" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M131" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N131" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O131" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P131" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F132">
         <f>值集数据!$E$115</f>
       </c>
       <c r="G132" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H132">
         <f>值集数据!$E$23</f>
       </c>
       <c r="I132" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="J132" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K132" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L132" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M132" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N132" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O132" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P132" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F133">
         <f>值集数据!$E$116</f>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H133">
         <f>值集数据!$E$24</f>
       </c>
       <c r="I133" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J133" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K133" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L133" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M133" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N133" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O133" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P133" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F134">
         <f>值集数据!$E$116</f>
       </c>
       <c r="G134" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H134">
         <f>值集数据!$E$24</f>
       </c>
       <c r="I134" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J134" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K134" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L134" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M134" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N134" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O134" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P134" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F135">
         <f>值集数据!$E$117</f>
       </c>
       <c r="G135" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H135">
         <f>值集数据!$E$27</f>
       </c>
       <c r="I135" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J135" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K135" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L135" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M135" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N135" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O135" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P135" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F136">
         <f>值集数据!$E$117</f>
       </c>
       <c r="G136" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H136">
         <f>值集数据!$E$27</f>
       </c>
       <c r="I136" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J136" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K136" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L136" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M136" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N136" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O136" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P136" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F137">
         <f>值集数据!$E$118</f>
       </c>
       <c r="G137" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H137">
         <f>值集数据!$E$28</f>
       </c>
       <c r="I137" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J137" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K137" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L137" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M137" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N137" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O137" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P137" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F138">
         <f>值集数据!$E$118</f>
       </c>
       <c r="G138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H138">
         <f>值集数据!$E$28</f>
       </c>
       <c r="I138" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J138" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K138" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L138" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M138" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N138" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O138" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P138" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F139">
         <f>值集数据!$E$118</f>
       </c>
       <c r="G139" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H139">
         <f>值集数据!$E$28</f>
       </c>
       <c r="I139" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J139" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K139" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L139" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M139" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O139" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F140">
         <f>值集数据!$E$119</f>
       </c>
       <c r="G140" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H140">
         <f>值集数据!$E$27</f>
       </c>
       <c r="I140" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J140" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K140" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L140" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M140" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N140" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O140" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P140" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F141">
         <f>值集数据!$E$119</f>
       </c>
       <c r="G141" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H141">
         <f>值集数据!$E$27</f>
       </c>
       <c r="I141" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J141" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K141" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L141" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M141" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N141" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O141" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P141" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F142">
         <f>值集数据!$E$119</f>
       </c>
       <c r="G142" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H142">
         <f>值集数据!$E$27</f>
       </c>
       <c r="I142" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J142" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K142" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L142" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M142" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N142" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O142" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P142" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F143">
         <f>值集数据!$E$120</f>
       </c>
       <c r="G143" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H143">
         <f>值集数据!$E$29</f>
       </c>
       <c r="I143" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J143" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K143" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L143" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M143" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N143" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O143" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P143" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F144">
         <f>值集数据!$E$120</f>
       </c>
       <c r="G144" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H144">
         <f>值集数据!$E$29</f>
       </c>
       <c r="I144" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J144" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K144" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L144" t="s">
+        <v>429</v>
+      </c>
+      <c r="M144" t="s">
+        <v>79</v>
+      </c>
+      <c r="N144" t="s">
+        <v>79</v>
+      </c>
+      <c r="O144" t="s">
         <v>426</v>
       </c>
-      <c r="M144" t="s">
-        <v>77</v>
-      </c>
-      <c r="N144" t="s">
-        <v>77</v>
-      </c>
-      <c r="O144" t="s">
-        <v>423</v>
-      </c>
       <c r="P144" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F145">
         <f>值集数据!$E$120</f>
       </c>
       <c r="G145" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H145">
         <f>值集数据!$E$29</f>
       </c>
       <c r="I145" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J145" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K145" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L145" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M145" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N145" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O145" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P145" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F146">
         <f>值集数据!$E$120</f>
       </c>
       <c r="G146" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H146">
         <f>值集数据!$E$29</f>
       </c>
       <c r="I146" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="J146" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K146" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L146" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M146" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N146" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O146" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P146" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F147">
         <f>值集数据!$E$121</f>
       </c>
       <c r="G147" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H147">
         <f>值集数据!$E$30</f>
       </c>
       <c r="I147" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J147" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K147" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L147" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M147" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N147" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O147" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P147" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F148">
         <f>值集数据!$E$121</f>
       </c>
       <c r="G148" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H148">
         <f>值集数据!$E$30</f>
       </c>
       <c r="I148" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J148" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K148" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L148" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M148" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N148" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O148" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P148" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F149">
         <f>值集数据!$E$121</f>
       </c>
       <c r="G149" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H149">
         <f>值集数据!$E$30</f>
       </c>
       <c r="I149" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J149" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K149" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L149" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M149" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N149" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O149" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P149" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F150">
         <f>值集数据!$E$121</f>
       </c>
       <c r="G150" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H150">
         <f>值集数据!$E$30</f>
       </c>
       <c r="I150" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J150" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K150" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L150" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M150" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N150" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O150" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P150" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F151">
         <f>值集数据!$E$122</f>
       </c>
       <c r="G151" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H151">
         <f>值集数据!$E$32</f>
       </c>
       <c r="I151" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J151" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K151" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L151" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M151" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N151" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O151" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P151" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F152">
         <f>值集数据!$E$122</f>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H152">
         <f>值集数据!$E$32</f>
       </c>
       <c r="I152" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J152" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K152" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L152" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M152" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N152" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O152" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P152" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F153">
         <f>值集数据!$E$123</f>
       </c>
       <c r="G153" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H153">
         <f>值集数据!$E$33</f>
       </c>
       <c r="I153" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J153" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K153" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L153" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M153" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N153" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O153" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P153" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F154">
         <f>值集数据!$E$123</f>
       </c>
       <c r="G154" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H154">
         <f>值集数据!$E$33</f>
       </c>
       <c r="I154" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J154" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K154" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L154" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M154" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N154" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O154" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P154" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F155">
         <f>值集数据!$E$124</f>
       </c>
       <c r="G155" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H155">
         <f>值集数据!$E$16</f>
       </c>
       <c r="I155" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J155" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K155" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L155" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M155" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N155" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O155" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P155" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F156">
         <f>值集数据!$E$124</f>
       </c>
       <c r="G156" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H156">
         <f>值集数据!$E$16</f>
       </c>
       <c r="I156" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J156" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K156" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L156" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M156" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N156" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O156" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P156" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F157">
         <f>值集数据!$E$125</f>
       </c>
       <c r="G157" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H157">
         <f>值集数据!$E$15</f>
       </c>
       <c r="I157" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J157" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K157" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L157" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M157" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N157" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O157" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P157" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F158">
         <f>值集数据!$E$125</f>
       </c>
       <c r="G158" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H158">
         <f>值集数据!$E$15</f>
       </c>
       <c r="I158" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J158" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K158" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L158" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M158" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N158" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O158" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P158" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F159">
         <f>值集数据!$E$125</f>
       </c>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H159">
         <f>值集数据!$E$15</f>
       </c>
       <c r="I159" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J159" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K159" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L159" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M159" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N159" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O159" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P159" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F160">
         <f>值集数据!$E$126</f>
       </c>
       <c r="G160" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H160">
         <f>值集数据!$E$36</f>
       </c>
       <c r="I160" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J160" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K160" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L160" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M160" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N160" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O160" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P160" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F161">
         <f>值集数据!$E$126</f>
       </c>
       <c r="G161" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H161">
         <f>值集数据!$E$36</f>
       </c>
       <c r="I161" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J161" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K161" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L161" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M161" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N161" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O161" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P161" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-platform-lov.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="值集数据" sheetId="2" r:id="rId2"/>
+    <sheet name="值集数据" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="510">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +65,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +84,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +192,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +277,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +298,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +310,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +329,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1112,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1143,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1253,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1884,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-16</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2984,15 +3095,6 @@
     <t>租户级</t>
   </si>
   <si>
-    <t>账户</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -3077,123 +3179,123 @@
     <t>children_field_name</t>
   </si>
   <si>
+    <t>hpfm_lov_view_header-117</t>
+  </si>
+  <si>
+    <t>templateCode</t>
+  </si>
+  <si>
+    <t>选择消息模板</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-118</t>
+  </si>
+  <si>
+    <t>公告接收方关联组织</t>
+  </si>
+  <si>
+    <t>unitId</t>
+  </si>
+  <si>
+    <t>unitName</t>
+  </si>
+  <si>
+    <t>选择组织</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_header-119</t>
   </si>
   <si>
-    <t>templateCode</t>
-  </si>
-  <si>
-    <t>选择消息模板</t>
+    <t>typeName</t>
+  </si>
+  <si>
+    <t>选择接收者类型</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-120</t>
   </si>
   <si>
-    <t>公告接收方关联组织</t>
-  </si>
-  <si>
-    <t>unitId</t>
-  </si>
-  <si>
-    <t>unitName</t>
-  </si>
-  <si>
-    <t>选择组织</t>
+    <t>模板关系选择服务</t>
+  </si>
+  <si>
+    <t>serverCode</t>
+  </si>
+  <si>
+    <t>选择服务</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-121</t>
   </si>
   <si>
-    <t>typeName</t>
-  </si>
-  <si>
-    <t>选择接收者类型</t>
+    <t>serverName</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-122</t>
   </si>
   <si>
-    <t>模板关系选择服务</t>
-  </si>
-  <si>
-    <t>serverCode</t>
-  </si>
-  <si>
-    <t>选择服务</t>
+    <t>HMSG.SERVER_WITH_ID</t>
+  </si>
+  <si>
+    <t>serverId</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-123</t>
   </si>
   <si>
-    <t>serverName</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_header-124</t>
   </si>
   <si>
-    <t>HMSG.SERVER_WITH_ID</t>
-  </si>
-  <si>
-    <t>serverId</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>spliceName</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-125</t>
   </si>
   <si>
+    <t>messageName</t>
+  </si>
+  <si>
+    <t>选择消息模板账户</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_header-126</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>spliceName</t>
+    <t>邮件关系维护模板</t>
+  </si>
+  <si>
+    <t>选择模板</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-127</t>
   </si>
   <si>
-    <t>messageName</t>
-  </si>
-  <si>
-    <t>选择消息模板账户</t>
+    <t>HMSG.TEMPLATE_TYPE</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>选择消息模板类型</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-128</t>
   </si>
   <si>
-    <t>邮件关系维护模板</t>
-  </si>
-  <si>
-    <t>选择模板</t>
+    <t>HMSG.TEMP_SERVER.MESSAGE_TEMP</t>
+  </si>
+  <si>
+    <t>发送配置消息模板</t>
   </si>
   <si>
     <t>hpfm_lov_view_header-129</t>
   </si>
   <si>
-    <t>HMSG.TEMPLATE_TYPE</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
-    <t>选择消息模板类型</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-130</t>
-  </si>
-  <si>
-    <t>HMSG.TEMP_SERVER.MESSAGE_TEMP</t>
-  </si>
-  <si>
-    <t>发送配置消息模板</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-131</t>
-  </si>
-  <si>
     <t>消息发送事务状态</t>
   </si>
   <si>
@@ -3233,232 +3335,232 @@
     <t>table_field_width</t>
   </si>
   <si>
+    <t>hpfm_lov_view_line-132</t>
+  </si>
+  <si>
+    <t>租户Id</t>
+  </si>
+  <si>
+    <t>tenantId</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-133</t>
+  </si>
+  <si>
+    <t>组织编码</t>
+  </si>
+  <si>
+    <t>unitCode</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-134</t>
   </si>
   <si>
-    <t>租户Id</t>
-  </si>
-  <si>
-    <t>tenantId</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>组织Id</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-135</t>
   </si>
   <si>
-    <t>组织编码</t>
-  </si>
-  <si>
-    <t>unitCode</t>
+    <t>组织名称</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-136</t>
   </si>
   <si>
-    <t>组织Id</t>
+    <t>接收组编码</t>
+  </si>
+  <si>
+    <t>typeCode</t>
+  </si>
+  <si>
+    <t>350</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-137</t>
   </si>
   <si>
-    <t>组织名称</t>
+    <t>接收组名称</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-138</t>
   </si>
   <si>
-    <t>接收组编码</t>
-  </si>
-  <si>
-    <t>typeCode</t>
-  </si>
-  <si>
-    <t>350</t>
+    <t>账户代码</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-139</t>
   </si>
   <si>
-    <t>接收组名称</t>
+    <t>账户名称</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-140</t>
   </si>
   <si>
-    <t>账户代码</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-141</t>
   </si>
   <si>
-    <t>账户名称</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-142</t>
   </si>
   <si>
+    <t>账户类型</t>
+  </si>
+  <si>
+    <t>serverTypeMeaning</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-143</t>
   </si>
   <si>
+    <t>服务代码</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-144</t>
   </si>
   <si>
-    <t>账户类型</t>
-  </si>
-  <si>
-    <t>serverTypeMeaning</t>
+    <t>服务名称</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-145</t>
   </si>
   <si>
-    <t>服务代码</t>
+    <t>租户ID</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-146</t>
   </si>
   <si>
-    <t>服务名称</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-147</t>
   </si>
   <si>
-    <t>租户ID</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-148</t>
   </si>
   <si>
+    <t>组织ID</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-149</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-150</t>
   </si>
   <si>
-    <t>组织ID</t>
+    <t>mailbox</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-151</t>
   </si>
   <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-152</t>
   </si>
   <si>
-    <t>mailbox</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-153</t>
   </si>
   <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>loginName</t>
-  </si>
-  <si>
-    <t>140</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>realName</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-154</t>
   </si>
   <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>消息代码</t>
+  </si>
+  <si>
+    <t>messageCode</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-155</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>realName</t>
+    <t>消息名称</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-156</t>
   </si>
   <si>
-    <t>消息代码</t>
-  </si>
-  <si>
-    <t>messageCode</t>
+    <t>模板编码</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-157</t>
   </si>
   <si>
-    <t>消息名称</t>
+    <t>模板名称</t>
+  </si>
+  <si>
+    <t>templateName</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-158</t>
   </si>
   <si>
-    <t>模板编码</t>
+    <t>视图模板名称</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-159</t>
   </si>
   <si>
-    <t>模板名称</t>
-  </si>
-  <si>
-    <t>templateName</t>
+    <t>视图模板编码</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-160</t>
   </si>
   <si>
-    <t>视图模板名称</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>langName</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-161</t>
   </si>
   <si>
-    <t>视图模板编码</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-162</t>
   </si>
   <si>
-    <t>langName</t>
-  </si>
-  <si>
     <t>hpfm_lov_view_line-163</t>
   </si>
   <si>
+    <t>发送状态编码</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-164</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-165</t>
-  </si>
-  <si>
-    <t>发送状态编码</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-166</t>
   </si>
   <si>
     <t>发送状态值</t>
@@ -3467,47 +3569,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3543,161 +3610,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3718,45 +3662,185 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3787,194 +3871,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4075,259 +3973,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4336,44 +3988,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4383,69 +4023,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4518,6 +4153,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4775,294 +4413,285 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="13" max="13" width="20.0833333333333" customWidth="1"/>
-    <col min="14" max="14" width="18.9166666666667" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5072,13 +4701,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5099,10 +4728,10 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -5142,7 +4771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="5:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>76</v>
       </c>
@@ -5177,7 +4806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>82</v>
       </c>
@@ -5209,7 +4838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>85</v>
       </c>
@@ -5241,7 +4870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>89</v>
       </c>
@@ -5273,7 +4902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>92</v>
       </c>
@@ -5305,7 +4934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>95</v>
       </c>
@@ -5337,7 +4966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>98</v>
       </c>
@@ -5375,7 +5004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>101</v>
       </c>
@@ -5416,7 +5045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>108</v>
       </c>
@@ -5448,7 +5077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:25">
+    <row r="17">
       <c r="E17" t="s">
         <v>111</v>
       </c>
@@ -5492,7 +5121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="5:25">
+    <row r="18">
       <c r="E18" t="s">
         <v>115</v>
       </c>
@@ -5530,7 +5159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="5:25">
+    <row r="19">
       <c r="E19" t="s">
         <v>118</v>
       </c>
@@ -5574,7 +5203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="5:25">
+    <row r="20">
       <c r="E20" t="s">
         <v>121</v>
       </c>
@@ -5612,7 +5241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="5:25">
+    <row r="21">
       <c r="E21" t="s">
         <v>124</v>
       </c>
@@ -5650,7 +5279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="5:25">
+    <row r="22">
       <c r="E22" t="s">
         <v>126</v>
       </c>
@@ -5688,7 +5317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="5:25">
+    <row r="23">
       <c r="E23" t="s">
         <v>129</v>
       </c>
@@ -5732,7 +5361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="5:25">
+    <row r="24">
       <c r="E24" t="s">
         <v>134</v>
       </c>
@@ -5773,7 +5402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="5:25">
+    <row r="25">
       <c r="E25" t="s">
         <v>140</v>
       </c>
@@ -5805,7 +5434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="5:25">
+    <row r="26">
       <c r="E26" t="s">
         <v>143</v>
       </c>
@@ -5843,7 +5472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="5:25">
+    <row r="27">
       <c r="E27" t="s">
         <v>146</v>
       </c>
@@ -5881,7 +5510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="5:25">
+    <row r="28">
       <c r="E28" t="s">
         <v>150</v>
       </c>
@@ -5925,7 +5554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="5:25">
+    <row r="29">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -5963,7 +5592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="5:25">
+    <row r="30">
       <c r="E30" t="s">
         <v>158</v>
       </c>
@@ -6001,7 +5630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="5:25">
+    <row r="31">
       <c r="E31" t="s">
         <v>162</v>
       </c>
@@ -6039,7 +5668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="5:25">
+    <row r="32">
       <c r="E32" t="s">
         <v>168</v>
       </c>
@@ -6071,7 +5700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="5:25">
+    <row r="33">
       <c r="E33" t="s">
         <v>171</v>
       </c>
@@ -6118,7 +5747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="5:25">
+    <row r="34">
       <c r="E34" t="s">
         <v>177</v>
       </c>
@@ -6162,7 +5791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="5:25">
+    <row r="35">
       <c r="E35" t="s">
         <v>182</v>
       </c>
@@ -6200,7 +5829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="5:25">
+    <row r="36">
       <c r="E36" t="s">
         <v>187</v>
       </c>
@@ -6241,7 +5870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="5:25">
+    <row r="37">
       <c r="E37" t="s">
         <v>190</v>
       </c>
@@ -6273,7 +5902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="5:25">
+    <row r="38">
       <c r="E38" t="s">
         <v>193</v>
       </c>
@@ -6311,7 +5940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="5:25">
+    <row r="39">
       <c r="E39" t="s">
         <v>196</v>
       </c>
@@ -6343,7 +5972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="5:25">
+    <row r="40">
       <c r="E40" t="s">
         <v>199</v>
       </c>
@@ -6375,7 +6004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -6385,19 +6014,19 @@
       <c r="C42" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s" s="44">
         <v>203</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s" s="45">
         <v>204</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" t="s" s="46">
         <v>205</v>
       </c>
       <c r="G42" t="s">
         <v>206</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" t="s" s="47">
         <v>207</v>
       </c>
       <c r="I42" t="s">
@@ -6412,10 +6041,10 @@
       <c r="L42" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" t="s" s="49">
         <v>63</v>
       </c>
       <c r="O42" t="s">
@@ -6424,7 +6053,7 @@
       <c r="P42" t="s">
         <v>211</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" t="s" s="50">
         <v>212</v>
       </c>
       <c r="R42" t="s">
@@ -6437,13 +6066,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="5:20">
+    <row r="43">
       <c r="E43" t="s">
         <v>215</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43">
         <f>值集数据!$E$8</f>
-        <v>hpfm_lov-8</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -6470,13 +6098,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="5:20">
+    <row r="44">
       <c r="E44" t="s">
         <v>215</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44">
         <f>值集数据!$E$8</f>
-        <v>hpfm_lov-8</v>
       </c>
       <c r="G44" t="s">
         <v>77</v>
@@ -6503,13 +6130,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="5:20">
+    <row r="45">
       <c r="E45" t="s">
         <v>215</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45">
         <f>值集数据!$E$8</f>
-        <v>hpfm_lov-8</v>
       </c>
       <c r="G45" t="s">
         <v>77</v>
@@ -6536,13 +6162,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="5:20">
+    <row r="46">
       <c r="E46" t="s">
         <v>215</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46">
         <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
       </c>
       <c r="G46" t="s">
         <v>83</v>
@@ -6575,13 +6200,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="5:20">
+    <row r="47">
       <c r="E47" t="s">
         <v>215</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47">
         <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
       </c>
       <c r="G47" t="s">
         <v>83</v>
@@ -6608,13 +6232,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="5:20">
+    <row r="48">
       <c r="E48" t="s">
         <v>215</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48">
         <f>值集数据!$E$10</f>
-        <v>hpfm_lov-10</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -6641,13 +6264,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="5:20">
+    <row r="49">
       <c r="E49" t="s">
         <v>215</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49">
         <f>值集数据!$E$10</f>
-        <v>hpfm_lov-10</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -6674,13 +6296,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="5:20">
+    <row r="50">
       <c r="E50" t="s">
         <v>215</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50">
         <f>值集数据!$E$11</f>
-        <v>hpfm_lov-11</v>
       </c>
       <c r="G50" t="s">
         <v>90</v>
@@ -6707,13 +6328,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="5:20">
+    <row r="51">
       <c r="E51" t="s">
         <v>215</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51">
         <f>值集数据!$E$11</f>
-        <v>hpfm_lov-11</v>
       </c>
       <c r="G51" t="s">
         <v>90</v>
@@ -6740,13 +6360,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="5:20">
+    <row r="52">
       <c r="E52" t="s">
         <v>215</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52">
         <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
       </c>
       <c r="G52" t="s">
         <v>93</v>
@@ -6773,13 +6392,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="5:20">
+    <row r="53">
       <c r="E53" t="s">
         <v>215</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53">
         <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -6806,13 +6424,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="5:20">
+    <row r="54">
       <c r="E54" t="s">
         <v>215</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54">
         <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -6839,13 +6456,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="5:20">
+    <row r="55">
       <c r="E55" t="s">
         <v>215</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55">
         <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
       </c>
       <c r="G55" t="s">
         <v>96</v>
@@ -6872,13 +6488,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="5:20">
+    <row r="56">
       <c r="E56" t="s">
         <v>215</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56">
         <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
       </c>
       <c r="G56" t="s">
         <v>96</v>
@@ -6905,13 +6520,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="5:20">
+    <row r="57">
       <c r="E57" t="s">
         <v>215</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57">
         <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
       </c>
       <c r="G57" t="s">
         <v>96</v>
@@ -6938,13 +6552,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="5:20">
+    <row r="58">
       <c r="E58" t="s">
         <v>215</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
       </c>
       <c r="G58" t="s">
         <v>99</v>
@@ -6974,13 +6587,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="5:20">
+    <row r="59">
       <c r="E59" t="s">
         <v>215</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
       </c>
       <c r="G59" t="s">
         <v>99</v>
@@ -7010,13 +6622,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="5:20">
+    <row r="60">
       <c r="E60" t="s">
         <v>215</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
       </c>
       <c r="G60" t="s">
         <v>99</v>
@@ -7046,13 +6657,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="5:20">
+    <row r="61">
       <c r="E61" t="s">
         <v>215</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
       </c>
       <c r="G61" t="s">
         <v>99</v>
@@ -7082,13 +6692,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="5:20">
+    <row r="62">
       <c r="E62" t="s">
         <v>215</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
       </c>
       <c r="G62" t="s">
         <v>99</v>
@@ -7118,13 +6727,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="5:20">
+    <row r="63">
       <c r="E63" t="s">
         <v>215</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G63" t="s">
         <v>109</v>
@@ -7151,13 +6759,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="5:20">
+    <row r="64">
       <c r="E64" t="s">
         <v>215</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G64" t="s">
         <v>109</v>
@@ -7184,13 +6791,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="5:20">
+    <row r="65">
       <c r="E65" t="s">
         <v>215</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G65" t="s">
         <v>109</v>
@@ -7217,13 +6823,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="5:20">
+    <row r="66">
       <c r="E66" t="s">
         <v>215</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G66" t="s">
         <v>109</v>
@@ -7250,13 +6855,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="5:20">
+    <row r="67">
       <c r="E67" t="s">
         <v>215</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G67" t="s">
         <v>109</v>
@@ -7283,13 +6887,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="5:20">
+    <row r="68">
       <c r="E68" t="s">
         <v>215</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G68" t="s">
         <v>109</v>
@@ -7316,13 +6919,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="5:20">
+    <row r="69">
       <c r="E69" t="s">
         <v>215</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G69" t="s">
         <v>109</v>
@@ -7349,13 +6951,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="5:20">
+    <row r="70">
       <c r="E70" t="s">
         <v>215</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70">
         <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
       </c>
       <c r="G70" t="s">
         <v>109</v>
@@ -7382,13 +6983,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="5:20">
+    <row r="71">
       <c r="E71" t="s">
         <v>215</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71">
         <f>值集数据!$E$18</f>
-        <v>hpfm_lov-18</v>
       </c>
       <c r="G71" t="s">
         <v>116</v>
@@ -7421,13 +7021,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="5:20">
+    <row r="72">
       <c r="E72" t="s">
         <v>215</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72">
         <f>值集数据!$E$18</f>
-        <v>hpfm_lov-18</v>
       </c>
       <c r="G72" t="s">
         <v>116</v>
@@ -7460,13 +7059,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="5:20">
+    <row r="73">
       <c r="E73" t="s">
         <v>215</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73">
         <f>值集数据!$E$18</f>
-        <v>hpfm_lov-18</v>
       </c>
       <c r="G73" t="s">
         <v>116</v>
@@ -7499,13 +7097,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="5:20">
+    <row r="74">
       <c r="E74" t="s">
         <v>215</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74">
         <f>值集数据!$E$18</f>
-        <v>hpfm_lov-18</v>
       </c>
       <c r="G74" t="s">
         <v>116</v>
@@ -7538,13 +7135,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="5:20">
+    <row r="75">
       <c r="E75" t="s">
         <v>215</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75">
         <f>值集数据!$E$19</f>
-        <v>hpfm_lov-19</v>
       </c>
       <c r="G75" t="s">
         <v>119</v>
@@ -7580,13 +7176,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="5:20">
+    <row r="76">
       <c r="E76" t="s">
         <v>215</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76">
         <f>值集数据!$E$19</f>
-        <v>hpfm_lov-19</v>
       </c>
       <c r="G76" t="s">
         <v>119</v>
@@ -7622,13 +7217,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="5:20">
+    <row r="77">
       <c r="E77" t="s">
         <v>215</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77">
         <f>值集数据!$E$19</f>
-        <v>hpfm_lov-19</v>
       </c>
       <c r="G77" t="s">
         <v>119</v>
@@ -7664,13 +7258,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="5:20">
+    <row r="78">
       <c r="E78" t="s">
         <v>215</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78">
         <f>值集数据!$E$19</f>
-        <v>hpfm_lov-19</v>
       </c>
       <c r="G78" t="s">
         <v>119</v>
@@ -7706,13 +7299,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="5:20">
+    <row r="79">
       <c r="E79" t="s">
         <v>215</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79">
         <f>值集数据!$E$19</f>
-        <v>hpfm_lov-19</v>
       </c>
       <c r="G79" t="s">
         <v>119</v>
@@ -7748,13 +7340,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="5:20">
+    <row r="80">
       <c r="E80" t="s">
         <v>215</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80">
         <f>值集数据!$E$19</f>
-        <v>hpfm_lov-19</v>
       </c>
       <c r="G80" t="s">
         <v>119</v>
@@ -7790,13 +7381,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="5:20">
+    <row r="81">
       <c r="E81" t="s">
         <v>215</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81">
         <f>值集数据!$E$20</f>
-        <v>hpfm_lov-20</v>
       </c>
       <c r="G81" t="s">
         <v>122</v>
@@ -7823,13 +7413,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="5:20">
+    <row r="82">
       <c r="E82" t="s">
         <v>215</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F82">
         <f>值集数据!$E$20</f>
-        <v>hpfm_lov-20</v>
       </c>
       <c r="G82" t="s">
         <v>122</v>
@@ -7856,13 +7445,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="5:20">
+    <row r="83">
       <c r="E83" t="s">
         <v>215</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83">
         <f>值集数据!$E$20</f>
-        <v>hpfm_lov-20</v>
       </c>
       <c r="G83" t="s">
         <v>122</v>
@@ -7889,13 +7477,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="5:20">
+    <row r="84">
       <c r="E84" t="s">
         <v>215</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84">
         <f>值集数据!$E$20</f>
-        <v>hpfm_lov-20</v>
       </c>
       <c r="G84" t="s">
         <v>122</v>
@@ -7922,13 +7509,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="5:20">
+    <row r="85">
       <c r="E85" t="s">
         <v>215</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85">
         <f>值集数据!$E$20</f>
-        <v>hpfm_lov-20</v>
       </c>
       <c r="G85" t="s">
         <v>122</v>
@@ -7955,13 +7541,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="5:20">
+    <row r="86">
       <c r="E86" t="s">
         <v>215</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86">
         <f>值集数据!$E$20</f>
-        <v>hpfm_lov-20</v>
       </c>
       <c r="G86" t="s">
         <v>122</v>
@@ -7988,13 +7573,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="5:20">
+    <row r="87">
       <c r="E87" t="s">
         <v>215</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87">
         <f>值集数据!$E$21</f>
-        <v>hpfm_lov-21</v>
       </c>
       <c r="G87" t="s">
         <v>114</v>
@@ -8021,13 +7605,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="5:20">
+    <row r="88">
       <c r="E88" t="s">
         <v>215</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88">
         <f>值集数据!$E$21</f>
-        <v>hpfm_lov-21</v>
       </c>
       <c r="G88" t="s">
         <v>114</v>
@@ -8054,13 +7637,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="5:20">
+    <row r="89">
       <c r="E89" t="s">
         <v>215</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89">
         <f>值集数据!$E$22</f>
-        <v>hpfm_lov-22</v>
       </c>
       <c r="G89" t="s">
         <v>127</v>
@@ -8093,13 +7675,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="5:20">
+    <row r="90">
       <c r="E90" t="s">
         <v>215</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90">
         <f>值集数据!$E$22</f>
-        <v>hpfm_lov-22</v>
       </c>
       <c r="G90" t="s">
         <v>127</v>
@@ -8132,13 +7713,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="5:20">
+    <row r="91">
       <c r="E91" t="s">
         <v>215</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91">
         <f>值集数据!$E$22</f>
-        <v>hpfm_lov-22</v>
       </c>
       <c r="G91" t="s">
         <v>127</v>
@@ -8171,13 +7751,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="5:20">
+    <row r="92">
       <c r="E92" t="s">
         <v>215</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92">
         <f>值集数据!$E$25</f>
-        <v>hpfm_lov-25</v>
       </c>
       <c r="G92" t="s">
         <v>141</v>
@@ -8204,13 +7783,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="5:20">
+    <row r="93">
       <c r="E93" t="s">
         <v>215</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F93">
         <f>值集数据!$E$25</f>
-        <v>hpfm_lov-25</v>
       </c>
       <c r="G93" t="s">
         <v>141</v>
@@ -8237,13 +7815,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="5:20">
+    <row r="94">
       <c r="E94" t="s">
         <v>215</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94">
         <f>值集数据!$E$26</f>
-        <v>hpfm_lov-26</v>
       </c>
       <c r="G94" t="s">
         <v>144</v>
@@ -8270,13 +7847,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="5:20">
+    <row r="95">
       <c r="E95" t="s">
         <v>215</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95">
         <f>值集数据!$E$26</f>
-        <v>hpfm_lov-26</v>
       </c>
       <c r="G95" t="s">
         <v>144</v>
@@ -8306,13 +7882,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="5:20">
+    <row r="96">
       <c r="E96" t="s">
         <v>215</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96">
         <f>值集数据!$E$26</f>
-        <v>hpfm_lov-26</v>
       </c>
       <c r="G96" t="s">
         <v>144</v>
@@ -8342,13 +7917,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="5:20">
+    <row r="97">
       <c r="E97" t="s">
         <v>215</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97">
         <f>值集数据!$E$26</f>
-        <v>hpfm_lov-26</v>
       </c>
       <c r="G97" t="s">
         <v>144</v>
@@ -8378,13 +7952,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="5:20">
+    <row r="98">
       <c r="E98" t="s">
         <v>215</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98">
         <f>值集数据!$E$26</f>
-        <v>hpfm_lov-26</v>
       </c>
       <c r="G98" t="s">
         <v>144</v>
@@ -8417,13 +7990,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="5:20">
+    <row r="99">
       <c r="E99" t="s">
         <v>215</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99">
         <f>值集数据!$E$32</f>
-        <v>hpfm_lov-32</v>
       </c>
       <c r="G99" t="s">
         <v>169</v>
@@ -8450,13 +8022,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="5:20">
+    <row r="100">
       <c r="E100" t="s">
         <v>215</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100">
         <f>值集数据!$E$32</f>
-        <v>hpfm_lov-32</v>
       </c>
       <c r="G100" t="s">
         <v>169</v>
@@ -8483,13 +8054,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="5:20">
+    <row r="101">
       <c r="E101" t="s">
         <v>215</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101">
         <f>值集数据!$E$32</f>
-        <v>hpfm_lov-32</v>
       </c>
       <c r="G101" t="s">
         <v>169</v>
@@ -8516,13 +8086,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="5:20">
+    <row r="102">
       <c r="E102" t="s">
         <v>215</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102">
         <f>值集数据!$E$35</f>
-        <v>hpfm_lov-35</v>
       </c>
       <c r="G102" t="s">
         <v>183</v>
@@ -8549,13 +8118,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="5:20">
+    <row r="103">
       <c r="E103" t="s">
         <v>215</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F103">
         <f>值集数据!$E$35</f>
-        <v>hpfm_lov-35</v>
       </c>
       <c r="G103" t="s">
         <v>183</v>
@@ -8582,22 +8150,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="5:20">
+    <row r="104">
       <c r="E104" t="s">
         <v>215</v>
       </c>
-      <c r="F104" t="str">
-        <f>值集数据!$E$36</f>
-        <v>hpfm_lov-36</v>
+      <c r="F104">
+        <f>值集数据!$E$37</f>
       </c>
       <c r="G104" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="H104" t="s">
+        <v>353</v>
       </c>
       <c r="I104" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J104" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M104" t="s">
         <v>80</v>
@@ -8606,34 +8176,30 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="T104" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="5:20">
+    <row r="105">
       <c r="E105" t="s">
         <v>215</v>
       </c>
-      <c r="F105" t="str">
-        <f>值集数据!$E$36</f>
-        <v>hpfm_lov-36</v>
+      <c r="F105">
+        <f>值集数据!$E$37</f>
       </c>
       <c r="G105" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I105" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J105" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M105" t="s">
         <v>80</v>
@@ -8642,34 +8208,30 @@
         <v>80</v>
       </c>
       <c r="P105" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="T105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="5:20">
+    <row r="106">
       <c r="E106" t="s">
         <v>215</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F106">
         <f>值集数据!$E$37</f>
-        <v>hpfm_lov-37</v>
       </c>
       <c r="G106" t="s">
         <v>191</v>
       </c>
       <c r="H106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M106" t="s">
         <v>80</v>
@@ -8678,31 +8240,36 @@
         <v>80</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="T106" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="5:20">
+    <row r="107">
       <c r="E107" t="s">
         <v>215</v>
       </c>
-      <c r="F107" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov-37</v>
+      <c r="F107">
+        <f>值集数据!$E$38</f>
       </c>
       <c r="G107" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I107" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="J107" t="s">
-        <v>359</v>
+        <v>268</v>
+      </c>
+      <c r="K107" t="s">
+        <v>268</v>
+      </c>
+      <c r="L107" t="s">
+        <v>268</v>
       </c>
       <c r="M107" t="s">
         <v>80</v>
@@ -8711,32 +8278,37 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="T107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="5:20">
+    <row r="108">
       <c r="E108" t="s">
         <v>215</v>
       </c>
-      <c r="F108" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov-37</v>
+      <c r="F108">
+        <f>值集数据!$E$38</f>
       </c>
       <c r="G108" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H108" t="s">
         <v>360</v>
       </c>
       <c r="I108" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="J108" t="s">
         <v>361</v>
       </c>
+      <c r="K108" t="s">
+        <v>361</v>
+      </c>
+      <c r="L108" t="s">
+        <v>361</v>
+      </c>
       <c r="M108" t="s">
         <v>80</v>
       </c>
@@ -8744,37 +8316,30 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="T108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="5:20">
+    <row r="109">
       <c r="E109" t="s">
         <v>215</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F109">
         <f>值集数据!$E$38</f>
-        <v>hpfm_lov-38</v>
       </c>
       <c r="G109" t="s">
         <v>194</v>
       </c>
       <c r="H109" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="I109" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="J109" t="s">
-        <v>268</v>
-      </c>
-      <c r="K109" t="s">
-        <v>268</v>
-      </c>
-      <c r="L109" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="M109" t="s">
         <v>80</v>
@@ -8783,37 +8348,30 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="T109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="5:20">
+    <row r="110">
       <c r="E110" t="s">
         <v>215</v>
       </c>
-      <c r="F110" t="str">
-        <f>值集数据!$E$38</f>
-        <v>hpfm_lov-38</v>
+      <c r="F110">
+        <f>值集数据!$E$39</f>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H110" t="s">
+        <v>362</v>
+      </c>
+      <c r="I110" t="s">
         <v>363</v>
       </c>
-      <c r="I110" t="s">
-        <v>325</v>
-      </c>
       <c r="J110" t="s">
-        <v>364</v>
-      </c>
-      <c r="K110" t="s">
-        <v>364</v>
-      </c>
-      <c r="L110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M110" t="s">
         <v>80</v>
@@ -8822,31 +8380,30 @@
         <v>80</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="T110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="5:20">
+    <row r="111">
       <c r="E111" t="s">
         <v>215</v>
       </c>
-      <c r="F111" t="str">
-        <f>值集数据!$E$38</f>
-        <v>hpfm_lov-38</v>
+      <c r="F111">
+        <f>值集数据!$E$39</f>
       </c>
       <c r="G111" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H111" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="I111" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="J111" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="M111" t="s">
         <v>80</v>
@@ -8855,31 +8412,30 @@
         <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="T111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="5:20">
+    <row r="112">
       <c r="E112" t="s">
         <v>215</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F112">
         <f>值集数据!$E$39</f>
-        <v>hpfm_lov-39</v>
       </c>
       <c r="G112" t="s">
         <v>197</v>
       </c>
       <c r="H112" t="s">
+        <v>364</v>
+      </c>
+      <c r="I112" t="s">
         <v>365</v>
       </c>
-      <c r="I112" t="s">
-        <v>366</v>
-      </c>
       <c r="J112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M112" t="s">
         <v>80</v>
@@ -8888,31 +8444,30 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="T112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="5:20">
+    <row r="113">
       <c r="E113" t="s">
         <v>215</v>
       </c>
-      <c r="F113" t="str">
-        <f>值集数据!$E$39</f>
-        <v>hpfm_lov-39</v>
+      <c r="F113">
+        <f>值集数据!$E$40</f>
       </c>
       <c r="G113" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H113" t="s">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="I113" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
       <c r="J113" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="M113" t="s">
         <v>80</v>
@@ -8921,192 +8476,212 @@
         <v>80</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="T113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="5:20">
+    <row r="114">
       <c r="E114" t="s">
         <v>215</v>
       </c>
-      <c r="F114" t="str">
-        <f>值集数据!$E$39</f>
-        <v>hpfm_lov-39</v>
+      <c r="F114">
+        <f>值集数据!$E$40</f>
       </c>
       <c r="G114" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H114" t="s">
+        <v>232</v>
+      </c>
+      <c r="I114" t="s">
+        <v>233</v>
+      </c>
+      <c r="J114" t="s">
+        <v>233</v>
+      </c>
+      <c r="M114" t="s">
+        <v>80</v>
+      </c>
+      <c r="N114" t="s">
+        <v>80</v>
+      </c>
+      <c r="P114" t="s">
+        <v>229</v>
+      </c>
+      <c r="T114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" t="s">
         <v>367</v>
       </c>
-      <c r="I114" t="s">
+      <c r="D116" t="s" s="51">
         <v>368</v>
       </c>
-      <c r="J114" t="s">
-        <v>368</v>
-      </c>
-      <c r="M114" t="s">
-        <v>80</v>
-      </c>
-      <c r="N114" t="s">
-        <v>80</v>
-      </c>
-      <c r="P114" t="s">
-        <v>334</v>
-      </c>
-      <c r="T114" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="5:20">
-      <c r="E115" t="s">
-        <v>215</v>
-      </c>
-      <c r="F115" t="str">
-        <f>值集数据!$E$40</f>
-        <v>hpfm_lov-40</v>
-      </c>
-      <c r="G115" t="s">
-        <v>200</v>
-      </c>
-      <c r="H115" t="s">
-        <v>365</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="E116" t="s" s="52">
         <v>369</v>
       </c>
-      <c r="J115" t="s">
-        <v>365</v>
-      </c>
-      <c r="M115" t="s">
-        <v>80</v>
-      </c>
-      <c r="N115" t="s">
-        <v>80</v>
-      </c>
-      <c r="P115" t="s">
+      <c r="F116" t="s" s="53">
+        <v>370</v>
+      </c>
+      <c r="G116" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" t="s">
+        <v>372</v>
+      </c>
+      <c r="I116" t="s" s="54">
+        <v>373</v>
+      </c>
+      <c r="J116" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K116" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L116" t="s">
+        <v>68</v>
+      </c>
+      <c r="M116" t="s">
+        <v>69</v>
+      </c>
+      <c r="N116" t="s">
+        <v>374</v>
+      </c>
+      <c r="O116" t="s">
+        <v>375</v>
+      </c>
+      <c r="P116" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>377</v>
+      </c>
+      <c r="R116" t="s">
+        <v>378</v>
+      </c>
+      <c r="S116" t="s">
+        <v>379</v>
+      </c>
+      <c r="T116" t="s">
+        <v>380</v>
+      </c>
+      <c r="U116" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>381</v>
+      </c>
+      <c r="F117" t="s">
+        <v>102</v>
+      </c>
+      <c r="G117" t="s">
+        <v>105</v>
+      </c>
+      <c r="H117" t="s">
+        <v>105</v>
+      </c>
+      <c r="I117">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="J117" t="s">
+        <v>80</v>
+      </c>
+      <c r="K117" t="s">
+        <v>80</v>
+      </c>
+      <c r="L117" t="s">
+        <v>107</v>
+      </c>
+      <c r="M117" t="s">
+        <v>382</v>
+      </c>
+      <c r="N117" t="s">
+        <v>383</v>
+      </c>
+      <c r="O117" t="s">
+        <v>383</v>
+      </c>
+      <c r="R117" t="s">
         <v>226</v>
       </c>
-      <c r="T115" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="5:20">
-      <c r="E116" t="s">
-        <v>215</v>
-      </c>
-      <c r="F116" t="str">
-        <f>值集数据!$E$40</f>
-        <v>hpfm_lov-40</v>
-      </c>
-      <c r="G116" t="s">
-        <v>200</v>
-      </c>
-      <c r="H116" t="s">
-        <v>232</v>
-      </c>
-      <c r="I116" t="s">
-        <v>233</v>
-      </c>
-      <c r="J116" t="s">
-        <v>233</v>
-      </c>
-      <c r="M116" t="s">
-        <v>80</v>
-      </c>
-      <c r="N116" t="s">
-        <v>80</v>
-      </c>
-      <c r="P116" t="s">
-        <v>229</v>
-      </c>
-      <c r="T116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
-      <c r="A118" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" t="s">
-        <v>51</v>
-      </c>
-      <c r="C118" t="s">
-        <v>370</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>373</v>
+      <c r="S117" t="s">
+        <v>80</v>
+      </c>
+      <c r="U117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>384</v>
+      </c>
+      <c r="F118" t="s">
+        <v>130</v>
       </c>
       <c r="G118" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H118" t="s">
-        <v>375</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>63</v>
+        <v>385</v>
+      </c>
+      <c r="I118">
+        <f>值集数据!$E$23</f>
+      </c>
+      <c r="J118" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" t="s">
+        <v>80</v>
       </c>
       <c r="L118" t="s">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="M118" t="s">
-        <v>69</v>
+        <v>387</v>
       </c>
       <c r="N118" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="O118" t="s">
-        <v>378</v>
-      </c>
-      <c r="P118" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="R118" t="s">
-        <v>381</v>
+        <v>226</v>
       </c>
       <c r="S118" t="s">
-        <v>382</v>
-      </c>
-      <c r="T118" t="s">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="U118" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="5:21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="E119" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F119" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G119" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="H119" t="s">
-        <v>105</v>
-      </c>
-      <c r="I119" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
+        <v>137</v>
+      </c>
+      <c r="I119">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J119" t="s">
         <v>80</v>
@@ -9115,16 +8690,16 @@
         <v>80</v>
       </c>
       <c r="L119" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="M119" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N119" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="O119" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="R119" t="s">
         <v>226</v>
@@ -9136,22 +8711,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="5:21">
+    <row r="120">
       <c r="E120" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H120" t="s">
-        <v>388</v>
-      </c>
-      <c r="I120" t="str">
-        <f>值集数据!$E$23</f>
-        <v>hpfm_lov-23</v>
+        <v>393</v>
+      </c>
+      <c r="I120">
+        <f>值集数据!$E$28</f>
       </c>
       <c r="J120" t="s">
         <v>80</v>
@@ -9160,16 +8734,16 @@
         <v>80</v>
       </c>
       <c r="L120" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M120" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N120" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O120" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R120" t="s">
         <v>226</v>
@@ -9181,22 +8755,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="5:21">
+    <row r="121">
       <c r="E121" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-      <c r="I121" t="str">
-        <f>值集数据!$E$24</f>
-        <v>hpfm_lov-24</v>
+        <v>156</v>
+      </c>
+      <c r="I121">
+        <f>值集数据!$E$29</f>
       </c>
       <c r="J121" t="s">
         <v>80</v>
@@ -9205,16 +8778,13 @@
         <v>80</v>
       </c>
       <c r="L121" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="M121" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="N121" t="s">
-        <v>394</v>
-      </c>
-      <c r="O121" t="s">
-        <v>394</v>
+        <v>156</v>
       </c>
       <c r="R121" t="s">
         <v>226</v>
@@ -9226,40 +8796,39 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="5:21">
+    <row r="122">
       <c r="E122" t="s">
+        <v>398</v>
+      </c>
+      <c r="F122" t="s">
+        <v>399</v>
+      </c>
+      <c r="G122" t="s">
+        <v>393</v>
+      </c>
+      <c r="H122" t="s">
+        <v>393</v>
+      </c>
+      <c r="I122">
+        <f>值集数据!$E$28</f>
+      </c>
+      <c r="J122" t="s">
+        <v>80</v>
+      </c>
+      <c r="K122" t="s">
+        <v>80</v>
+      </c>
+      <c r="L122" t="s">
+        <v>400</v>
+      </c>
+      <c r="M122" t="s">
+        <v>394</v>
+      </c>
+      <c r="N122" t="s">
         <v>395</v>
       </c>
-      <c r="F122" t="s">
-        <v>151</v>
-      </c>
-      <c r="G122" t="s">
-        <v>396</v>
-      </c>
-      <c r="H122" t="s">
-        <v>396</v>
-      </c>
-      <c r="I122" t="str">
-        <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
-      </c>
-      <c r="J122" t="s">
-        <v>80</v>
-      </c>
-      <c r="K122" t="s">
-        <v>80</v>
-      </c>
-      <c r="L122" t="s">
-        <v>397</v>
-      </c>
-      <c r="M122" t="s">
-        <v>397</v>
-      </c>
-      <c r="N122" t="s">
-        <v>398</v>
-      </c>
       <c r="O122" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="R122" t="s">
         <v>226</v>
@@ -9271,22 +8840,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="5:21">
+    <row r="123">
       <c r="E123" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F123" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G123" t="s">
-        <v>156</v>
+        <v>385</v>
       </c>
       <c r="H123" t="s">
-        <v>156</v>
-      </c>
-      <c r="I123" t="str">
-        <f>值集数据!$E$29</f>
-        <v>hpfm_lov-29</v>
+        <v>385</v>
+      </c>
+      <c r="I123">
+        <f>值集数据!$E$30</f>
       </c>
       <c r="J123" t="s">
         <v>80</v>
@@ -9295,13 +8863,16 @@
         <v>80</v>
       </c>
       <c r="L123" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="M123" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="N123" t="s">
-        <v>156</v>
+        <v>388</v>
+      </c>
+      <c r="O123" t="s">
+        <v>388</v>
       </c>
       <c r="R123" t="s">
         <v>226</v>
@@ -9313,22 +8884,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="5:21">
+    <row r="124">
       <c r="E124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F124" t="s">
-        <v>402</v>
+        <v>163</v>
       </c>
       <c r="G124" t="s">
-        <v>396</v>
+        <v>165</v>
       </c>
       <c r="H124" t="s">
-        <v>396</v>
-      </c>
-      <c r="I124" t="str">
-        <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
+        <v>166</v>
+      </c>
+      <c r="I124">
+        <f>值集数据!$E$31</f>
       </c>
       <c r="J124" t="s">
         <v>80</v>
@@ -9340,13 +8910,7 @@
         <v>403</v>
       </c>
       <c r="M124" t="s">
-        <v>397</v>
-      </c>
-      <c r="N124" t="s">
-        <v>398</v>
-      </c>
-      <c r="O124" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="R124" t="s">
         <v>226</v>
@@ -9358,22 +8922,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="5:21">
+    <row r="125">
       <c r="E125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G125" t="s">
-        <v>388</v>
+        <v>173</v>
       </c>
       <c r="H125" t="s">
-        <v>388</v>
-      </c>
-      <c r="I125" t="str">
-        <f>值集数据!$E$30</f>
-        <v>hpfm_lov-30</v>
+        <v>173</v>
+      </c>
+      <c r="I125">
+        <f>值集数据!$E$33</f>
       </c>
       <c r="J125" t="s">
         <v>80</v>
@@ -9382,16 +8945,16 @@
         <v>80</v>
       </c>
       <c r="L125" t="s">
-        <v>389</v>
+        <v>176</v>
       </c>
       <c r="M125" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="N125" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="O125" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="R125" t="s">
         <v>226</v>
@@ -9403,22 +8966,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="5:21">
+    <row r="126">
       <c r="E126" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F126" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G126" t="s">
-        <v>165</v>
+        <v>409</v>
       </c>
       <c r="H126" t="s">
-        <v>166</v>
-      </c>
-      <c r="I126" t="str">
-        <f>值集数据!$E$31</f>
-        <v>hpfm_lov-31</v>
+        <v>409</v>
+      </c>
+      <c r="I126">
+        <f>值集数据!$E$34</f>
       </c>
       <c r="J126" t="s">
         <v>80</v>
@@ -9427,10 +8989,16 @@
         <v>80</v>
       </c>
       <c r="L126" t="s">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="M126" t="s">
-        <v>407</v>
+        <v>382</v>
+      </c>
+      <c r="N126" t="s">
+        <v>410</v>
+      </c>
+      <c r="O126" t="s">
+        <v>410</v>
       </c>
       <c r="R126" t="s">
         <v>226</v>
@@ -9442,22 +9010,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="5:21">
+    <row r="127">
       <c r="E127" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F127" t="s">
-        <v>172</v>
+        <v>412</v>
       </c>
       <c r="G127" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="H127" t="s">
-        <v>173</v>
-      </c>
-      <c r="I127" t="str">
-        <f>值集数据!$E$33</f>
-        <v>hpfm_lov-33</v>
+        <v>110</v>
+      </c>
+      <c r="I127">
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J127" t="s">
         <v>80</v>
@@ -9466,16 +9033,16 @@
         <v>80</v>
       </c>
       <c r="L127" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="M127" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="N127" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="O127" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="R127" t="s">
         <v>226</v>
@@ -9487,22 +9054,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="5:21">
+    <row r="128">
       <c r="E128" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F128" t="s">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="G128" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H128" t="s">
-        <v>412</v>
-      </c>
-      <c r="I128" t="str">
-        <f>值集数据!$E$34</f>
-        <v>hpfm_lov-34</v>
+        <v>418</v>
+      </c>
+      <c r="I128">
+        <f>值集数据!$E$15</f>
       </c>
       <c r="J128" t="s">
         <v>80</v>
@@ -9511,16 +9077,16 @@
         <v>80</v>
       </c>
       <c r="L128" t="s">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="M128" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N128" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="O128" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="R128" t="s">
         <v>226</v>
@@ -9532,40 +9098,39 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="5:21">
+    <row r="129">
       <c r="E129" t="s">
+        <v>419</v>
+      </c>
+      <c r="F129" t="s">
+        <v>191</v>
+      </c>
+      <c r="G129" t="s">
+        <v>420</v>
+      </c>
+      <c r="H129" t="s">
+        <v>420</v>
+      </c>
+      <c r="I129">
+        <f>值集数据!$E$37</f>
+      </c>
+      <c r="J129" t="s">
+        <v>80</v>
+      </c>
+      <c r="K129" t="s">
+        <v>80</v>
+      </c>
+      <c r="L129" t="s">
+        <v>421</v>
+      </c>
+      <c r="M129" t="s">
         <v>414</v>
       </c>
-      <c r="F129" t="s">
-        <v>415</v>
-      </c>
-      <c r="G129" t="s">
-        <v>110</v>
-      </c>
-      <c r="H129" t="s">
-        <v>110</v>
-      </c>
-      <c r="I129" t="str">
-        <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
-      </c>
-      <c r="J129" t="s">
-        <v>80</v>
-      </c>
-      <c r="K129" t="s">
-        <v>80</v>
-      </c>
-      <c r="L129" t="s">
-        <v>416</v>
-      </c>
-      <c r="M129" t="s">
-        <v>417</v>
-      </c>
       <c r="N129" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O129" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="R129" t="s">
         <v>226</v>
@@ -9577,221 +9142,209 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="5:21">
-      <c r="E130" t="s">
-        <v>419</v>
-      </c>
-      <c r="F130" t="s">
-        <v>420</v>
-      </c>
-      <c r="G130" t="s">
-        <v>421</v>
-      </c>
-      <c r="H130" t="s">
-        <v>421</v>
-      </c>
-      <c r="I130" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
-      </c>
-      <c r="J130" t="s">
-        <v>80</v>
-      </c>
-      <c r="K130" t="s">
-        <v>80</v>
-      </c>
-      <c r="L130" t="s">
-        <v>385</v>
-      </c>
-      <c r="M130" t="s">
-        <v>385</v>
-      </c>
-      <c r="N130" t="s">
+    <row r="131">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" t="s">
+        <v>423</v>
+      </c>
+      <c r="D131" t="s" s="57">
+        <v>424</v>
+      </c>
+      <c r="E131" t="s" s="58">
+        <v>425</v>
+      </c>
+      <c r="F131" t="s" s="59">
+        <v>426</v>
+      </c>
+      <c r="G131" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" t="s">
+        <v>63</v>
+      </c>
+      <c r="I131" t="s" s="60">
+        <v>373</v>
+      </c>
+      <c r="J131" t="s">
+        <v>427</v>
+      </c>
+      <c r="K131" t="s">
+        <v>428</v>
+      </c>
+      <c r="L131" t="s">
+        <v>211</v>
+      </c>
+      <c r="M131" t="s" s="61">
+        <v>429</v>
+      </c>
+      <c r="N131" t="s">
+        <v>430</v>
+      </c>
+      <c r="O131" t="s">
+        <v>431</v>
+      </c>
+      <c r="P131" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="s">
+        <v>433</v>
+      </c>
+      <c r="F132">
+        <f>值集数据!$E$118</f>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <f>值集数据!$E$23</f>
+      </c>
+      <c r="J132" t="s">
+        <v>434</v>
+      </c>
+      <c r="K132" t="s">
+        <v>434</v>
+      </c>
+      <c r="L132" t="s">
+        <v>273</v>
+      </c>
+      <c r="M132" t="s">
+        <v>435</v>
+      </c>
+      <c r="N132" t="s">
+        <v>80</v>
+      </c>
+      <c r="O132" t="s">
+        <v>80</v>
+      </c>
+      <c r="P132" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="s">
+        <v>437</v>
+      </c>
+      <c r="F133">
+        <f>值集数据!$E$118</f>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <f>值集数据!$E$23</f>
+      </c>
+      <c r="J133" t="s">
+        <v>438</v>
+      </c>
+      <c r="K133" t="s">
+        <v>438</v>
+      </c>
+      <c r="L133" t="s">
+        <v>229</v>
+      </c>
+      <c r="M133" t="s">
+        <v>439</v>
+      </c>
+      <c r="N133" t="s">
+        <v>81</v>
+      </c>
+      <c r="O133" t="s">
+        <v>81</v>
+      </c>
+      <c r="P133" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="s">
+        <v>440</v>
+      </c>
+      <c r="F134">
+        <f>值集数据!$E$118</f>
+      </c>
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <f>值集数据!$E$23</f>
+      </c>
+      <c r="J134" t="s">
+        <v>441</v>
+      </c>
+      <c r="K134" t="s">
+        <v>441</v>
+      </c>
+      <c r="L134" t="s">
+        <v>226</v>
+      </c>
+      <c r="M134" t="s">
         <v>386</v>
       </c>
-      <c r="O130" t="s">
-        <v>386</v>
-      </c>
-      <c r="R130" t="s">
-        <v>226</v>
-      </c>
-      <c r="S130" t="s">
-        <v>80</v>
-      </c>
-      <c r="U130" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="131" spans="5:21">
-      <c r="E131" t="s">
-        <v>422</v>
-      </c>
-      <c r="F131" t="s">
-        <v>191</v>
-      </c>
-      <c r="G131" t="s">
-        <v>423</v>
-      </c>
-      <c r="H131" t="s">
-        <v>423</v>
-      </c>
-      <c r="I131" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov-37</v>
-      </c>
-      <c r="J131" t="s">
-        <v>80</v>
-      </c>
-      <c r="K131" t="s">
-        <v>80</v>
-      </c>
-      <c r="L131" t="s">
-        <v>424</v>
-      </c>
-      <c r="M131" t="s">
-        <v>417</v>
-      </c>
-      <c r="N131" t="s">
-        <v>425</v>
-      </c>
-      <c r="O131" t="s">
-        <v>425</v>
-      </c>
-      <c r="R131" t="s">
-        <v>226</v>
-      </c>
-      <c r="S131" t="s">
-        <v>80</v>
-      </c>
-      <c r="U131" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133" t="s">
-        <v>50</v>
-      </c>
-      <c r="B133" t="s">
-        <v>51</v>
-      </c>
-      <c r="C133" t="s">
-        <v>426</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="G133" t="s">
-        <v>62</v>
-      </c>
-      <c r="H133" t="s">
-        <v>63</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J133" t="s">
-        <v>430</v>
-      </c>
-      <c r="K133" t="s">
-        <v>431</v>
-      </c>
-      <c r="L133" t="s">
-        <v>211</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="N133" t="s">
-        <v>433</v>
-      </c>
-      <c r="O133" t="s">
-        <v>434</v>
-      </c>
-      <c r="P133" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="5:17">
-      <c r="E134" t="s">
+      <c r="N134" t="s">
+        <v>80</v>
+      </c>
+      <c r="O134" t="s">
+        <v>80</v>
+      </c>
+      <c r="P134" t="s">
         <v>436</v>
       </c>
-      <c r="F134" t="str">
-        <f>值集数据!$E$120</f>
-        <v>hpfm_lov_view_header-120</v>
-      </c>
-      <c r="G134" t="s">
-        <v>80</v>
-      </c>
-      <c r="H134" t="s">
-        <v>80</v>
-      </c>
-      <c r="I134" t="str">
+      <c r="Q134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="s">
+        <v>442</v>
+      </c>
+      <c r="F135">
+        <f>值集数据!$E$118</f>
+      </c>
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s">
+        <v>80</v>
+      </c>
+      <c r="I135">
         <f>值集数据!$E$23</f>
-        <v>hpfm_lov-23</v>
-      </c>
-      <c r="J134" t="s">
-        <v>437</v>
-      </c>
-      <c r="K134" t="s">
-        <v>437</v>
-      </c>
-      <c r="L134" t="s">
-        <v>273</v>
-      </c>
-      <c r="M134" t="s">
-        <v>438</v>
-      </c>
-      <c r="N134" t="s">
-        <v>80</v>
-      </c>
-      <c r="O134" t="s">
-        <v>80</v>
-      </c>
-      <c r="P134" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="5:17">
-      <c r="E135" t="s">
-        <v>440</v>
-      </c>
-      <c r="F135" t="str">
-        <f>值集数据!$E$120</f>
-        <v>hpfm_lov_view_header-120</v>
-      </c>
-      <c r="G135" t="s">
-        <v>80</v>
-      </c>
-      <c r="H135" t="s">
-        <v>80</v>
-      </c>
-      <c r="I135" t="str">
-        <f>值集数据!$E$23</f>
-        <v>hpfm_lov-23</v>
       </c>
       <c r="J135" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K135" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L135" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M135" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="N135" t="s">
         <v>81</v>
@@ -9800,19 +9353,18 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q135" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="5:17">
+    <row r="136">
       <c r="E136" t="s">
-        <v>443</v>
-      </c>
-      <c r="F136" t="str">
-        <f>值集数据!$E$120</f>
-        <v>hpfm_lov_view_header-120</v>
+        <v>444</v>
+      </c>
+      <c r="F136">
+        <f>值集数据!$E$119</f>
       </c>
       <c r="G136" t="s">
         <v>80</v>
@@ -9820,42 +9372,40 @@
       <c r="H136" t="s">
         <v>80</v>
       </c>
-      <c r="I136" t="str">
-        <f>值集数据!$E$23</f>
-        <v>hpfm_lov-23</v>
+      <c r="I136">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J136" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K136" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L136" t="s">
         <v>226</v>
       </c>
       <c r="M136" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="N136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P136" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q136" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="5:17">
+    <row r="137">
       <c r="E137" t="s">
-        <v>445</v>
-      </c>
-      <c r="F137" t="str">
-        <f>值集数据!$E$120</f>
-        <v>hpfm_lov_view_header-120</v>
+        <v>448</v>
+      </c>
+      <c r="F137">
+        <f>值集数据!$E$119</f>
       </c>
       <c r="G137" t="s">
         <v>80</v>
@@ -9863,18 +9413,17 @@
       <c r="H137" t="s">
         <v>80</v>
       </c>
-      <c r="I137" t="str">
-        <f>值集数据!$E$23</f>
-        <v>hpfm_lov-23</v>
+      <c r="I137">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J137" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K137" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L137" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="M137" t="s">
         <v>390</v>
@@ -9886,406 +9435,387 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q137" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="5:17">
+    <row r="138">
       <c r="E138" t="s">
-        <v>447</v>
-      </c>
-      <c r="F138" t="str">
+        <v>450</v>
+      </c>
+      <c r="F138">
+        <f>值集数据!$E$120</f>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>80</v>
+      </c>
+      <c r="I138">
+        <f>值集数据!$E$28</f>
+      </c>
+      <c r="J138" t="s">
+        <v>451</v>
+      </c>
+      <c r="K138" t="s">
+        <v>451</v>
+      </c>
+      <c r="L138" t="s">
+        <v>290</v>
+      </c>
+      <c r="M138" t="s">
+        <v>394</v>
+      </c>
+      <c r="N138" t="s">
+        <v>81</v>
+      </c>
+      <c r="O138" t="s">
+        <v>81</v>
+      </c>
+      <c r="P138" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="s">
+        <v>453</v>
+      </c>
+      <c r="F139">
+        <f>值集数据!$E$120</f>
+      </c>
+      <c r="G139" t="s">
+        <v>80</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <f>值集数据!$E$28</f>
+      </c>
+      <c r="J139" t="s">
+        <v>454</v>
+      </c>
+      <c r="K139" t="s">
+        <v>454</v>
+      </c>
+      <c r="L139" t="s">
+        <v>81</v>
+      </c>
+      <c r="M139" t="s">
+        <v>397</v>
+      </c>
+      <c r="N139" t="s">
+        <v>81</v>
+      </c>
+      <c r="O139" t="s">
+        <v>81</v>
+      </c>
+      <c r="P139" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="s">
+        <v>455</v>
+      </c>
+      <c r="F140">
         <f>值集数据!$E$121</f>
-        <v>hpfm_lov_view_header-121</v>
-      </c>
-      <c r="G138" t="s">
-        <v>80</v>
-      </c>
-      <c r="H138" t="s">
-        <v>80</v>
-      </c>
-      <c r="I138" t="str">
-        <f>值集数据!$E$24</f>
-        <v>hpfm_lov-24</v>
-      </c>
-      <c r="J138" t="s">
-        <v>448</v>
-      </c>
-      <c r="K138" t="s">
-        <v>448</v>
-      </c>
-      <c r="L138" t="s">
-        <v>226</v>
-      </c>
-      <c r="M138" t="s">
-        <v>449</v>
-      </c>
-      <c r="N138" t="s">
-        <v>81</v>
-      </c>
-      <c r="O138" t="s">
-        <v>81</v>
-      </c>
-      <c r="P138" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="5:17">
-      <c r="E139" t="s">
+      </c>
+      <c r="G140" t="s">
+        <v>80</v>
+      </c>
+      <c r="H140" t="s">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="J140" t="s">
         <v>451</v>
       </c>
-      <c r="F139" t="str">
-        <f>值集数据!$E$121</f>
-        <v>hpfm_lov_view_header-121</v>
-      </c>
-      <c r="G139" t="s">
-        <v>80</v>
-      </c>
-      <c r="H139" t="s">
-        <v>80</v>
-      </c>
-      <c r="I139" t="str">
-        <f>值集数据!$E$24</f>
-        <v>hpfm_lov-24</v>
-      </c>
-      <c r="J139" t="s">
+      <c r="K140" t="s">
+        <v>451</v>
+      </c>
+      <c r="L140" t="s">
+        <v>81</v>
+      </c>
+      <c r="M140" t="s">
+        <v>394</v>
+      </c>
+      <c r="N140" t="s">
+        <v>81</v>
+      </c>
+      <c r="O140" t="s">
+        <v>81</v>
+      </c>
+      <c r="P140" t="s">
         <v>452</v>
       </c>
-      <c r="K139" t="s">
-        <v>452</v>
-      </c>
-      <c r="L139" t="s">
-        <v>229</v>
-      </c>
-      <c r="M139" t="s">
-        <v>393</v>
-      </c>
-      <c r="N139" t="s">
-        <v>81</v>
-      </c>
-      <c r="O139" t="s">
-        <v>81</v>
-      </c>
-      <c r="P139" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="140" spans="5:17">
-      <c r="E140" t="s">
-        <v>453</v>
-      </c>
-      <c r="F140" t="str">
-        <f>值集数据!$E$122</f>
-        <v>hpfm_lov_view_header-122</v>
-      </c>
-      <c r="G140" t="s">
-        <v>80</v>
-      </c>
-      <c r="H140" t="s">
-        <v>80</v>
-      </c>
-      <c r="I140" t="str">
-        <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
-      </c>
-      <c r="J140" t="s">
-        <v>454</v>
-      </c>
-      <c r="K140" t="s">
-        <v>454</v>
-      </c>
-      <c r="L140" t="s">
-        <v>290</v>
-      </c>
-      <c r="M140" t="s">
-        <v>397</v>
-      </c>
-      <c r="N140" t="s">
-        <v>81</v>
-      </c>
-      <c r="O140" t="s">
-        <v>81</v>
-      </c>
-      <c r="P140" t="s">
-        <v>455</v>
-      </c>
       <c r="Q140" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="5:17">
+    <row r="141">
       <c r="E141" t="s">
         <v>456</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F141">
+        <f>值集数据!$E$121</f>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="J141" t="s">
+        <v>454</v>
+      </c>
+      <c r="K141" t="s">
+        <v>454</v>
+      </c>
+      <c r="L141" t="s">
+        <v>290</v>
+      </c>
+      <c r="M141" t="s">
+        <v>397</v>
+      </c>
+      <c r="N141" t="s">
+        <v>81</v>
+      </c>
+      <c r="O141" t="s">
+        <v>81</v>
+      </c>
+      <c r="P141" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="s">
+        <v>457</v>
+      </c>
+      <c r="F142">
+        <f>值集数据!$E$121</f>
+      </c>
+      <c r="G142" t="s">
+        <v>80</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <f>值集数据!$E$29</f>
+      </c>
+      <c r="J142" t="s">
+        <v>458</v>
+      </c>
+      <c r="K142" t="s">
+        <v>458</v>
+      </c>
+      <c r="L142" t="s">
+        <v>334</v>
+      </c>
+      <c r="M142" t="s">
+        <v>459</v>
+      </c>
+      <c r="N142" t="s">
+        <v>80</v>
+      </c>
+      <c r="O142" t="s">
+        <v>81</v>
+      </c>
+      <c r="P142" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="s">
+        <v>460</v>
+      </c>
+      <c r="F143">
         <f>值集数据!$E$122</f>
-        <v>hpfm_lov_view_header-122</v>
-      </c>
-      <c r="G141" t="s">
-        <v>80</v>
-      </c>
-      <c r="H141" t="s">
-        <v>80</v>
-      </c>
-      <c r="I141" t="str">
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143">
         <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
-      </c>
-      <c r="J141" t="s">
-        <v>457</v>
-      </c>
-      <c r="K141" t="s">
-        <v>457</v>
-      </c>
-      <c r="L141" t="s">
-        <v>81</v>
-      </c>
-      <c r="M141" t="s">
-        <v>400</v>
-      </c>
-      <c r="N141" t="s">
-        <v>81</v>
-      </c>
-      <c r="O141" t="s">
-        <v>81</v>
-      </c>
-      <c r="P141" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="142" spans="5:17">
-      <c r="E142" t="s">
-        <v>458</v>
-      </c>
-      <c r="F142" t="str">
+      </c>
+      <c r="J143" t="s">
+        <v>461</v>
+      </c>
+      <c r="K143" t="s">
+        <v>461</v>
+      </c>
+      <c r="L143" t="s">
+        <v>81</v>
+      </c>
+      <c r="M143" t="s">
+        <v>394</v>
+      </c>
+      <c r="N143" t="s">
+        <v>81</v>
+      </c>
+      <c r="O143" t="s">
+        <v>81</v>
+      </c>
+      <c r="P143" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="s">
+        <v>462</v>
+      </c>
+      <c r="F144">
+        <f>值集数据!$E$122</f>
+      </c>
+      <c r="G144" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s">
+        <v>80</v>
+      </c>
+      <c r="I144">
+        <f>值集数据!$E$28</f>
+      </c>
+      <c r="J144" t="s">
+        <v>463</v>
+      </c>
+      <c r="K144" t="s">
+        <v>463</v>
+      </c>
+      <c r="L144" t="s">
+        <v>290</v>
+      </c>
+      <c r="M144" t="s">
+        <v>397</v>
+      </c>
+      <c r="N144" t="s">
+        <v>81</v>
+      </c>
+      <c r="O144" t="s">
+        <v>81</v>
+      </c>
+      <c r="P144" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="s">
+        <v>464</v>
+      </c>
+      <c r="F145">
+        <f>值集数据!$E$122</f>
+      </c>
+      <c r="G145" t="s">
+        <v>80</v>
+      </c>
+      <c r="H145" t="s">
+        <v>80</v>
+      </c>
+      <c r="I145">
+        <f>值集数据!$E$28</f>
+      </c>
+      <c r="J145" t="s">
+        <v>465</v>
+      </c>
+      <c r="K145" t="s">
+        <v>465</v>
+      </c>
+      <c r="L145" t="s">
+        <v>334</v>
+      </c>
+      <c r="M145" t="s">
+        <v>435</v>
+      </c>
+      <c r="N145" t="s">
+        <v>81</v>
+      </c>
+      <c r="O145" t="s">
+        <v>81</v>
+      </c>
+      <c r="P145" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="s">
+        <v>466</v>
+      </c>
+      <c r="F146">
         <f>值集数据!$E$123</f>
-        <v>hpfm_lov_view_header-123</v>
-      </c>
-      <c r="G142" t="s">
-        <v>80</v>
-      </c>
-      <c r="H142" t="s">
-        <v>80</v>
-      </c>
-      <c r="I142" t="str">
-        <f>值集数据!$E$29</f>
-        <v>hpfm_lov-29</v>
-      </c>
-      <c r="J142" t="s">
-        <v>454</v>
-      </c>
-      <c r="K142" t="s">
-        <v>454</v>
-      </c>
-      <c r="L142" t="s">
-        <v>81</v>
-      </c>
-      <c r="M142" t="s">
-        <v>397</v>
-      </c>
-      <c r="N142" t="s">
-        <v>81</v>
-      </c>
-      <c r="O142" t="s">
-        <v>81</v>
-      </c>
-      <c r="P142" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="143" spans="5:17">
-      <c r="E143" t="s">
-        <v>459</v>
-      </c>
-      <c r="F143" t="str">
-        <f>值集数据!$E$123</f>
-        <v>hpfm_lov_view_header-123</v>
-      </c>
-      <c r="G143" t="s">
-        <v>80</v>
-      </c>
-      <c r="H143" t="s">
-        <v>80</v>
-      </c>
-      <c r="I143" t="str">
-        <f>值集数据!$E$29</f>
-        <v>hpfm_lov-29</v>
-      </c>
-      <c r="J143" t="s">
-        <v>457</v>
-      </c>
-      <c r="K143" t="s">
-        <v>457</v>
-      </c>
-      <c r="L143" t="s">
-        <v>290</v>
-      </c>
-      <c r="M143" t="s">
-        <v>400</v>
-      </c>
-      <c r="N143" t="s">
-        <v>81</v>
-      </c>
-      <c r="O143" t="s">
-        <v>81</v>
-      </c>
-      <c r="P143" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="5:17">
-      <c r="E144" t="s">
-        <v>460</v>
-      </c>
-      <c r="F144" t="str">
-        <f>值集数据!$E$123</f>
-        <v>hpfm_lov_view_header-123</v>
-      </c>
-      <c r="G144" t="s">
-        <v>80</v>
-      </c>
-      <c r="H144" t="s">
-        <v>80</v>
-      </c>
-      <c r="I144" t="str">
-        <f>值集数据!$E$29</f>
-        <v>hpfm_lov-29</v>
-      </c>
-      <c r="J144" t="s">
-        <v>461</v>
-      </c>
-      <c r="K144" t="s">
-        <v>461</v>
-      </c>
-      <c r="L144" t="s">
-        <v>334</v>
-      </c>
-      <c r="M144" t="s">
-        <v>462</v>
-      </c>
-      <c r="N144" t="s">
-        <v>80</v>
-      </c>
-      <c r="O144" t="s">
-        <v>81</v>
-      </c>
-      <c r="P144" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="5:17">
-      <c r="E145" t="s">
-        <v>463</v>
-      </c>
-      <c r="F145" t="str">
-        <f>值集数据!$E$124</f>
-        <v>hpfm_lov_view_header-124</v>
-      </c>
-      <c r="G145" t="s">
-        <v>80</v>
-      </c>
-      <c r="H145" t="s">
-        <v>80</v>
-      </c>
-      <c r="I145" t="str">
-        <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
-      </c>
-      <c r="J145" t="s">
-        <v>464</v>
-      </c>
-      <c r="K145" t="s">
-        <v>464</v>
-      </c>
-      <c r="L145" t="s">
-        <v>81</v>
-      </c>
-      <c r="M145" t="s">
-        <v>397</v>
-      </c>
-      <c r="N145" t="s">
-        <v>81</v>
-      </c>
-      <c r="O145" t="s">
-        <v>81</v>
-      </c>
-      <c r="P145" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="146" spans="5:17">
-      <c r="E146" t="s">
+      </c>
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146">
+        <f>值集数据!$E$30</f>
+      </c>
+      <c r="J146" t="s">
         <v>465</v>
       </c>
-      <c r="F146" t="str">
-        <f>值集数据!$E$124</f>
-        <v>hpfm_lov_view_header-124</v>
-      </c>
-      <c r="G146" t="s">
-        <v>80</v>
-      </c>
-      <c r="H146" t="s">
-        <v>80</v>
-      </c>
-      <c r="I146" t="str">
-        <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
-      </c>
-      <c r="J146" t="s">
-        <v>466</v>
-      </c>
       <c r="K146" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L146" t="s">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="M146" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="N146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P146" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q146" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="5:17">
+    <row r="147">
       <c r="E147" t="s">
         <v>467</v>
       </c>
-      <c r="F147" t="str">
-        <f>值集数据!$E$124</f>
-        <v>hpfm_lov_view_header-124</v>
+      <c r="F147">
+        <f>值集数据!$E$123</f>
       </c>
       <c r="G147" t="s">
         <v>80</v>
@@ -10293,64 +9823,61 @@
       <c r="H147" t="s">
         <v>80</v>
       </c>
-      <c r="I147" t="str">
-        <f>值集数据!$E$28</f>
-        <v>hpfm_lov-28</v>
+      <c r="I147">
+        <f>值集数据!$E$30</f>
       </c>
       <c r="J147" t="s">
+        <v>438</v>
+      </c>
+      <c r="K147" t="s">
+        <v>438</v>
+      </c>
+      <c r="L147" t="s">
+        <v>229</v>
+      </c>
+      <c r="M147" t="s">
+        <v>439</v>
+      </c>
+      <c r="N147" t="s">
+        <v>81</v>
+      </c>
+      <c r="O147" t="s">
+        <v>81</v>
+      </c>
+      <c r="P147" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="s">
         <v>468</v>
       </c>
-      <c r="K147" t="s">
-        <v>468</v>
-      </c>
-      <c r="L147" t="s">
-        <v>334</v>
-      </c>
-      <c r="M147" t="s">
-        <v>438</v>
-      </c>
-      <c r="N147" t="s">
-        <v>81</v>
-      </c>
-      <c r="O147" t="s">
-        <v>81</v>
-      </c>
-      <c r="P147" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148" spans="5:17">
-      <c r="E148" t="s">
+      <c r="F148">
+        <f>值集数据!$E$123</f>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <f>值集数据!$E$30</f>
+      </c>
+      <c r="J148" t="s">
         <v>469</v>
       </c>
-      <c r="F148" t="str">
-        <f>值集数据!$E$125</f>
-        <v>hpfm_lov_view_header-125</v>
-      </c>
-      <c r="G148" t="s">
-        <v>80</v>
-      </c>
-      <c r="H148" t="s">
-        <v>80</v>
-      </c>
-      <c r="I148" t="str">
-        <f>值集数据!$E$30</f>
-        <v>hpfm_lov-30</v>
-      </c>
-      <c r="J148" t="s">
-        <v>468</v>
-      </c>
       <c r="K148" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L148" t="s">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="M148" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="N148" t="s">
         <v>80</v>
@@ -10359,19 +9886,18 @@
         <v>80</v>
       </c>
       <c r="P148" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q148" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="5:17">
+    <row r="149">
       <c r="E149" t="s">
         <v>470</v>
       </c>
-      <c r="F149" t="str">
-        <f>值集数据!$E$125</f>
-        <v>hpfm_lov_view_header-125</v>
+      <c r="F149">
+        <f>值集数据!$E$123</f>
       </c>
       <c r="G149" t="s">
         <v>80</v>
@@ -10379,21 +9905,20 @@
       <c r="H149" t="s">
         <v>80</v>
       </c>
-      <c r="I149" t="str">
+      <c r="I149">
         <f>值集数据!$E$30</f>
-        <v>hpfm_lov-30</v>
       </c>
       <c r="J149" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K149" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L149" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M149" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="N149" t="s">
         <v>81</v>
@@ -10402,19 +9927,18 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q149" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="5:17">
+    <row r="150">
       <c r="E150" t="s">
         <v>471</v>
       </c>
-      <c r="F150" t="str">
-        <f>值集数据!$E$125</f>
-        <v>hpfm_lov_view_header-125</v>
+      <c r="F150">
+        <f>值集数据!$E$124</f>
       </c>
       <c r="G150" t="s">
         <v>80</v>
@@ -10422,343 +9946,327 @@
       <c r="H150" t="s">
         <v>80</v>
       </c>
-      <c r="I150" t="str">
-        <f>值集数据!$E$30</f>
-        <v>hpfm_lov-30</v>
+      <c r="I150">
+        <f>值集数据!$E$31</f>
       </c>
       <c r="J150" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="K150" t="s">
         <v>472</v>
       </c>
       <c r="L150" t="s">
+        <v>273</v>
+      </c>
+      <c r="M150" t="s">
+        <v>473</v>
+      </c>
+      <c r="N150" t="s">
+        <v>81</v>
+      </c>
+      <c r="O150" t="s">
+        <v>81</v>
+      </c>
+      <c r="P150" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="s">
+        <v>474</v>
+      </c>
+      <c r="F151">
+        <f>值集数据!$E$124</f>
+      </c>
+      <c r="G151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s">
+        <v>80</v>
+      </c>
+      <c r="I151">
+        <f>值集数据!$E$31</f>
+      </c>
+      <c r="J151" t="s">
+        <v>475</v>
+      </c>
+      <c r="K151" t="s">
+        <v>476</v>
+      </c>
+      <c r="L151" t="s">
         <v>226</v>
       </c>
-      <c r="M150" t="s">
-        <v>389</v>
-      </c>
-      <c r="N150" t="s">
-        <v>80</v>
-      </c>
-      <c r="O150" t="s">
-        <v>80</v>
-      </c>
-      <c r="P150" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" spans="5:17">
-      <c r="E151" t="s">
-        <v>473</v>
-      </c>
-      <c r="F151" t="str">
+      <c r="M151" t="s">
+        <v>477</v>
+      </c>
+      <c r="N151" t="s">
+        <v>81</v>
+      </c>
+      <c r="O151" t="s">
+        <v>81</v>
+      </c>
+      <c r="P151" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="s">
+        <v>479</v>
+      </c>
+      <c r="F152">
+        <f>值集数据!$E$124</f>
+      </c>
+      <c r="G152" t="s">
+        <v>80</v>
+      </c>
+      <c r="H152" t="s">
+        <v>80</v>
+      </c>
+      <c r="I152">
+        <f>值集数据!$E$31</f>
+      </c>
+      <c r="J152" t="s">
+        <v>480</v>
+      </c>
+      <c r="K152" t="s">
+        <v>481</v>
+      </c>
+      <c r="L152" t="s">
+        <v>245</v>
+      </c>
+      <c r="M152" t="s">
+        <v>481</v>
+      </c>
+      <c r="N152" t="s">
+        <v>81</v>
+      </c>
+      <c r="O152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="s">
+        <v>483</v>
+      </c>
+      <c r="F153">
+        <f>值集数据!$E$124</f>
+      </c>
+      <c r="G153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" t="s">
+        <v>80</v>
+      </c>
+      <c r="I153">
+        <f>值集数据!$E$31</f>
+      </c>
+      <c r="J153" t="s">
+        <v>484</v>
+      </c>
+      <c r="K153" t="s">
+        <v>485</v>
+      </c>
+      <c r="L153" t="s">
+        <v>229</v>
+      </c>
+      <c r="M153" t="s">
+        <v>486</v>
+      </c>
+      <c r="N153" t="s">
+        <v>81</v>
+      </c>
+      <c r="O153" t="s">
+        <v>81</v>
+      </c>
+      <c r="P153" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="s">
+        <v>487</v>
+      </c>
+      <c r="F154">
         <f>值集数据!$E$125</f>
-        <v>hpfm_lov_view_header-125</v>
-      </c>
-      <c r="G151" t="s">
-        <v>80</v>
-      </c>
-      <c r="H151" t="s">
-        <v>80</v>
-      </c>
-      <c r="I151" t="str">
-        <f>值集数据!$E$30</f>
-        <v>hpfm_lov-30</v>
-      </c>
-      <c r="J151" t="s">
-        <v>446</v>
-      </c>
-      <c r="K151" t="s">
-        <v>446</v>
-      </c>
-      <c r="L151" t="s">
-        <v>245</v>
-      </c>
-      <c r="M151" t="s">
-        <v>390</v>
-      </c>
-      <c r="N151" t="s">
-        <v>81</v>
-      </c>
-      <c r="O151" t="s">
-        <v>81</v>
-      </c>
-      <c r="P151" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" spans="5:17">
-      <c r="E152" t="s">
-        <v>474</v>
-      </c>
-      <c r="F152" t="str">
+      </c>
+      <c r="G154" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" t="s">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <f>值集数据!$E$33</f>
+      </c>
+      <c r="J154" t="s">
+        <v>488</v>
+      </c>
+      <c r="K154" t="s">
+        <v>488</v>
+      </c>
+      <c r="L154" t="s">
+        <v>81</v>
+      </c>
+      <c r="M154" t="s">
+        <v>489</v>
+      </c>
+      <c r="N154" t="s">
+        <v>81</v>
+      </c>
+      <c r="O154" t="s">
+        <v>81</v>
+      </c>
+      <c r="P154" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="s">
+        <v>490</v>
+      </c>
+      <c r="F155">
+        <f>值集数据!$E$125</f>
+      </c>
+      <c r="G155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H155" t="s">
+        <v>80</v>
+      </c>
+      <c r="I155">
+        <f>值集数据!$E$33</f>
+      </c>
+      <c r="J155" t="s">
+        <v>491</v>
+      </c>
+      <c r="K155" t="s">
+        <v>491</v>
+      </c>
+      <c r="L155" t="s">
+        <v>290</v>
+      </c>
+      <c r="M155" t="s">
+        <v>406</v>
+      </c>
+      <c r="N155" t="s">
+        <v>81</v>
+      </c>
+      <c r="O155" t="s">
+        <v>81</v>
+      </c>
+      <c r="P155" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="s">
+        <v>492</v>
+      </c>
+      <c r="F156">
         <f>值集数据!$E$126</f>
-        <v>hpfm_lov_view_header-126</v>
-      </c>
-      <c r="G152" t="s">
-        <v>80</v>
-      </c>
-      <c r="H152" t="s">
-        <v>80</v>
-      </c>
-      <c r="I152" t="str">
-        <f>值集数据!$E$31</f>
-        <v>hpfm_lov-31</v>
-      </c>
-      <c r="J152" t="s">
-        <v>335</v>
-      </c>
-      <c r="K152" t="s">
-        <v>475</v>
-      </c>
-      <c r="L152" t="s">
-        <v>273</v>
-      </c>
-      <c r="M152" t="s">
-        <v>476</v>
-      </c>
-      <c r="N152" t="s">
-        <v>81</v>
-      </c>
-      <c r="O152" t="s">
-        <v>81</v>
-      </c>
-      <c r="P152" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153" spans="5:17">
-      <c r="E153" t="s">
-        <v>477</v>
-      </c>
-      <c r="F153" t="str">
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>80</v>
+      </c>
+      <c r="I156">
+        <f>值集数据!$E$34</f>
+      </c>
+      <c r="J156" t="s">
+        <v>493</v>
+      </c>
+      <c r="K156" t="s">
+        <v>493</v>
+      </c>
+      <c r="L156" t="s">
+        <v>290</v>
+      </c>
+      <c r="M156" t="s">
+        <v>382</v>
+      </c>
+      <c r="N156" t="s">
+        <v>81</v>
+      </c>
+      <c r="O156" t="s">
+        <v>81</v>
+      </c>
+      <c r="P156" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="s">
+        <v>494</v>
+      </c>
+      <c r="F157">
         <f>值集数据!$E$126</f>
-        <v>hpfm_lov_view_header-126</v>
-      </c>
-      <c r="G153" t="s">
-        <v>80</v>
-      </c>
-      <c r="H153" t="s">
-        <v>80</v>
-      </c>
-      <c r="I153" t="str">
-        <f>值集数据!$E$31</f>
-        <v>hpfm_lov-31</v>
-      </c>
-      <c r="J153" t="s">
-        <v>478</v>
-      </c>
-      <c r="K153" t="s">
-        <v>479</v>
-      </c>
-      <c r="L153" t="s">
-        <v>226</v>
-      </c>
-      <c r="M153" t="s">
-        <v>480</v>
-      </c>
-      <c r="N153" t="s">
-        <v>81</v>
-      </c>
-      <c r="O153" t="s">
-        <v>81</v>
-      </c>
-      <c r="P153" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154" spans="5:17">
-      <c r="E154" t="s">
-        <v>482</v>
-      </c>
-      <c r="F154" t="str">
-        <f>值集数据!$E$126</f>
-        <v>hpfm_lov_view_header-126</v>
-      </c>
-      <c r="G154" t="s">
-        <v>80</v>
-      </c>
-      <c r="H154" t="s">
-        <v>80</v>
-      </c>
-      <c r="I154" t="str">
-        <f>值集数据!$E$31</f>
-        <v>hpfm_lov-31</v>
-      </c>
-      <c r="J154" t="s">
-        <v>483</v>
-      </c>
-      <c r="K154" t="s">
-        <v>484</v>
-      </c>
-      <c r="L154" t="s">
-        <v>245</v>
-      </c>
-      <c r="M154" t="s">
-        <v>484</v>
-      </c>
-      <c r="N154" t="s">
-        <v>81</v>
-      </c>
-      <c r="O154" t="s">
-        <v>81</v>
-      </c>
-      <c r="P154" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" spans="5:17">
-      <c r="E155" t="s">
-        <v>486</v>
-      </c>
-      <c r="F155" t="str">
-        <f>值集数据!$E$126</f>
-        <v>hpfm_lov_view_header-126</v>
-      </c>
-      <c r="G155" t="s">
-        <v>80</v>
-      </c>
-      <c r="H155" t="s">
-        <v>80</v>
-      </c>
-      <c r="I155" t="str">
-        <f>值集数据!$E$31</f>
-        <v>hpfm_lov-31</v>
-      </c>
-      <c r="J155" t="s">
-        <v>487</v>
-      </c>
-      <c r="K155" t="s">
-        <v>488</v>
-      </c>
-      <c r="L155" t="s">
-        <v>229</v>
-      </c>
-      <c r="M155" t="s">
-        <v>489</v>
-      </c>
-      <c r="N155" t="s">
-        <v>81</v>
-      </c>
-      <c r="O155" t="s">
-        <v>81</v>
-      </c>
-      <c r="P155" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="5:17">
-      <c r="E156" t="s">
-        <v>490</v>
-      </c>
-      <c r="F156" t="str">
+      </c>
+      <c r="G157" t="s">
+        <v>80</v>
+      </c>
+      <c r="H157" t="s">
+        <v>80</v>
+      </c>
+      <c r="I157">
+        <f>值集数据!$E$34</f>
+      </c>
+      <c r="J157" t="s">
+        <v>495</v>
+      </c>
+      <c r="K157" t="s">
+        <v>495</v>
+      </c>
+      <c r="L157" t="s">
+        <v>81</v>
+      </c>
+      <c r="M157" t="s">
+        <v>496</v>
+      </c>
+      <c r="N157" t="s">
+        <v>81</v>
+      </c>
+      <c r="O157" t="s">
+        <v>81</v>
+      </c>
+      <c r="P157" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="s">
+        <v>497</v>
+      </c>
+      <c r="F158">
         <f>值集数据!$E$127</f>
-        <v>hpfm_lov_view_header-127</v>
-      </c>
-      <c r="G156" t="s">
-        <v>80</v>
-      </c>
-      <c r="H156" t="s">
-        <v>80</v>
-      </c>
-      <c r="I156" t="str">
-        <f>值集数据!$E$33</f>
-        <v>hpfm_lov-33</v>
-      </c>
-      <c r="J156" t="s">
-        <v>491</v>
-      </c>
-      <c r="K156" t="s">
-        <v>491</v>
-      </c>
-      <c r="L156" t="s">
-        <v>81</v>
-      </c>
-      <c r="M156" t="s">
-        <v>492</v>
-      </c>
-      <c r="N156" t="s">
-        <v>81</v>
-      </c>
-      <c r="O156" t="s">
-        <v>81</v>
-      </c>
-      <c r="P156" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="157" spans="5:17">
-      <c r="E157" t="s">
-        <v>493</v>
-      </c>
-      <c r="F157" t="str">
-        <f>值集数据!$E$127</f>
-        <v>hpfm_lov_view_header-127</v>
-      </c>
-      <c r="G157" t="s">
-        <v>80</v>
-      </c>
-      <c r="H157" t="s">
-        <v>80</v>
-      </c>
-      <c r="I157" t="str">
-        <f>值集数据!$E$33</f>
-        <v>hpfm_lov-33</v>
-      </c>
-      <c r="J157" t="s">
-        <v>494</v>
-      </c>
-      <c r="K157" t="s">
-        <v>494</v>
-      </c>
-      <c r="L157" t="s">
-        <v>290</v>
-      </c>
-      <c r="M157" t="s">
-        <v>409</v>
-      </c>
-      <c r="N157" t="s">
-        <v>81</v>
-      </c>
-      <c r="O157" t="s">
-        <v>81</v>
-      </c>
-      <c r="P157" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="5:17">
-      <c r="E158" t="s">
-        <v>495</v>
-      </c>
-      <c r="F158" t="str">
-        <f>值集数据!$E$128</f>
-        <v>hpfm_lov_view_header-128</v>
       </c>
       <c r="G158" t="s">
         <v>80</v>
@@ -10766,21 +10274,20 @@
       <c r="H158" t="s">
         <v>80</v>
       </c>
-      <c r="I158" t="str">
-        <f>值集数据!$E$34</f>
-        <v>hpfm_lov-34</v>
+      <c r="I158">
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J158" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K158" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L158" t="s">
         <v>290</v>
       </c>
       <c r="M158" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="N158" t="s">
         <v>81</v>
@@ -10789,62 +10296,59 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="Q158" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="5:17">
+    <row r="159">
       <c r="E159" t="s">
-        <v>497</v>
-      </c>
-      <c r="F159" t="str">
+        <v>500</v>
+      </c>
+      <c r="F159">
+        <f>值集数据!$E$127</f>
+      </c>
+      <c r="G159" t="s">
+        <v>80</v>
+      </c>
+      <c r="H159" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J159" t="s">
+        <v>501</v>
+      </c>
+      <c r="K159" t="s">
+        <v>501</v>
+      </c>
+      <c r="L159" t="s">
+        <v>81</v>
+      </c>
+      <c r="M159" t="s">
+        <v>413</v>
+      </c>
+      <c r="N159" t="s">
+        <v>81</v>
+      </c>
+      <c r="O159" t="s">
+        <v>81</v>
+      </c>
+      <c r="P159" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="s">
+        <v>502</v>
+      </c>
+      <c r="F160">
         <f>值集数据!$E$128</f>
-        <v>hpfm_lov_view_header-128</v>
-      </c>
-      <c r="G159" t="s">
-        <v>80</v>
-      </c>
-      <c r="H159" t="s">
-        <v>80</v>
-      </c>
-      <c r="I159" t="str">
-        <f>值集数据!$E$34</f>
-        <v>hpfm_lov-34</v>
-      </c>
-      <c r="J159" t="s">
-        <v>498</v>
-      </c>
-      <c r="K159" t="s">
-        <v>498</v>
-      </c>
-      <c r="L159" t="s">
-        <v>81</v>
-      </c>
-      <c r="M159" t="s">
-        <v>499</v>
-      </c>
-      <c r="N159" t="s">
-        <v>81</v>
-      </c>
-      <c r="O159" t="s">
-        <v>81</v>
-      </c>
-      <c r="P159" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="160" spans="5:17">
-      <c r="E160" t="s">
-        <v>500</v>
-      </c>
-      <c r="F160" t="str">
-        <f>值集数据!$E$129</f>
-        <v>hpfm_lov_view_header-129</v>
       </c>
       <c r="G160" t="s">
         <v>80</v>
@@ -10852,42 +10356,40 @@
       <c r="H160" t="s">
         <v>80</v>
       </c>
-      <c r="I160" t="str">
-        <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
+      <c r="I160">
+        <f>值集数据!$E$15</f>
       </c>
       <c r="J160" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K160" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L160" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="M160" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="N160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O160" t="s">
         <v>81</v>
       </c>
       <c r="P160" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="Q160" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="5:17">
+    <row r="161">
       <c r="E161" t="s">
-        <v>503</v>
-      </c>
-      <c r="F161" t="str">
-        <f>值集数据!$E$129</f>
-        <v>hpfm_lov_view_header-129</v>
+        <v>504</v>
+      </c>
+      <c r="F161">
+        <f>值集数据!$E$128</f>
       </c>
       <c r="G161" t="s">
         <v>80</v>
@@ -10895,21 +10397,20 @@
       <c r="H161" t="s">
         <v>80</v>
       </c>
-      <c r="I161" t="str">
-        <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
+      <c r="I161">
+        <f>值集数据!$E$15</f>
       </c>
       <c r="J161" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="K161" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="L161" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="M161" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="N161" t="s">
         <v>81</v>
@@ -10918,19 +10419,18 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="Q161" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="5:17">
+    <row r="162">
       <c r="E162" t="s">
         <v>505</v>
       </c>
-      <c r="F162" t="str">
-        <f>值集数据!$E$130</f>
-        <v>hpfm_lov_view_header-130</v>
+      <c r="F162">
+        <f>值集数据!$E$128</f>
       </c>
       <c r="G162" t="s">
         <v>80</v>
@@ -10938,64 +10438,61 @@
       <c r="H162" t="s">
         <v>80</v>
       </c>
-      <c r="I162" t="str">
+      <c r="I162">
         <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
       </c>
       <c r="J162" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K162" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L162" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="M162" t="s">
+        <v>496</v>
+      </c>
+      <c r="N162" t="s">
+        <v>81</v>
+      </c>
+      <c r="O162" t="s">
+        <v>80</v>
+      </c>
+      <c r="P162" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="s">
         <v>506</v>
       </c>
-      <c r="N162" t="s">
-        <v>80</v>
-      </c>
-      <c r="O162" t="s">
-        <v>81</v>
-      </c>
-      <c r="P162" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="163" spans="5:17">
-      <c r="E163" t="s">
+      <c r="F163">
+        <f>值集数据!$E$129</f>
+      </c>
+      <c r="G163" t="s">
+        <v>80</v>
+      </c>
+      <c r="H163" t="s">
+        <v>80</v>
+      </c>
+      <c r="I163">
+        <f>值集数据!$E$37</f>
+      </c>
+      <c r="J163" t="s">
         <v>507</v>
       </c>
-      <c r="F163" t="str">
-        <f>值集数据!$E$130</f>
-        <v>hpfm_lov_view_header-130</v>
-      </c>
-      <c r="G163" t="s">
-        <v>80</v>
-      </c>
-      <c r="H163" t="s">
-        <v>80</v>
-      </c>
-      <c r="I163" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
-      </c>
-      <c r="J163" t="s">
-        <v>496</v>
-      </c>
       <c r="K163" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L163" t="s">
         <v>226</v>
       </c>
       <c r="M163" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="N163" t="s">
         <v>81</v>
@@ -11004,19 +10501,18 @@
         <v>81</v>
       </c>
       <c r="P163" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="Q163" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="5:17">
+    <row r="164">
       <c r="E164" t="s">
         <v>508</v>
       </c>
-      <c r="F164" t="str">
-        <f>值集数据!$E$130</f>
-        <v>hpfm_lov_view_header-130</v>
+      <c r="F164">
+        <f>值集数据!$E$129</f>
       </c>
       <c r="G164" t="s">
         <v>80</v>
@@ -11024,123 +10520,35 @@
       <c r="H164" t="s">
         <v>80</v>
       </c>
-      <c r="I164" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
+      <c r="I164">
+        <f>值集数据!$E$37</f>
       </c>
       <c r="J164" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K164" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="L164" t="s">
         <v>229</v>
       </c>
       <c r="M164" t="s">
+        <v>414</v>
+      </c>
+      <c r="N164" t="s">
+        <v>81</v>
+      </c>
+      <c r="O164" t="s">
+        <v>81</v>
+      </c>
+      <c r="P164" t="s">
         <v>499</v>
       </c>
-      <c r="N164" t="s">
-        <v>81</v>
-      </c>
-      <c r="O164" t="s">
-        <v>80</v>
-      </c>
-      <c r="P164" t="s">
-        <v>455</v>
-      </c>
       <c r="Q164" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="5:17">
-      <c r="E165" t="s">
-        <v>509</v>
-      </c>
-      <c r="F165" t="str">
-        <f>值集数据!$E$131</f>
-        <v>hpfm_lov_view_header-131</v>
-      </c>
-      <c r="G165" t="s">
-        <v>80</v>
-      </c>
-      <c r="H165" t="s">
-        <v>80</v>
-      </c>
-      <c r="I165" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov-37</v>
-      </c>
-      <c r="J165" t="s">
-        <v>510</v>
-      </c>
-      <c r="K165" t="s">
-        <v>510</v>
-      </c>
-      <c r="L165" t="s">
-        <v>226</v>
-      </c>
-      <c r="M165" t="s">
-        <v>424</v>
-      </c>
-      <c r="N165" t="s">
-        <v>81</v>
-      </c>
-      <c r="O165" t="s">
-        <v>81</v>
-      </c>
-      <c r="P165" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="166" spans="5:17">
-      <c r="E166" t="s">
-        <v>511</v>
-      </c>
-      <c r="F166" t="str">
-        <f>值集数据!$E$131</f>
-        <v>hpfm_lov_view_header-131</v>
-      </c>
-      <c r="G166" t="s">
-        <v>80</v>
-      </c>
-      <c r="H166" t="s">
-        <v>80</v>
-      </c>
-      <c r="I166" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov-37</v>
-      </c>
-      <c r="J166" t="s">
-        <v>512</v>
-      </c>
-      <c r="K166" t="s">
-        <v>512</v>
-      </c>
-      <c r="L166" t="s">
-        <v>229</v>
-      </c>
-      <c r="M166" t="s">
-        <v>417</v>
-      </c>
-      <c r="N166" t="s">
-        <v>81</v>
-      </c>
-      <c r="O166" t="s">
-        <v>81</v>
-      </c>
-      <c r="P166" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>